--- a/flipkart_categories.xlsx
+++ b/flipkart_categories.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Desktop\setubhandhan\product price prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F5AE54-1C27-4C6E-AC14-59AF8EFA4217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A5BA2-3E74-4641-97C0-5F3B85588B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2676" yWindow="2676" windowWidth="10128" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="url" sheetId="1" r:id="rId1"/>
-    <sheet name="Sports, Books and More" sheetId="8" r:id="rId2"/>
-    <sheet name="electronics" sheetId="2" r:id="rId3"/>
+    <sheet name="electronics" sheetId="2" r:id="rId2"/>
+    <sheet name="Sports, Books and More" sheetId="8" r:id="rId3"/>
     <sheet name="TVs and Appliances" sheetId="3" r:id="rId4"/>
     <sheet name="Men" sheetId="4" r:id="rId5"/>
     <sheet name="Women" sheetId="5" r:id="rId6"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="575">
   <si>
     <t>Mobile Accessories</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Laptops</t>
   </si>
   <si>
-    <t>Featured</t>
-  </si>
-  <si>
     <t>Mobile Cases</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>Speakers</t>
   </si>
   <si>
-    <t>Google Assistant Store</t>
-  </si>
-  <si>
     <t>Headphones &amp; Headsets</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>Home Audio Speakers</t>
   </si>
   <si>
-    <t>Laptops on Buyback Guarantee</t>
-  </si>
-  <si>
     <t>Power Banks</t>
   </si>
   <si>
@@ -76,18 +67,12 @@
     <t>Home Theatres</t>
   </si>
   <si>
-    <t>Flipkart SmartBuy</t>
-  </si>
-  <si>
     <t>Screenguards</t>
   </si>
   <si>
     <t>Soundbars</t>
   </si>
   <si>
-    <t>Li-Polymer Power Banks</t>
-  </si>
-  <si>
     <t>Memory Cards</t>
   </si>
   <si>
@@ -97,9 +82,6 @@
     <t>Bluetooth Speakers</t>
   </si>
   <si>
-    <t>Sony PS4 Pro &amp; Slim</t>
-  </si>
-  <si>
     <t>Smart Headphones</t>
   </si>
   <si>
@@ -109,9 +91,6 @@
     <t>DTH Set Top Box</t>
   </si>
   <si>
-    <t>Apple Products</t>
-  </si>
-  <si>
     <t>Mobile Cables</t>
   </si>
   <si>
@@ -121,9 +100,6 @@
     <t>Smart Home Automation</t>
   </si>
   <si>
-    <t>Microsoft Store</t>
-  </si>
-  <si>
     <t>Mobile Chargers</t>
   </si>
   <si>
@@ -133,21 +109,12 @@
     <t>Google Nest</t>
   </si>
   <si>
-    <t>Lenovo Phab Series</t>
-  </si>
-  <si>
     <t>Mobile Holders</t>
   </si>
   <si>
-    <t>Laptop Bags Mouse</t>
-  </si>
-  <si>
     <t>Camera</t>
   </si>
   <si>
-    <t>JBL Speakers</t>
-  </si>
-  <si>
     <t>Smart Wearable Tech</t>
   </si>
   <si>
@@ -157,30 +124,18 @@
     <t>DSLR &amp; Mirrorless</t>
   </si>
   <si>
-    <t>Smartphones On Buyback Guarantee</t>
-  </si>
-  <si>
-    <t>Smart Watches Smart Glasses (VR)</t>
-  </si>
-  <si>
     <t>Printers &amp; Ink Cartridges</t>
   </si>
   <si>
     <t>Compact &amp; Bridge Cameras</t>
   </si>
   <si>
-    <t>Philips</t>
-  </si>
-  <si>
     <t>Monitors</t>
   </si>
   <si>
     <t>Sports &amp; Action</t>
   </si>
   <si>
-    <t>Dr. Morepen</t>
-  </si>
-  <si>
     <t>Smart Bands</t>
   </si>
   <si>
@@ -190,18 +145,12 @@
     <t>Camera Accessories</t>
   </si>
   <si>
-    <t>Complete Mobile Protection</t>
-  </si>
-  <si>
     <t>Health Care Appliances</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Mobiles No Cost EMI</t>
-  </si>
-  <si>
     <t>Bp Monitors</t>
   </si>
   <si>
@@ -209,9 +158,6 @@
   </si>
   <si>
     <t>Tripods</t>
-  </si>
-  <si>
-    <t>Huawei Watch Gt 2e Smart Watc</t>
   </si>
   <si>
     <t>Weighing Scale</t>
@@ -1719,12 +1665,138 @@
   <si>
     <t>snacks and beverages(merging nuts and beverages, snack corner, morning breakfast)</t>
   </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/cases-and-covers/pr?sid=tyy,4mr,q2u&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Cases</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/headphones-store?otracker=nmenu_sub_Electronics_0_Headphones%20%26%20Headsets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/power-banks/pr?sid=tyy,4mr,fu6&amp;otracker=categorytree&amp;otracker=nmenu_sub_Electronics_0_Power%20Banks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/screen-guards/pr?sid=tyy,4mr,lrv&amp;otracker=nmenu_sub_Electronics_0_Screenguards</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/computers/storage/memory-cards/pr?sid=6bo%2Cjdy%2Ctby&amp;otracker=nmenu_sub_Electronics_0_Memory%20Cards</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wearable-smart-devices/smart-headphones/pr?sid=ajy,vam&amp;otracker=nmenu_sub_Electronics_0_Smart%20Headphones</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/mobile-cables/pr?sid=tyy%2C4mr%2C3nu&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Cables</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/chargers/pr?sid=tyy,4mr,tp2&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Chargers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/mobile-holders/pr?sid=tyy,4mr,vnf&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Holders</t>
+  </si>
+  <si>
+    <t>Smart Watches</t>
+  </si>
+  <si>
+    <t>Smart Glasses (VR)</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wearable-smart-devices/pr?sid=ajy&amp;otracker=categorytree</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wearable-smart-devices/smart-glasses/pr?sid=ajy%2Ctcy&amp;otracker=nmenu_sub_Electronics_0_Smart%20Glasses%20(VR)</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wearable-smart-devices/smart-bands/pr?sid=ajy%2Cq7p&amp;otracker=nmenu_sub_Electronics_0_Smart%20Bands</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/health-care/health-care-devices/blood-pressure-monitors/pr?sid=zlw,nyl,bvv,kbk&amp;otracker=nmenu_sub_Electronics_0_Bp%20Monitors</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/health-care/health-care-devices/weighing-scales/pr?sid=zlw%2Cnyl%2Cbvv%2Co4o&amp;otracker=nmenu_sub_Electronics_0_Weighing%20Scale</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/gaming-laptops-store?otracker=nmenu_sub_Electronics_0_Gaming%20Laptops&amp;otracker=nmenu_sub_Electronics_0_Gaming%20Laptops</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/desktop-pc-store?otracker=nmenu_sub_Electronics_0_Desktop%20PCs</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/gaming-store?otracker=nmenu_sub_Electronics_0_Gaming%20%26%20Accessories</t>
+  </si>
+  <si>
+    <t>Gaming and Accessories</t>
+  </si>
+  <si>
+    <t>Laptop Bags</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/external-hard-disk-store?otracker=nmenu_sub_Electronics_0_External%20Hard%20Disks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/computers/storage/pen-drives/pr?sid=6bo,jdy,uar&amp;otracker=nmenu_sub_Electronics_0_Pendrives</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/laptop-accessories/laptop-skins-decals/pr?sid=6bo,ai3,zvm&amp;otracker=nmenu_sub_Electronics_0_Laptop%20Skins%20%26%20Decals</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/bags-backpacks/laptop-bags/pr?sid=reh%2C4d7%2Cx9i&amp;otracker=nmenu_sub_Electronics_0_Laptop%20Bags</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/laptop-accessories/mouse/pr?sid=6bo,ai3,2ay&amp;otracker=nmenu_sub_Electronics_0_Mouse</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/printer-inks-store?otracker=nmenu_sub_Electronics_0_Printers%20%26%20Ink%20Cartridges</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/monitors-store?otracker=nmenu_sub_Electronics_0_Monitors</t>
+  </si>
+  <si>
+    <t>Apple Ipads</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/tablets/~apple-ipads/pr?sid=tyy,hry&amp;otracker=nmenu_sub_Electronics_0_Apple%20iPads</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/audio-video/speakers/pr?sid=0pm%2C0o7&amp;otracker=categorytree&amp;p%5B%5D=facets.features%255B%255D%3DBluetooth&amp;otracker=nmenu_sub_Electronics_0_Bluetooth%20Speakers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/audio-video/speakers/pr?sid=0pm%2C0o7&amp;p%5B%5D=facets.type%255B%255D%3DSoundbar&amp;otracker=categorytree&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;p%5B%5D=facets.fulfilled_by%255B%255D%3DFlipkart%2BAssured&amp;otracker=nmenu_sub_Electronics_0_Soundbars</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-entertainment/dth/pr?count=40&amp;otracker=categorytree&amp;p%5B%5D=facets.availability%255B%255D%3DExclude%2BOut%2Bof%2BStock&amp;sid=ckf%2F9wn&amp;otracker=nmenu_sub_Electronics_0_DTH%20Set%20Top%20Box</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/cameras/dslr~type/pr?sid=jek%2Cp31&amp;otracker=nmenu_sub_Electronics_0_DSLR%20%26%20Mirrorless</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/cameras/point-shoot~type/pr?sid=jek%2Cp31&amp;otracker=nmenu_sub_Electronics_0_Compact%20%26%20Bridge%20Cameras</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/cameras/sports-action/pr?count=40&amp;sid=jek%2Fp31%2Fs3q&amp;otracker=nmenu_sub_Electronics_0_Sports%20%26%20Action</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/camera-accessories/camera-lenses/pr?uniqueBstoreparam1=val1&amp;sid=jek%2C6l2%2Ce9y&amp;otracker=nmenu_sub_Electronics_0_Lens</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/camera-accessories/tripods/pr?count=40&amp;otracker=categorytree&amp;p%5B%5D=sort%3Dpopularity&amp;sid=jek%2F6l2%2Fce6&amp;otracker=nmenu_sub_Electronics_0_Tripods</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/computers/network-components/routers/pr?sid=6bo%2F70k%2F2a2&amp;otracker=nmenu_sub_Electronics_0_Routers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1776,6 +1848,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1791,7 +1869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1814,12 +1892,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1831,6 +1920,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2112,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="C65" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2128,716 +2223,1030 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B1" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C1" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="D1" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B4" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B5" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" t="s">
         <v>480</v>
       </c>
-      <c r="C7" t="s">
-        <v>498</v>
-      </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="D12" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D13" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D14" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="D15" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D16" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B17" t="s">
+        <v>463</v>
+      </c>
+      <c r="C17" t="s">
+        <v>515</v>
+      </c>
+      <c r="D17" t="s">
         <v>491</v>
-      </c>
-      <c r="B17" t="s">
-        <v>481</v>
-      </c>
-      <c r="C17" t="s">
-        <v>533</v>
-      </c>
-      <c r="D17" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B18" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C18" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B19" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C19" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B20" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B21" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="D22" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C23" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" t="s">
         <v>316</v>
       </c>
-      <c r="C25" t="s">
-        <v>334</v>
-      </c>
       <c r="D25" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D26" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="D27" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="D29" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="D30" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B32" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C32" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D32" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B33" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D33" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B34" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="D34" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B35" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C35" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="D35" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B36" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C36" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D36" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B37" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C37" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D37" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B38" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C38" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D38" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B39" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C39" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B40" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C40" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B41" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C41" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B42" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C42" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D42" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B43" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C43" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="D43" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C44" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="D44" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C45" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D45" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C46" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D46" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B47" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="C47" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D47" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B48" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="C48" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D48" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B49" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="D49" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B50" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="C50" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>473</v>
+      </c>
+      <c r="B51" t="s">
+        <v>467</v>
+      </c>
+      <c r="C51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>533</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D61" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D62" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>491</v>
-      </c>
-      <c r="B51" t="s">
-        <v>485</v>
-      </c>
-      <c r="C51" t="s">
-        <v>314</v>
-      </c>
-      <c r="D51" t="s">
+    <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s">
         <v>549</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>553</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="D68" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C72" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D72" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C73" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D73" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D76" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>568</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -2854,12 +3263,249 @@
     <hyperlink ref="D40" r:id="rId10" xr:uid="{F0BF6E4E-0E07-4DB7-B3FC-C1F0CF3FC96D}"/>
     <hyperlink ref="D41" r:id="rId11" xr:uid="{068E4580-02E7-4238-B801-62E54D5B9358}"/>
     <hyperlink ref="D50" r:id="rId12" xr:uid="{6F1F026C-DD43-4A8C-AA68-224176BB32AB}"/>
+    <hyperlink ref="D74" r:id="rId13" xr:uid="{780844BD-CA4A-4310-99C9-7C7629059B6C}"/>
+    <hyperlink ref="D75" r:id="rId14" xr:uid="{422344CF-C1EA-493B-9AE3-58F5C53EA335}"/>
+    <hyperlink ref="D77" r:id="rId15" display="https://www.flipkart.com/audio-video/speakers/pr?sid=0pm%2C0o7&amp;p%5B%5D=facets.type%255B%255D%3DSoundbar&amp;otracker=categorytree&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;p%5B%5D=facets.fulfilled_by%255B%255D%3DFlipkart%2BAssured&amp;otracker=nmenu_sub_Electronics_0_Soundbars" xr:uid="{C8D0A45B-0A3F-47A2-875A-9D5593430E96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC27D73-5C53-4CAB-8480-4CD171B65D86}">
+  <dimension ref="G1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513D4507-76C5-4582-B796-61D1EB23A09F}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -2878,512 +3524,256 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="D15" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC27D73-5C53-4CAB-8480-4CD171B65D86}">
-  <dimension ref="G1:J18"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>322</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3407,234 +3797,234 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3671,262 +4061,262 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3967,250 +4357,250 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C5" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C6" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D6" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="B12" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D12" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D14" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D15" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="B16" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="C16" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="D16" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="C18" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="D18" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="D20" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4247,321 +4637,321 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4598,262 +4988,262 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C5" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C6" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E6" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="E7" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C8" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D9" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E9" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B10" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E10" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C11" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="D11" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E11" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D12" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="E12" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="D13" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E13" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B14" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="C14" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="D14" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="E14" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C15" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D15" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B16" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="C16" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="D16" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="B17" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D17" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/flipkart_categories.xlsx
+++ b/flipkart_categories.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Desktop\setubhandhan\product price prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A5BA2-3E74-4641-97C0-5F3B85588B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D542B119-CE30-4EE7-AE79-6AA1F23A32D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="2676" windowWidth="10128" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="url" sheetId="1" r:id="rId1"/>
-    <sheet name="electronics" sheetId="2" r:id="rId2"/>
-    <sheet name="Sports, Books and More" sheetId="8" r:id="rId3"/>
-    <sheet name="TVs and Appliances" sheetId="3" r:id="rId4"/>
-    <sheet name="Men" sheetId="4" r:id="rId5"/>
-    <sheet name="Women" sheetId="5" r:id="rId6"/>
-    <sheet name="Baby and Kids" sheetId="6" r:id="rId7"/>
-    <sheet name="Home and Furniture" sheetId="7" r:id="rId8"/>
+    <sheet name="Women" sheetId="5" r:id="rId2"/>
+    <sheet name="Baby and Kids" sheetId="6" r:id="rId3"/>
+    <sheet name="Home and Furniture" sheetId="7" r:id="rId4"/>
+    <sheet name="TVs and Appliances" sheetId="3" r:id="rId5"/>
+    <sheet name="Sports, Books and More" sheetId="8" r:id="rId6"/>
+    <sheet name="electronics" sheetId="2" r:id="rId7"/>
+    <sheet name="Men" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="646">
   <si>
     <t>Mobile Accessories</t>
   </si>
@@ -610,24 +610,15 @@
     <t>Watches â–º</t>
   </si>
   <si>
-    <t>Smart Watches &gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sports Shoes </t>
   </si>
   <si>
-    <t>Top wear â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sweatshirts </t>
   </si>
   <si>
     <t xml:space="preserve">Fastrack </t>
   </si>
   <si>
-    <t>Smart Bands â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Casual Shoes </t>
   </si>
   <si>
@@ -673,12 +664,6 @@
     <t xml:space="preserve">Flip -Flops </t>
   </si>
   <si>
-    <t>Bottom wear â–º</t>
-  </si>
-  <si>
-    <t>Ethnic wear â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sonata </t>
   </si>
   <si>
@@ -694,9 +679,6 @@
     <t xml:space="preserve">Kurta </t>
   </si>
   <si>
-    <t>Accessories â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Featured </t>
   </si>
   <si>
@@ -772,9 +754,6 @@
     <t xml:space="preserve">Beard Care &amp;Grooming </t>
   </si>
   <si>
-    <t>Suits ,Blazers &amp;Waistcoats â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Briefs &amp;Trunks </t>
   </si>
   <si>
@@ -784,9 +763,6 @@
     <t xml:space="preserve">Shaving &amp;Aftershave </t>
   </si>
   <si>
-    <t>Ties ,Socks ,Caps &amp;More &gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vests </t>
   </si>
   <si>
@@ -796,16 +772,10 @@
     <t xml:space="preserve">Boxers </t>
   </si>
   <si>
-    <t>Fabrics â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pyjamas and Lounge Pants </t>
   </si>
   <si>
     <t xml:space="preserve">Night Suits </t>
-  </si>
-  <si>
-    <t>Raincoats &amp;Windcheaters â–º</t>
   </si>
   <si>
     <t xml:space="preserve">Books </t>
@@ -1790,6 +1760,249 @@
   </si>
   <si>
     <t>https://www.flipkart.com/computers/network-components/routers/pr?sid=6bo%2F70k%2F2a2&amp;otracker=nmenu_sub_Electronics_0_Routers</t>
+  </si>
+  <si>
+    <t>Men's wear</t>
+  </si>
+  <si>
+    <t>Foot Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/sports-shoes/pr?sid=osp,cil,1cu&amp;otracker=nmenu_sub_Men_0_Sports%20Shoes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/casual-shoes/pr?sid=osp,cil,e1f&amp;otracker=nmenu_sub_Men_0_Casual%20Shoes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/formal-shoes/pr?sid=osp,cil,ssb&amp;otracker=nmenu_sub_Men_0_Formal%20Shoes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/sandals-floaters/pr?sid=osp,cil,e83&amp;otracker=nmenu_sub_Men_0_Sandals%20%26%20Floaters</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/slippers-flip-flops/pr?sid=osp,cil,e1r&amp;otracker=nmenu_sub_Men_0_Flip-%20Flops</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/casual-shoes/loafers~type/pr?sid=osp%2Ccil%2Ce1f&amp;otracker=nmenu_sub_Men_0_Loafers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/casual-shoes/boots~type/pr?sid=osp%2Ccil%2Ce1f&amp;otracker=nmenu_sub_Men_0_Boots</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/sports-shoes/running-shoes~type/pr?sid=osp,cil,1cu&amp;otracker=nmenu_sub_Men_0_Running%20Shoes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/casual-shoes/sneakers~type/pr?sid=osp%2Ccil%2Ce1f&amp;otracker=nmenu_sub_Men_0_Sneakers</t>
+  </si>
+  <si>
+    <t>Men's Grooming</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/fragrances/deodorants/pr?sid=g9b%2C0yh%2Cvp1&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Men_0_Deodorants</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/fragrances/perfume/pr?sid=g9b,0yh,jhz&amp;p[]=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;p[]=facets.ideal_for%255B%255D%3DMen&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Perfumes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/pr?sid=g9b&amp;p%5B%5D=facets.brand%255B%255D%3DBeardo&amp;p%5B%5D=facets.brand%255B%255D%3DUstraa&amp;p%5B%5D=facets.brand%255B%255D%3DThe%2BMan%2BCompany&amp;p%5B%5D=facets.brand%255B%255D%3DSpruce%2BShave%2BClub&amp;p%5B%5D=facets.brand%255B%255D%3DMan%2BArden&amp;p%5B%5D=facets.brand%255B%255D%3DMeralite&amp;p%5B%5D=facets.brand%255B%255D%3DBrylcreem&amp;p%5B%5D=facets.brand%255B%255D%3DUrbanMooch&amp;p%5B%5D=facets.brand%255B%255D%3DVihado&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Men_0_Beard%20Care%20%26%20Grooming</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/~shaving-aftershave/pr?sid=g9b&amp;otracker=nmenu_sub_Men_0_Shaving%20%26%20Aftershave</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/sexual-wellness/pr?sid=g9b,alu&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Sexual%20Wellness</t>
+  </si>
+  <si>
+    <t>Top Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-tshirts/pr?sid=clo%2Cash%2Cank%2Cedy&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_T-Shirts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-formal-shirts/pr?sid=clo%2Cash%2Caxc%2Cmmk%2Cbk1&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Formal%20Shirts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-casual-shirts/pr?sid=clo%2Cash%2Caxc%2Cmmk%2Ckp7&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Casual%20Shirts</t>
+  </si>
+  <si>
+    <t>Bottom wear</t>
+  </si>
+  <si>
+    <t>Top wear</t>
+  </si>
+  <si>
+    <t>Bottom Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-jeans/pr?sid=clo%2Cvua%2Ck58%2Ci51&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Jeans</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-trousers/pr?sid=clo%2Cvua%2Cmle%2Clhk&amp;otracker=nmenu_sub_Men_0_Casual%20Trousers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-trousers/pr?sid=clo%2Cvua%2Cmle%2Clhk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Formal%20Trousers&amp;p[]=facets.occasion%255B%255D%3DFormal</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-track-pants/pr?sid=clo%2Cvua%2Cjlk%2C6ql&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Track%20pants</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-shorts/pr?sid=clo%2Cvua%2Ce8g%2Ckc7&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Shorts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/cargos/mens-cargos/pr?sid=clo%2Cvua%2Crqy%2Cnli&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Cargos</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/threefourths/mens-threefourths/pr?sid=clo%2Cvua%2Ceum%2C4qq&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Three%20Fourths</t>
+  </si>
+  <si>
+    <t>Suits ,Blazers &amp;Waistcoats</t>
+  </si>
+  <si>
+    <t>Suits, Blazzers and waistcoats</t>
+  </si>
+  <si>
+    <t>Ties, socks, caps and more</t>
+  </si>
+  <si>
+    <t>Fabrics</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/blazers-waistcoats-and-suits/pr?sid=clo%2Cupk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Suits%2C%20Blazers%20%26%20Waistcoats&amp;p[]=facets.ideal_for%255B%255D%3DMen</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/clothing-accessories/pr?sid=clo,qd8&amp;p[]=facets.ideal_for%255B%255D%3DMen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Ties%2C%20Socks%2C%20Caps%20%26%20More</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/fabrics/pr?sid=clo%2Cqfi&amp;p[]=facets.ideal_for%255B%255D%3DMen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Fabrics</t>
+  </si>
+  <si>
+    <t>Winter Wear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ties ,Socks ,Caps &amp;More </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-sweatshirts/pr?sid=clo%2Cqvw%2C64a%2Cvui&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Sweatshirts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/jackets/men-jackets/pr?sid=clo,qvw,z0g,jbm&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Jackets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/sweater/men-sweater/pr?sid=clo,qvw,vkb,ieq&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Sweater</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/tracksuits/mens-tracksuits/pr?sid=clo%2Cnyk%2Czp4&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Tracksuits</t>
+  </si>
+  <si>
+    <t>Ethnic Wear</t>
+  </si>
+  <si>
+    <t>Ethnic wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/kurtas/mens-kurtas/pr?sid=clo%2Ccfv%2Ccib%2Cjks&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Kurta</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-ethnic-sets/pr?sid=clo%2Ccfv%2Citg%2Cpme&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Ethnic%20Sets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-sherwanis/pr?sid=clo%2Ccfv%2Cdra%2Cbrt&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Sherwanis</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/ethnic-pyjamas/mens-ethnic-pyjamas/pr?sid=clo%2Ccfv%2Ce1p%2C5l2&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Ethnic%20Pyjama</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/dhotis/pr?sid=clo%2Ccfv%2Cnnk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Dhoti&amp;p[]=facets.ideal_for%255B%255D%3DMen</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/lungis/mens-lungis/pr?sid=clo%2Cvua%2C5jo%2Ccqs&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Lungi</t>
+  </si>
+  <si>
+    <t>Innerwear and loungewear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-briefs-and-trunks/pr?sid=clo%2Cqfl%2Cszr%2C3xl&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Briefs%20%26%20Trunks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/innerwear-and-swimwear/vests/mens-vests/pr?sid=clo%2Cqfl%2Cwp7%2Czpk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Vests</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-boxers/pr?sid=clo%2Cqfl%2C1pt%2Cjlb&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Boxers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/sleepwear/pyjamas-and-lounge-pants/mens-pyjamas-and-lounge-pants/pr?sid=clo%2C1hc%2Ca7m%2Cb4p&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Pyjamas%20and%20Lounge%20Pants</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-thermals/pr?sid=clo%2Cqvw%2Cugg%2Coak&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Thermals</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/sleepwear/night-suits/mens-night-suits/pr?sid=clo%2C1hc%2C5d2%2Cdos&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Night%20Suits</t>
+  </si>
+  <si>
+    <t>Raincoats &amp;Windcheaters</t>
+  </si>
+  <si>
+    <t>Raincoats and windcheaters</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/~cs-4ayq68p3ip/pr?sid=clo&amp;collection-tab-name=Raincoats%20And%20Windcheaters&amp;otracker=nmenu_sub_Men_0_Raincoats%20%26%20Windcheaters</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/watches/fastrack~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Fastrack</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/watches/casio~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Casio</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/watches/titan~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Titan</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/watches/fossil~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Fossil</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/watches/sonata~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Sonata</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/backpacks/pr?sid=reh%2C4d7%2Cak9&amp;otracker=nmenu_sub_Men_0_Backpacks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/wallets-clutches/wallets/pr?sid=reh%2Ccca%2Ch76&amp;marketplace=FLIPKART&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Men_0_Wallets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/belts/~men/pr?sid=reh%2Cro3&amp;otracker=nmenu_sub_Men_0_Belts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/sunglasses/pr?p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;sid=26x&amp;otracker=nmenu_sub_Men_0_Sunglasses&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;otracker=nmenu_sub_Men_0_Sunglasses</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/luggage-travel/pr?count=40&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2527s&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;sid=reh%2Fplk&amp;otracker=nmenu_sub_Men_0_Luggage%20%26%20Travel</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/eyewear/frames/pr?count=40&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DUnisex&amp;sid=u73%2Fh4k&amp;otracker=nmenu_sub_Men_0_Frames</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/jewellery/pr?p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;sid=mcr&amp;otracker=nmenu_sub_Men_0_Jewellery</t>
+  </si>
+  <si>
+    <t>Personal Care Appliances</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/trimmers/pr?count=40&amp;otracker=nmenu_sub_Men_0_Trimmers&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;sid=zlw%2F79s%2Fby3&amp;otracker=nmenu_sub_Men_0_Trimmers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/shavers/pr?sid=zlw,79s,u3j&amp;otracker=nmenu_sub_Men_0_Shavers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/grooming-kit/pr?sid=zlw,79s,bi7&amp;otracker=nmenu_sub_Men_0_Grooming%20Kits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Care Appliances </t>
   </si>
 </sst>
 </file>
@@ -2207,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView topLeftCell="C65" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2223,721 +2436,721 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B5" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D8" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="B10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D14" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D15" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D16" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C17" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D17" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B18" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C18" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B19" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B20" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C20" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C21" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C22" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D22" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D25" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C26" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D27" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C28" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C29" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D29" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D30" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D31" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B32" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C32" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D32" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B33" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C33" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D33" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B34" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C34" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D34" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B35" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C35" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D35" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B36" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C36" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D36" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B37" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D37" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B38" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C38" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D38" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B40" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C41" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B42" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C42" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D42" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B43" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43" t="s">
         <v>285</v>
       </c>
-      <c r="C43" t="s">
-        <v>295</v>
-      </c>
       <c r="D43" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C44" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D44" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B45" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C45" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D45" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B46" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C46" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D46" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B47" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C47" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D47" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B48" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C48" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D48" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B49" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C49" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D49" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B50" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C50" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B51" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C51" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D51" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -2946,101 +3159,167 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>523</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>523</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>523</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>523</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>523</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>523</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>523</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>523</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>523</v>
+      </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D61" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>523</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
       <c r="C62" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D62" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>523</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>523</v>
+      </c>
       <c r="B64" t="s">
         <v>37</v>
       </c>
@@ -3048,18 +3327,27 @@
         <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>523</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
       <c r="C65" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>523</v>
+      </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
@@ -3067,10 +3355,13 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>523</v>
+      </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
@@ -3078,21 +3369,27 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>523</v>
+      </c>
       <c r="B68" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D68" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>523</v>
+      </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
@@ -3100,42 +3397,69 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>523</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>523</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>523</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
       <c r="C72" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D72" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>523</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
       <c r="C73" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D73" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>523</v>
+      </c>
       <c r="B74" t="s">
         <v>28</v>
       </c>
@@ -3143,29 +3467,41 @@
         <v>30</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>523</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>523</v>
+      </c>
       <c r="B76" t="s">
         <v>35</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D76" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>523</v>
+      </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
@@ -3173,53 +3509,83 @@
         <v>12</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>523</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>523</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>523</v>
+      </c>
       <c r="B80" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>523</v>
+      </c>
+      <c r="B81" t="s">
+        <v>558</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>523</v>
+      </c>
+      <c r="B82" t="s">
+        <v>558</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>523</v>
+      </c>
       <c r="B83" t="s">
         <v>36</v>
       </c>
@@ -3227,18 +3593,27 @@
         <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>523</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>523</v>
+      </c>
       <c r="B85" t="s">
         <v>43</v>
       </c>
@@ -3246,7 +3621,833 @@
         <v>44</v>
       </c>
       <c r="D85" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>565</v>
+      </c>
+      <c r="B86" t="s">
+        <v>566</v>
+      </c>
+      <c r="C86" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>565</v>
+      </c>
+      <c r="B87" t="s">
+        <v>566</v>
+      </c>
+      <c r="C87" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>565</v>
+      </c>
+      <c r="B88" t="s">
+        <v>566</v>
+      </c>
+      <c r="C88" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>565</v>
+      </c>
+      <c r="B89" t="s">
+        <v>566</v>
+      </c>
+      <c r="C89" t="s">
+        <v>204</v>
+      </c>
+      <c r="D89" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>565</v>
+      </c>
+      <c r="B90" t="s">
+        <v>566</v>
+      </c>
+      <c r="C90" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>565</v>
+      </c>
+      <c r="B91" t="s">
+        <v>566</v>
+      </c>
+      <c r="C91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>565</v>
+      </c>
+      <c r="B92" t="s">
+        <v>566</v>
+      </c>
+      <c r="C92" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>565</v>
+      </c>
+      <c r="B93" t="s">
+        <v>566</v>
+      </c>
+      <c r="C93" t="s">
+        <v>220</v>
+      </c>
+      <c r="D93" t="s">
         <v>574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>565</v>
+      </c>
+      <c r="B94" t="s">
+        <v>566</v>
+      </c>
+      <c r="C94" t="s">
+        <v>224</v>
+      </c>
+      <c r="D94" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>565</v>
+      </c>
+      <c r="B95" t="s">
+        <v>576</v>
+      </c>
+      <c r="C95" t="s">
+        <v>231</v>
+      </c>
+      <c r="D95" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>565</v>
+      </c>
+      <c r="B96" t="s">
+        <v>576</v>
+      </c>
+      <c r="C96" t="s">
+        <v>235</v>
+      </c>
+      <c r="D96" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>565</v>
+      </c>
+      <c r="B97" t="s">
+        <v>576</v>
+      </c>
+      <c r="C97" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>565</v>
+      </c>
+      <c r="B98" t="s">
+        <v>576</v>
+      </c>
+      <c r="C98" t="s">
+        <v>242</v>
+      </c>
+      <c r="D98" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>565</v>
+      </c>
+      <c r="B99" t="s">
+        <v>576</v>
+      </c>
+      <c r="C99" t="s">
+        <v>244</v>
+      </c>
+      <c r="D99" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>565</v>
+      </c>
+      <c r="B100" t="s">
+        <v>582</v>
+      </c>
+      <c r="C100" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>565</v>
+      </c>
+      <c r="B101" t="s">
+        <v>582</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>565</v>
+      </c>
+      <c r="B102" t="s">
+        <v>582</v>
+      </c>
+      <c r="C102" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>565</v>
+      </c>
+      <c r="B103" t="s">
+        <v>588</v>
+      </c>
+      <c r="C103" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>565</v>
+      </c>
+      <c r="B104" t="s">
+        <v>588</v>
+      </c>
+      <c r="C104" t="s">
+        <v>217</v>
+      </c>
+      <c r="D104" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>565</v>
+      </c>
+      <c r="B105" t="s">
+        <v>588</v>
+      </c>
+      <c r="C105" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>565</v>
+      </c>
+      <c r="B106" t="s">
+        <v>588</v>
+      </c>
+      <c r="C106" t="s">
+        <v>225</v>
+      </c>
+      <c r="D106" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>565</v>
+      </c>
+      <c r="B107" t="s">
+        <v>588</v>
+      </c>
+      <c r="C107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>565</v>
+      </c>
+      <c r="B108" t="s">
+        <v>588</v>
+      </c>
+      <c r="C108" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>565</v>
+      </c>
+      <c r="B109" t="s">
+        <v>588</v>
+      </c>
+      <c r="C109" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>565</v>
+      </c>
+      <c r="B110" t="s">
+        <v>597</v>
+      </c>
+      <c r="C110" t="s">
+        <v>597</v>
+      </c>
+      <c r="D110" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B111" t="s">
+        <v>598</v>
+      </c>
+      <c r="C111" t="s">
+        <v>598</v>
+      </c>
+      <c r="D111" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>565</v>
+      </c>
+      <c r="B112" t="s">
+        <v>599</v>
+      </c>
+      <c r="C112" t="s">
+        <v>599</v>
+      </c>
+      <c r="D112" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>565</v>
+      </c>
+      <c r="B113" t="s">
+        <v>603</v>
+      </c>
+      <c r="C113" t="s">
+        <v>193</v>
+      </c>
+      <c r="D113" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>565</v>
+      </c>
+      <c r="B114" t="s">
+        <v>603</v>
+      </c>
+      <c r="C114" t="s">
+        <v>196</v>
+      </c>
+      <c r="D114" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>565</v>
+      </c>
+      <c r="B115" t="s">
+        <v>603</v>
+      </c>
+      <c r="C115" t="s">
+        <v>201</v>
+      </c>
+      <c r="D115" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>565</v>
+      </c>
+      <c r="B116" t="s">
+        <v>603</v>
+      </c>
+      <c r="C116" t="s">
+        <v>206</v>
+      </c>
+      <c r="D116" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>565</v>
+      </c>
+      <c r="B117" t="s">
+        <v>609</v>
+      </c>
+      <c r="C117" t="s">
+        <v>214</v>
+      </c>
+      <c r="D117" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>565</v>
+      </c>
+      <c r="B118" t="s">
+        <v>609</v>
+      </c>
+      <c r="C118" t="s">
+        <v>218</v>
+      </c>
+      <c r="D118" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>565</v>
+      </c>
+      <c r="B119" t="s">
+        <v>609</v>
+      </c>
+      <c r="C119" t="s">
+        <v>222</v>
+      </c>
+      <c r="D119" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>565</v>
+      </c>
+      <c r="B120" t="s">
+        <v>609</v>
+      </c>
+      <c r="C120" t="s">
+        <v>226</v>
+      </c>
+      <c r="D120" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>565</v>
+      </c>
+      <c r="B121" t="s">
+        <v>609</v>
+      </c>
+      <c r="C121" t="s">
+        <v>229</v>
+      </c>
+      <c r="D121" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>565</v>
+      </c>
+      <c r="B122" t="s">
+        <v>609</v>
+      </c>
+      <c r="C122" t="s">
+        <v>233</v>
+      </c>
+      <c r="D122" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>565</v>
+      </c>
+      <c r="B123" t="s">
+        <v>617</v>
+      </c>
+      <c r="C123" t="s">
+        <v>240</v>
+      </c>
+      <c r="D123" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>565</v>
+      </c>
+      <c r="B124" t="s">
+        <v>617</v>
+      </c>
+      <c r="C124" t="s">
+        <v>243</v>
+      </c>
+      <c r="D124" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>565</v>
+      </c>
+      <c r="B125" t="s">
+        <v>617</v>
+      </c>
+      <c r="C125" t="s">
+        <v>245</v>
+      </c>
+      <c r="D125" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>565</v>
+      </c>
+      <c r="B126" t="s">
+        <v>617</v>
+      </c>
+      <c r="C126" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>565</v>
+      </c>
+      <c r="B127" t="s">
+        <v>617</v>
+      </c>
+      <c r="C127" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>565</v>
+      </c>
+      <c r="B128" t="s">
+        <v>617</v>
+      </c>
+      <c r="C128" t="s">
+        <v>247</v>
+      </c>
+      <c r="D128" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>565</v>
+      </c>
+      <c r="B129" t="s">
+        <v>625</v>
+      </c>
+      <c r="C129" t="s">
+        <v>625</v>
+      </c>
+      <c r="D129" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>565</v>
+      </c>
+      <c r="B130" t="s">
+        <v>627</v>
+      </c>
+      <c r="C130" t="s">
+        <v>194</v>
+      </c>
+      <c r="D130" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>565</v>
+      </c>
+      <c r="B131" t="s">
+        <v>627</v>
+      </c>
+      <c r="C131" t="s">
+        <v>197</v>
+      </c>
+      <c r="D131" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>565</v>
+      </c>
+      <c r="B132" t="s">
+        <v>627</v>
+      </c>
+      <c r="C132" t="s">
+        <v>202</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>565</v>
+      </c>
+      <c r="B133" t="s">
+        <v>627</v>
+      </c>
+      <c r="C133" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>565</v>
+      </c>
+      <c r="B134" t="s">
+        <v>627</v>
+      </c>
+      <c r="C134" t="s">
+        <v>210</v>
+      </c>
+      <c r="D134" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>565</v>
+      </c>
+      <c r="B135" t="s">
+        <v>633</v>
+      </c>
+      <c r="C135" t="s">
+        <v>219</v>
+      </c>
+      <c r="D135" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>565</v>
+      </c>
+      <c r="B136" t="s">
+        <v>633</v>
+      </c>
+      <c r="C136" t="s">
+        <v>223</v>
+      </c>
+      <c r="D136" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>565</v>
+      </c>
+      <c r="B137" t="s">
+        <v>633</v>
+      </c>
+      <c r="C137" t="s">
+        <v>227</v>
+      </c>
+      <c r="D137" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>565</v>
+      </c>
+      <c r="B138" t="s">
+        <v>633</v>
+      </c>
+      <c r="C138" t="s">
+        <v>230</v>
+      </c>
+      <c r="D138" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>565</v>
+      </c>
+      <c r="B139" t="s">
+        <v>633</v>
+      </c>
+      <c r="C139" t="s">
+        <v>234</v>
+      </c>
+      <c r="D139" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>565</v>
+      </c>
+      <c r="B140" t="s">
+        <v>633</v>
+      </c>
+      <c r="C140" t="s">
+        <v>238</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>565</v>
+      </c>
+      <c r="B141" t="s">
+        <v>633</v>
+      </c>
+      <c r="C141" t="s">
+        <v>241</v>
+      </c>
+      <c r="D141" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>565</v>
+      </c>
+      <c r="B142" t="s">
+        <v>641</v>
+      </c>
+      <c r="C142" t="s">
+        <v>203</v>
+      </c>
+      <c r="D142" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>565</v>
+      </c>
+      <c r="B143" t="s">
+        <v>641</v>
+      </c>
+      <c r="C143" t="s">
+        <v>208</v>
+      </c>
+      <c r="D143" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>565</v>
+      </c>
+      <c r="B144" t="s">
+        <v>641</v>
+      </c>
+      <c r="C144" t="s">
+        <v>211</v>
+      </c>
+      <c r="D144" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -3266,522 +4467,906 @@
     <hyperlink ref="D74" r:id="rId13" xr:uid="{780844BD-CA4A-4310-99C9-7C7629059B6C}"/>
     <hyperlink ref="D75" r:id="rId14" xr:uid="{422344CF-C1EA-493B-9AE3-58F5C53EA335}"/>
     <hyperlink ref="D77" r:id="rId15" display="https://www.flipkart.com/audio-video/speakers/pr?sid=0pm%2C0o7&amp;p%5B%5D=facets.type%255B%255D%3DSoundbar&amp;otracker=categorytree&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;p%5B%5D=facets.fulfilled_by%255B%255D%3DFlipkart%2BAssured&amp;otracker=nmenu_sub_Electronics_0_Soundbars" xr:uid="{C8D0A45B-0A3F-47A2-875A-9D5593430E96}"/>
+    <hyperlink ref="D132" r:id="rId16" xr:uid="{03DC2C35-4472-4472-86DC-BD09C4FA66C2}"/>
+    <hyperlink ref="D140" r:id="rId17" xr:uid="{6F7D4B9F-7151-46F7-84AD-CC4950C56AE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC27D73-5C53-4CAB-8480-4CD171B65D86}">
-  <dimension ref="G1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81912A-75C3-45A2-9717-B4E2E146308D}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" t="s">
+        <v>435</v>
+      </c>
+      <c r="D15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C16" t="s">
+        <v>439</v>
+      </c>
+      <c r="D16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D19" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513D4507-76C5-4582-B796-61D1EB23A09F}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C68DF8-FF9C-43C8-8B0C-EDAB02B25389}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>468</v>
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>264</v>
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>259</v>
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>272</v>
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>274</v>
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>467</v>
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>285</v>
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>289</v>
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>291</v>
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>294</v>
+      <c r="C9" t="s">
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>299</v>
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D11" t="s">
-        <v>303</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>466</v>
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>311</v>
-      </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>318</v>
+        <v>165</v>
+      </c>
+      <c r="E15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>322</v>
+        <v>173</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE8A79-8CF2-43BA-8AEE-C7287EF838E1}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED48E8A-5223-4F5B-8039-3DE59CDADB05}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -3933,7 +5518,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C9" t="s">
         <v>82</v>
@@ -3942,7 +5527,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3961,10 +5546,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3974,10 +5559,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C13" t="s">
         <v>89</v>
@@ -4025,298 +5610,6 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F0E94-D426-4C24-92E2-7431A8945EC4}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4325,928 +5618,794 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81912A-75C3-45A2-9717-B4E2E146308D}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513D4507-76C5-4582-B796-61D1EB23A09F}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
+      <c r="A1" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>399</v>
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>400</v>
+      <c r="A3" t="s">
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>113</v>
+        <v>522</v>
+      </c>
+      <c r="C3" t="s">
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>402</v>
+        <v>257</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>261</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B5" t="s">
-        <v>408</v>
+        <v>263</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D5" t="s">
-        <v>410</v>
+        <v>265</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>413</v>
+        <v>270</v>
+      </c>
+      <c r="E6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" t="s">
-        <v>416</v>
+        <v>273</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>419</v>
+        <v>277</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" t="s">
-        <v>198</v>
+      <c r="A9" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>422</v>
+        <v>285</v>
+      </c>
+      <c r="E9" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C10" t="s">
-        <v>222</v>
+        <v>287</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>427</v>
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D11" t="s">
-        <v>429</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>432</v>
+        <v>295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>296</v>
       </c>
       <c r="D12" t="s">
-        <v>461</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>434</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" t="s">
-        <v>435</v>
+        <v>299</v>
+      </c>
+      <c r="C13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
-        <v>437</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>438</v>
+        <v>302</v>
+      </c>
+      <c r="C14" t="s">
+        <v>303</v>
       </c>
       <c r="D14" t="s">
-        <v>439</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>440</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>441</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>201</v>
+        <v>306</v>
+      </c>
+      <c r="C15" t="s">
+        <v>307</v>
       </c>
       <c r="D15" t="s">
-        <v>442</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>443</v>
-      </c>
-      <c r="B16" t="s">
-        <v>444</v>
+        <v>309</v>
       </c>
       <c r="C16" t="s">
-        <v>445</v>
-      </c>
-      <c r="D16" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B17" t="s">
-        <v>448</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>311</v>
       </c>
       <c r="C17" t="s">
-        <v>449</v>
-      </c>
-      <c r="D17" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C18" t="s">
-        <v>452</v>
-      </c>
-      <c r="D18" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D20" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C68DF8-FF9C-43C8-8B0C-EDAB02B25389}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC27D73-5C53-4CAB-8480-4CD171B65D86}">
+  <dimension ref="G1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>187</v>
-      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE8A79-8CF2-43BA-8AEE-C7287EF838E1}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F0E94-D426-4C24-92E2-7431A8945EC4}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
+      <c r="A1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2" t="s">
-        <v>324</v>
+        <v>192</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="C2" t="s">
-        <v>325</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" t="s">
-        <v>327</v>
+        <v>194</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E3" t="s">
-        <v>221</v>
+        <v>197</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>339</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>207</v>
       </c>
       <c r="E5" t="s">
-        <v>341</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" t="s">
-        <v>344</v>
+        <v>209</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="D6" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>346</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E7" t="s">
-        <v>351</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>353</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E8" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
-        <v>360</v>
-      </c>
-      <c r="E9" t="s">
-        <v>361</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>365</v>
-      </c>
-      <c r="E10" t="s">
-        <v>366</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>367</v>
+      <c r="A11" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>369</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E11" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
-        <v>375</v>
-      </c>
-      <c r="E12" t="s">
-        <v>376</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
-      </c>
-      <c r="C13" t="s">
-        <v>379</v>
+        <v>236</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="D13" t="s">
-        <v>380</v>
-      </c>
-      <c r="E13" t="s">
-        <v>381</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>382</v>
-      </c>
-      <c r="B14" t="s">
-        <v>383</v>
+        <v>239</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>596</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>385</v>
-      </c>
-      <c r="E14" t="s">
-        <v>386</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>387</v>
-      </c>
-      <c r="B15" t="s">
-        <v>388</v>
+        <v>242</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>604</v>
       </c>
       <c r="C15" t="s">
-        <v>389</v>
-      </c>
-      <c r="D15" t="s">
-        <v>390</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>391</v>
-      </c>
-      <c r="B16" t="s">
-        <v>392</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>393</v>
-      </c>
-      <c r="D16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>395</v>
-      </c>
-      <c r="B17" t="s">
-        <v>396</v>
-      </c>
-      <c r="D17" t="s">
-        <v>397</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/flipkart_categories.xlsx
+++ b/flipkart_categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Desktop\setubhandhan\product price prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D542B119-CE30-4EE7-AE79-6AA1F23A32D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC5E41-33CE-4E04-9595-490200813187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="url" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="737">
   <si>
     <t>Mobile Accessories</t>
   </si>
@@ -607,9 +607,6 @@
     <t xml:space="preserve">Winter Wear </t>
   </si>
   <si>
-    <t>Watches â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sports Shoes </t>
   </si>
   <si>
@@ -628,9 +625,6 @@
     <t xml:space="preserve">Casio </t>
   </si>
   <si>
-    <t>Personal Care Appliances &gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Formal Shoes </t>
   </si>
   <si>
@@ -1198,9 +1192,6 @@
     <t xml:space="preserve">Fish &amp;Aquatics </t>
   </si>
   <si>
-    <t>Footwear â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beauty &amp;Grooming </t>
   </si>
   <si>
@@ -1261,9 +1252,6 @@
     <t xml:space="preserve">Kurta Sets &amp;Salwar Suits </t>
   </si>
   <si>
-    <t>Jewellery &gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jeggings &amp;Tights </t>
   </si>
   <si>
@@ -1294,15 +1282,6 @@
     <t xml:space="preserve">Precious Jewellery </t>
   </si>
   <si>
-    <t xml:space="preserve">Bras Panties </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leggings &amp;Churidars Palazzos </t>
-  </si>
-  <si>
-    <t>Slippers &amp;Flip -Flop's â–¸</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lingerie Sets </t>
   </si>
   <si>
@@ -1318,9 +1297,6 @@
     <t xml:space="preserve">Salwars &amp;Patiala </t>
   </si>
   <si>
-    <t>Smart Watches â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shoulder Bags </t>
   </si>
   <si>
@@ -1345,9 +1321,6 @@
     <t xml:space="preserve">Sling bags </t>
   </si>
   <si>
-    <t>Swim &amp;Beachwear â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saree Shapewear &amp;Petticoats </t>
   </si>
   <si>
@@ -1357,16 +1330,7 @@
     <t xml:space="preserve">Clutches </t>
   </si>
   <si>
-    <t>Party Dresses â–¸</t>
-  </si>
-  <si>
     <t xml:space="preserve">Epilators </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wallets &amp;Belts </t>
-  </si>
-  <si>
-    <t>Sports Wear â–º</t>
   </si>
   <si>
     <t xml:space="preserve">Shop by Screen Size </t>
@@ -1407,6 +1371,807 @@
     <t xml:space="preserve">Water Geysers </t>
   </si>
   <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Food Essentials</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Auto Accessories</t>
+  </si>
+  <si>
+    <t>Medical Supplies</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Category_1</t>
+  </si>
+  <si>
+    <t>Category_2</t>
+  </si>
+  <si>
+    <t>Category_3</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Sports, Books and More</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/sports/cricket/pr?sid=abc,5lf&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Cricket</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/sports/badminton/pr?sid=abc,egs&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Badminton</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/sports/cycling/pr?sid=abc,ulv&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Cycling</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/sports/football/pr?sid=abc,gxg&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Football</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/sports/skating/pr?sid=abc,mgq&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Skating</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/sports/camping-hiking/pr?sid=abc,fvf&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Camping%20%26%20Hiking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camping  and Hiking </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/sports/swimming/pr?sid=abc,byq&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Swimming</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/exercise-fitness/fitness-equipment/treadmills/pr?count=40&amp;sid=qoc%2Camf%2Coyq&amp;hpid=afw5r8bGYGyW4zsu4Z-536p7_Hsxr70nj65vMAAFKlc%3D&amp;ctx=eyJjYXJkQ29udGV4dCI6eyJhdHRyaWJ1dGVzIjp7InZhbHVlQ2FsbG91dCI6eyJtdWx0aVZhbHVlZEF0dHJpYnV0ZSI6eyJrZXkiOiJ2YWx1ZUNhbGxvdXQiLCJpbmZlcmVuY2VUeXBlIjoiVkFMVUVfQ0FMTE9VVCIsInZhbHVlcyI6WyJVcHRvIDUwJSBPZmYiXSwidmFsdWVUeXBlIjoiTVVMVElfVkFMVUVEIn19LCJoZXJvUGlkIjp7InNpbmdsZVZhbHVlQXR0cmlidXRlIjp7ImtleSI6Imhlcm9QaWQiLCJpbmZlcmVuY2VUeXBlIjoiUElEIiwidmFsdWUiOiJUUkRGWjRGMzZTRDRKUEhLIiwidmFsdWVUeXBlIjoiU0lOR0xFX1ZBTFVFRCJ9fSwidGl0bGUiOnsibXVsdGlWYWx1ZWRBdHRyaWJ1dGUiOnsia2V5IjoidGl0bGUiLCJpbmZlcmVuY2VUeXBlIjoiVElUTEUiLCJ2YWx1ZXMiOlsiVHJlYWRtaWxsIl0sInZhbHVlVHlwZSI6Ik1VTFRJX1ZBTFVFRCJ9fX19fQ%3D%3D&amp;fm=neo%2Fmerchandising&amp;iid=M_afacb886-e286-483b-89c9-eb3a018c6e4a_1.4LN5YKZKHEWF&amp;ppt=None&amp;ppn=None&amp;ssid=6focs1adhc0000001671290112117&amp;otracker=dynamic_omu_infinite_Strength%2B%2526%2BCardio%2BEquipment_2_1.dealCard.OMU_INFINITE_4LN5YKZKHEWF&amp;cid=4LN5YKZKHEWF</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/exercise-fitness/fitness-equipment/fitness-kits/pr?sid=qoc%2Camf%2Cvh3&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Home%20Gyms</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/exercise-fitness/fitness-accessories/supports/pr?sid=qoc,acb,aa3&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Support</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/exercise-fitness/fitness-accessories/dumbbells/pr?sid=qoc,acb,zuc&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Dumbbells</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/exercise-fitness/fitness-equipment/ab-exercisers/pr?sid=qoc%2Camf%2Csma&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Ab%20Exercisers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/exercise-fitness/fitness-accessories/shakers-and-sippers/pr?sid=qoc,acb,qat&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Shakers%20%26%20Sippers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shakers and Sippers </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/exercise-fitness/yoga/yoga-mats/pr?sid=qoc,s1h,fco&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Yoga%20Mat</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/exercise-fitness/fitness-accessories/gym-gloves/pr?sid=qoc,acb,afr&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gym%20Gloves</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/food-products/food-combo/~gourmet-foods-/pr?sid=eat%2Cymr&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Nuts%20%26%20Dry%20Fruits</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/food-products/~gourmet-foods-/pr?sid=eat&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Tea%2C%20Coffee%20and%20Beverages</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/food-products/chocolates/~gourmet-foods-/pr?sid=eat%2C0pt&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Chocolates</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/food-nutrition/food-nutrition-combo/~gourmet-foods-/pr?sid=7jv,jid&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gifting%20Combos</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/food-products/sweets-and-mixes/packaged-sweets/~gourmet-foods-/pr?sid=eat%2Cpta%2Cqoz&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Sweets%20Store</t>
+  </si>
+  <si>
+    <t>snacks and beverages</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-care/health-supplements/protein-supplement/pr?sid=hlc%2Cetg%2C1rx&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Protein%20Supplements&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Protein%20Supplements</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-care/health-supplements/vitamin-supplement/pr?sid=hlc%2Cetg%2Cqtw&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Vitamin%20Supplements&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Vitamin%20Supplements</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-care/health-supplements/energy-drinks/pr?sid=hlc%2Cetg%2C2yn&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Health%20%26%20Energy%20Drinks&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Health%20Drinks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-care/health-supplements/vitamin-supplement/pr?sid=hlc%2Cetg%2Cqtw&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Vitamin%20Supplements&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Ayurvedic%20Supplements&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;p[]=facets.type%255B%255D%3DAyurvedic%2BSupplements</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/the-exam-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Entrance%20Exams</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/the-education-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Academics</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/theliterature-fiction-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Literature%20%26%20Fiction</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/the-non-fiction-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Non%20Fiction</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/the-childrenandteens-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Young%20Readers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/books/selfhelp-books/pr?sid=bks,5uw&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Self-Help</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/pens-category-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Pens&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Pens</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/pens-stationery/office-supplies/diaries/pr?sid=dgv,tkw,mwh&amp;otracker=product_breadCrumbs_Diaries&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Diaries</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/pens-stationery/office-supplies/card-holders/pr?sid=dgv,tkw,chd&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Card%20Holders</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/pens-stationery/office-supplies/desk-organizers/pr?sid=dgv,tkw,hlr&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Desk%20Organizers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/pens-stationery/office-supplies/key-chains/pr?sid=dgv,tkw,amn&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Key%20Chains&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Key%20Chains</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/pens-stationery/calculators/pr?sid=dgv,qtq&amp;otracker=categorytree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helmets and Riding Gears </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literature and Fiction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuts and Dry Fruits </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/automotive-accessories/pr?p[]=facets.availability%255B%255D%3DExclude%2BOut%2Bof%2BStock&amp;sid=1mt&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Helmets%20%26%20Riding%20Gear&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Helmets%20%26%20Riding%20Gears</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/automotive-accessories/pr?sid=1mt&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Car%20Audio%2FVideo</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/automotive-accessories/vehicle-utility-accessories/vehicle-mobile-accessories/pr?sid=1mt%2Cebm%2Ciwn&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Car%20Mobile%20Accessories</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/automotive-accessories/oils-and-lubricants/pr?sid=1mt%2C0mi&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Vehicle%20Lubricants</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/industrial-scientific-supplies/industrial-measurement-devices/pr?sid=gsx,oe8&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Industrial%20Measurement%20Devices</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/industrial-scientific-supplies/industrial-testing-devices/pr?sid=gsx,gkc&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Industrial%20Testing%20Devices</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/industrial-scientific-supplies/lab-scientific-products/pr?sid=gsx,l9d&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Lab%20%26%20Scientific%20Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab and Scientific Products </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/industrial-scientific-supplies/packaging-shipping-products/pr?sid=gsx,bad&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Packaging%20%26%20Shipping%20Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packaging and Shipping Products </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/industrial-scientific-supplies/safety-products/pr?sid=gsx,bfk&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Safety%20Products</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/sexual-wellness/pr?sid=g9b%2Calu&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Pregnancy%20and%20Fertility%20Kits</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-care/home-medical-supplies/pr?sid=hlc%2C20m&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;p[]=facets.brand%255B%255D%3DCasa&amp;p[]=facets.brand%255B%255D%3DCASA&amp;p[]=facets.brand%255B%255D%3DTULIP&amp;p[]=facets.brand%255B%255D%3DTulip&amp;p[]=facets.brand%255B%255D%3Dcreto&amp;p[]=facets.brand%255B%255D%3DCRETO&amp;p[]=facets.brand%255B%255D%3DAlex%2527s&amp;p[]=facets.brand%255B%255D%3DRecombigen&amp;p[]=facets.brand%255B%255D%3Dxtraplus&amp;p[]=facets.brand%255B%255D%3DKetsaal&amp;p[]=facets.brand%255B%255D%3DThermocare&amp;p[]=facets.brand%255B%255D%3DRoyal&amp;p[]=facets.brand%255B%255D%3DARYSHAA&amp;p[]=facets.brand%255B%255D%3DAryshaa&amp;p[]=facets.brand%255B%255D%3DTuelip&amp;p[]=facets.brand%255B%255D%3DHealthIQ&amp;p[]=facets.brand%255B%255D%3DGentle%2BE%2BKart&amp;p[]=facets.brand%255B%255D%3DOneRetail&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Hot%20Water%20Bag</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/gaming/gaming-consoles/pr?sid=4rr,x1m&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gaming%20Consoles&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gaming%20Consoles</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/gaming-accesories/pr?sid=4rr%2Ckm5&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gaming%20Accessories&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gaming%20Accessories</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wearable-smart-devices/smart-glasses/pr?sid=ajy,tcy&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Smart%20Glasses(VR)&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Smart%20Glasses%20(VR)</t>
+  </si>
+  <si>
+    <t>snacks and beverages(merging nuts and beverages, snack corner, morning breakfast)</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/cases-and-covers/pr?sid=tyy,4mr,q2u&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Cases</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/headphones-store?otracker=nmenu_sub_Electronics_0_Headphones%20%26%20Headsets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/power-banks/pr?sid=tyy,4mr,fu6&amp;otracker=categorytree&amp;otracker=nmenu_sub_Electronics_0_Power%20Banks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/screen-guards/pr?sid=tyy,4mr,lrv&amp;otracker=nmenu_sub_Electronics_0_Screenguards</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/computers/storage/memory-cards/pr?sid=6bo%2Cjdy%2Ctby&amp;otracker=nmenu_sub_Electronics_0_Memory%20Cards</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wearable-smart-devices/smart-headphones/pr?sid=ajy,vam&amp;otracker=nmenu_sub_Electronics_0_Smart%20Headphones</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/mobile-cables/pr?sid=tyy%2C4mr%2C3nu&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Cables</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/chargers/pr?sid=tyy,4mr,tp2&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Chargers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mobile-accessories/mobile-holders/pr?sid=tyy,4mr,vnf&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Holders</t>
+  </si>
+  <si>
+    <t>Smart Watches</t>
+  </si>
+  <si>
+    <t>Smart Glasses (VR)</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wearable-smart-devices/pr?sid=ajy&amp;otracker=categorytree</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wearable-smart-devices/smart-glasses/pr?sid=ajy%2Ctcy&amp;otracker=nmenu_sub_Electronics_0_Smart%20Glasses%20(VR)</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wearable-smart-devices/smart-bands/pr?sid=ajy%2Cq7p&amp;otracker=nmenu_sub_Electronics_0_Smart%20Bands</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/health-care/health-care-devices/blood-pressure-monitors/pr?sid=zlw,nyl,bvv,kbk&amp;otracker=nmenu_sub_Electronics_0_Bp%20Monitors</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/health-care/health-care-devices/weighing-scales/pr?sid=zlw%2Cnyl%2Cbvv%2Co4o&amp;otracker=nmenu_sub_Electronics_0_Weighing%20Scale</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/gaming-laptops-store?otracker=nmenu_sub_Electronics_0_Gaming%20Laptops&amp;otracker=nmenu_sub_Electronics_0_Gaming%20Laptops</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/desktop-pc-store?otracker=nmenu_sub_Electronics_0_Desktop%20PCs</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/gaming-store?otracker=nmenu_sub_Electronics_0_Gaming%20%26%20Accessories</t>
+  </si>
+  <si>
+    <t>Gaming and Accessories</t>
+  </si>
+  <si>
+    <t>Laptop Bags</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/external-hard-disk-store?otracker=nmenu_sub_Electronics_0_External%20Hard%20Disks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/computers/storage/pen-drives/pr?sid=6bo,jdy,uar&amp;otracker=nmenu_sub_Electronics_0_Pendrives</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/laptop-accessories/laptop-skins-decals/pr?sid=6bo,ai3,zvm&amp;otracker=nmenu_sub_Electronics_0_Laptop%20Skins%20%26%20Decals</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/bags-backpacks/laptop-bags/pr?sid=reh%2C4d7%2Cx9i&amp;otracker=nmenu_sub_Electronics_0_Laptop%20Bags</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/laptop-accessories/mouse/pr?sid=6bo,ai3,2ay&amp;otracker=nmenu_sub_Electronics_0_Mouse</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/printer-inks-store?otracker=nmenu_sub_Electronics_0_Printers%20%26%20Ink%20Cartridges</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/monitors-store?otracker=nmenu_sub_Electronics_0_Monitors</t>
+  </si>
+  <si>
+    <t>Apple Ipads</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/tablets/~apple-ipads/pr?sid=tyy,hry&amp;otracker=nmenu_sub_Electronics_0_Apple%20iPads</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/audio-video/speakers/pr?sid=0pm%2C0o7&amp;otracker=categorytree&amp;p%5B%5D=facets.features%255B%255D%3DBluetooth&amp;otracker=nmenu_sub_Electronics_0_Bluetooth%20Speakers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/audio-video/speakers/pr?sid=0pm%2C0o7&amp;p%5B%5D=facets.type%255B%255D%3DSoundbar&amp;otracker=categorytree&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;p%5B%5D=facets.fulfilled_by%255B%255D%3DFlipkart%2BAssured&amp;otracker=nmenu_sub_Electronics_0_Soundbars</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-entertainment/dth/pr?count=40&amp;otracker=categorytree&amp;p%5B%5D=facets.availability%255B%255D%3DExclude%2BOut%2Bof%2BStock&amp;sid=ckf%2F9wn&amp;otracker=nmenu_sub_Electronics_0_DTH%20Set%20Top%20Box</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/cameras/dslr~type/pr?sid=jek%2Cp31&amp;otracker=nmenu_sub_Electronics_0_DSLR%20%26%20Mirrorless</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/cameras/point-shoot~type/pr?sid=jek%2Cp31&amp;otracker=nmenu_sub_Electronics_0_Compact%20%26%20Bridge%20Cameras</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/cameras/sports-action/pr?count=40&amp;sid=jek%2Fp31%2Fs3q&amp;otracker=nmenu_sub_Electronics_0_Sports%20%26%20Action</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/camera-accessories/camera-lenses/pr?uniqueBstoreparam1=val1&amp;sid=jek%2C6l2%2Ce9y&amp;otracker=nmenu_sub_Electronics_0_Lens</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/camera-accessories/tripods/pr?count=40&amp;otracker=categorytree&amp;p%5B%5D=sort%3Dpopularity&amp;sid=jek%2F6l2%2Fce6&amp;otracker=nmenu_sub_Electronics_0_Tripods</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/computers/network-components/routers/pr?sid=6bo%2F70k%2F2a2&amp;otracker=nmenu_sub_Electronics_0_Routers</t>
+  </si>
+  <si>
+    <t>Men's wear</t>
+  </si>
+  <si>
+    <t>Foot Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/sports-shoes/pr?sid=osp,cil,1cu&amp;otracker=nmenu_sub_Men_0_Sports%20Shoes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/casual-shoes/pr?sid=osp,cil,e1f&amp;otracker=nmenu_sub_Men_0_Casual%20Shoes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/formal-shoes/pr?sid=osp,cil,ssb&amp;otracker=nmenu_sub_Men_0_Formal%20Shoes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/sandals-floaters/pr?sid=osp,cil,e83&amp;otracker=nmenu_sub_Men_0_Sandals%20%26%20Floaters</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/slippers-flip-flops/pr?sid=osp,cil,e1r&amp;otracker=nmenu_sub_Men_0_Flip-%20Flops</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/casual-shoes/loafers~type/pr?sid=osp%2Ccil%2Ce1f&amp;otracker=nmenu_sub_Men_0_Loafers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/casual-shoes/boots~type/pr?sid=osp%2Ccil%2Ce1f&amp;otracker=nmenu_sub_Men_0_Boots</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/sports-shoes/running-shoes~type/pr?sid=osp,cil,1cu&amp;otracker=nmenu_sub_Men_0_Running%20Shoes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-footwear/casual-shoes/sneakers~type/pr?sid=osp%2Ccil%2Ce1f&amp;otracker=nmenu_sub_Men_0_Sneakers</t>
+  </si>
+  <si>
+    <t>Men's Grooming</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/fragrances/deodorants/pr?sid=g9b%2C0yh%2Cvp1&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Men_0_Deodorants</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/fragrances/perfume/pr?sid=g9b,0yh,jhz&amp;p[]=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;p[]=facets.ideal_for%255B%255D%3DMen&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Perfumes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/pr?sid=g9b&amp;p%5B%5D=facets.brand%255B%255D%3DBeardo&amp;p%5B%5D=facets.brand%255B%255D%3DUstraa&amp;p%5B%5D=facets.brand%255B%255D%3DThe%2BMan%2BCompany&amp;p%5B%5D=facets.brand%255B%255D%3DSpruce%2BShave%2BClub&amp;p%5B%5D=facets.brand%255B%255D%3DMan%2BArden&amp;p%5B%5D=facets.brand%255B%255D%3DMeralite&amp;p%5B%5D=facets.brand%255B%255D%3DBrylcreem&amp;p%5B%5D=facets.brand%255B%255D%3DUrbanMooch&amp;p%5B%5D=facets.brand%255B%255D%3DVihado&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Men_0_Beard%20Care%20%26%20Grooming</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/~shaving-aftershave/pr?sid=g9b&amp;otracker=nmenu_sub_Men_0_Shaving%20%26%20Aftershave</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/sexual-wellness/pr?sid=g9b,alu&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Sexual%20Wellness</t>
+  </si>
+  <si>
+    <t>Top Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-tshirts/pr?sid=clo%2Cash%2Cank%2Cedy&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_T-Shirts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-formal-shirts/pr?sid=clo%2Cash%2Caxc%2Cmmk%2Cbk1&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Formal%20Shirts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-casual-shirts/pr?sid=clo%2Cash%2Caxc%2Cmmk%2Ckp7&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Casual%20Shirts</t>
+  </si>
+  <si>
+    <t>Bottom wear</t>
+  </si>
+  <si>
+    <t>Top wear</t>
+  </si>
+  <si>
+    <t>Bottom Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-jeans/pr?sid=clo%2Cvua%2Ck58%2Ci51&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Jeans</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-trousers/pr?sid=clo%2Cvua%2Cmle%2Clhk&amp;otracker=nmenu_sub_Men_0_Casual%20Trousers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-trousers/pr?sid=clo%2Cvua%2Cmle%2Clhk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Formal%20Trousers&amp;p[]=facets.occasion%255B%255D%3DFormal</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-track-pants/pr?sid=clo%2Cvua%2Cjlk%2C6ql&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Track%20pants</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-shorts/pr?sid=clo%2Cvua%2Ce8g%2Ckc7&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Shorts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/cargos/mens-cargos/pr?sid=clo%2Cvua%2Crqy%2Cnli&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Cargos</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/threefourths/mens-threefourths/pr?sid=clo%2Cvua%2Ceum%2C4qq&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Three%20Fourths</t>
+  </si>
+  <si>
+    <t>Suits ,Blazers &amp;Waistcoats</t>
+  </si>
+  <si>
+    <t>Suits, Blazzers and waistcoats</t>
+  </si>
+  <si>
+    <t>Ties, socks, caps and more</t>
+  </si>
+  <si>
+    <t>Fabrics</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/blazers-waistcoats-and-suits/pr?sid=clo%2Cupk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Suits%2C%20Blazers%20%26%20Waistcoats&amp;p[]=facets.ideal_for%255B%255D%3DMen</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/clothing-accessories/pr?sid=clo,qd8&amp;p[]=facets.ideal_for%255B%255D%3DMen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Ties%2C%20Socks%2C%20Caps%20%26%20More</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/fabrics/pr?sid=clo%2Cqfi&amp;p[]=facets.ideal_for%255B%255D%3DMen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Fabrics</t>
+  </si>
+  <si>
+    <t>Winter Wear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ties ,Socks ,Caps &amp;More </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-sweatshirts/pr?sid=clo%2Cqvw%2C64a%2Cvui&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Sweatshirts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/jackets/men-jackets/pr?sid=clo,qvw,z0g,jbm&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Jackets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/sweater/men-sweater/pr?sid=clo,qvw,vkb,ieq&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Sweater</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/tracksuits/mens-tracksuits/pr?sid=clo%2Cnyk%2Czp4&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Tracksuits</t>
+  </si>
+  <si>
+    <t>Ethnic Wear</t>
+  </si>
+  <si>
+    <t>Ethnic wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/kurtas/mens-kurtas/pr?sid=clo%2Ccfv%2Ccib%2Cjks&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Kurta</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-ethnic-sets/pr?sid=clo%2Ccfv%2Citg%2Cpme&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Ethnic%20Sets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-sherwanis/pr?sid=clo%2Ccfv%2Cdra%2Cbrt&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Sherwanis</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/ethnic-pyjamas/mens-ethnic-pyjamas/pr?sid=clo%2Ccfv%2Ce1p%2C5l2&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Ethnic%20Pyjama</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/dhotis/pr?sid=clo%2Ccfv%2Cnnk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Dhoti&amp;p[]=facets.ideal_for%255B%255D%3DMen</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/lungis/mens-lungis/pr?sid=clo%2Cvua%2C5jo%2Ccqs&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Lungi</t>
+  </si>
+  <si>
+    <t>Innerwear and loungewear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-briefs-and-trunks/pr?sid=clo%2Cqfl%2Cszr%2C3xl&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Briefs%20%26%20Trunks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/innerwear-and-swimwear/vests/mens-vests/pr?sid=clo%2Cqfl%2Cwp7%2Czpk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Vests</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-boxers/pr?sid=clo%2Cqfl%2C1pt%2Cjlb&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Boxers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/sleepwear/pyjamas-and-lounge-pants/mens-pyjamas-and-lounge-pants/pr?sid=clo%2C1hc%2Ca7m%2Cb4p&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Pyjamas%20and%20Lounge%20Pants</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mens-thermals/pr?sid=clo%2Cqvw%2Cugg%2Coak&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Thermals</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/sleepwear/night-suits/mens-night-suits/pr?sid=clo%2C1hc%2C5d2%2Cdos&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Night%20Suits</t>
+  </si>
+  <si>
+    <t>Raincoats &amp;Windcheaters</t>
+  </si>
+  <si>
+    <t>Raincoats and windcheaters</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/~cs-4ayq68p3ip/pr?sid=clo&amp;collection-tab-name=Raincoats%20And%20Windcheaters&amp;otracker=nmenu_sub_Men_0_Raincoats%20%26%20Windcheaters</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/watches/fastrack~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Fastrack</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/watches/casio~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Casio</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/watches/titan~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Titan</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/watches/fossil~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Fossil</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/watches/sonata~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Sonata</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/backpacks/pr?sid=reh%2C4d7%2Cak9&amp;otracker=nmenu_sub_Men_0_Backpacks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/wallets-clutches/wallets/pr?sid=reh%2Ccca%2Ch76&amp;marketplace=FLIPKART&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Men_0_Wallets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/belts/~men/pr?sid=reh%2Cro3&amp;otracker=nmenu_sub_Men_0_Belts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/sunglasses/pr?p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;sid=26x&amp;otracker=nmenu_sub_Men_0_Sunglasses&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;otracker=nmenu_sub_Men_0_Sunglasses</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/luggage-travel/pr?count=40&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2527s&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;sid=reh%2Fplk&amp;otracker=nmenu_sub_Men_0_Luggage%20%26%20Travel</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/eyewear/frames/pr?count=40&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DUnisex&amp;sid=u73%2Fh4k&amp;otracker=nmenu_sub_Men_0_Frames</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/jewellery/pr?p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;sid=mcr&amp;otracker=nmenu_sub_Men_0_Jewellery</t>
+  </si>
+  <si>
+    <t>Personal Care Appliances</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/trimmers/pr?count=40&amp;otracker=nmenu_sub_Men_0_Trimmers&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;sid=zlw%2F79s%2Fby3&amp;otracker=nmenu_sub_Men_0_Trimmers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/shavers/pr?sid=zlw,79s,u3j&amp;otracker=nmenu_sub_Men_0_Shavers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/grooming-kit/pr?sid=zlw,79s,bi7&amp;otracker=nmenu_sub_Men_0_Grooming%20Kits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Care Appliances </t>
+  </si>
+  <si>
+    <t>Women's wear</t>
+  </si>
+  <si>
+    <t>Western and maternity Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/topwear/pr?sid=clo,ash&amp;p[]=facets.ideal_for%255B%255D%3DWomen&amp;p[]=facets.ideal_for%255B%255D%3Dwomen&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Topwear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-dresses/pr?sid=clo%2Codx%2Cmaj%2Cjhy&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Dresses</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-jeans/pr?sid=clo%2Cvua%2Ck58%2C4hp&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Jeans</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-shorts/pr?sid=clo%2Cvua%2Ce8g%2Chbd&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Shorts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-skirts/pr?sid=clo%2Cvua%2Ciku%2Cw5t&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Skirts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/~cs-hdgz8fjfgm/pr?sid=clo%2Cvua&amp;collection-tab-name=Tights%20And%20%20Legging&amp;otracker=nmenu_sub_Women_0_Jeggings%20%26%20Tights</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/~cs-g50m8job1g/pr?sid=clo%2Cvua&amp;collection-tab-name=Trousers%20and%20Capris&amp;otracker=nmenu_sub_Women_0_Trousers%20%26%20Capris</t>
+  </si>
+  <si>
+    <t>Lingerie and sleepware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bras </t>
+  </si>
+  <si>
+    <t>Panties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bras  </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/innerwear/bra/women-bra/pr?sid=clo,qfl,v5v,kzg&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Bras</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-panties/pr?sid=clo%2Cqfl%2Cq5u%2Cla2&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Panties</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/innerwear/lingerie-and-accessories/lingerie-sets/pr?sid=clo,qfl,w4j,53e&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Lingerie%20Sets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-night-dresses-and-nighties/pr?sid=clo%2C1hc%2Ckc4%2Cnmu&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Night%20Dresses%20%26%20Nighties</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-shapewears/pr?sid=clo%2Cqfl%2Cuga%2Ctpq&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Shapewear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-camisoles-and-slips/pr?sid=clo%2Cqfl%2Cpji%2Ccrb&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Camisoles%20%26%20Slips</t>
+  </si>
+  <si>
+    <t>Sports Wear</t>
+  </si>
+  <si>
+    <t>Party Dresses</t>
+  </si>
+  <si>
+    <t>Swim &amp;Beachwear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/~cs-slqko43dfo/pr?sid=clo&amp;collection-tab-name=Swim%20and%20Beachwear&amp;otracker=nmenu_sub_Women_0_Swim%20%26%20Beachwear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-dresses/pr?sid=clo%2Codx%2Cmaj%2Cjhy&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Party%20Dresses&amp;p[]=facets.occasion%255B%255D%3DParty</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/~cs-xy1011hvj1/pr?sid=clo&amp;collection-tab-name=Sports%20and%20Gym%20Wear&amp;otracker=nmenu_sub_Women_0_Sports%20Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/pr?sid=clo%2Cqvw&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DWomen&amp;otracker=nmenu_sub_Women_0_Winter%20Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/clothing-accessories/dupattas/women-dupattas/pr?sid=clo,qd8,t6b,pjy&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Dupattas</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-sarees/pr?sid=clo%2C8on%2Czpd%2C9og&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Sarees</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/ethnic-wear/kurtas/women-kurtas-and-kurtis/pr?sid=clo,cfv,cib,rkt&amp;q=kurtas+kurtis&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Kurtas%20%26%20Kurtis</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/dress-materials/pr?sid=clo%2Cqfi%2Cxcx%2Cms4&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Dress%20Material</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/lehenga-choli/women-lehenga-choli/pr?sid=clo,hlg,wrp&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Lehenga%20Choli</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-blouse-materials/pr?sid=clo%2C8on%2C5n9%2Chny&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Blouse</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/ethnic-wear/ethnic-sets/women-ethnic-sets-and-salwar-suits/pr?sid=clo,cfv,itg,tys&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Kurta%20Sets%20%26%20Salwar%20Suits</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-gowns/pr?sid=clo%2Codx%2Cod7%2C0xx&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Gowns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leggings &amp;Churidars </t>
+  </si>
+  <si>
+    <t>Palazzos</t>
+  </si>
+  <si>
+    <t>Ethnic Bottoms</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-leggings-and-churidars/pr?sid=clo%2Ccfv%2Cht7%2Ccjo&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Leggings%20%26%20Churidars</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/palazzos/pr?sid=clo%2Ccfv%2Cmn6&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Palazzos</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/ethnic-wear/sharara/pr?sid=clo,cfv,7po&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Shararas</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-salwars-and-patialas/pr?sid=clo%2Ccfv%2C1n0%2Cops&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Salwars%20%26%20Patiala</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/dhoti-pants/womens-dhoti-pants/pr?sid=clo%2Ccfv%2Cemd%2Con4&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Dhoti%20Pants</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/trousers/womens-trousers/pr?sid=clo%2Cvua%2Cmle%2C8ie&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Ethnic%20Trousers&amp;p[]=facets.suitable_for%255B%255D%3DEthnic%2BWear&amp;p[]=facets.suitable_for%255B%255D%3DFusion%2BWear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/sarees-and-saree-essentials/petticoats/womens-petticoats/pr?sid=clo%2C8on%2Ctpo%2Ctuw&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Saree%20Shapewear%20%26%20Petticoats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saree Shapewear and Petticoats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leggings and Churidars </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurta Sets and Salwar Suits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurtas and Kurtis </t>
+  </si>
+  <si>
+    <t>Swim and Beachwear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trousers and Capris </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeggings and Tights </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luggage and Travel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaving and Aftershave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beard Care and Grooming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandals and Floaters </t>
+  </si>
+  <si>
+    <t>Sports and Action</t>
+  </si>
+  <si>
+    <t>Compact and Bridge Cameras</t>
+  </si>
+  <si>
+    <t>DSLR and Mirrorless</t>
+  </si>
+  <si>
+    <t>Printers and Ink Cartridges</t>
+  </si>
+  <si>
+    <t>Laptop Skins and Decals</t>
+  </si>
+  <si>
+    <t>Footwear</t>
+  </si>
+  <si>
+    <t>Slippers &amp;Flip -Flop's</t>
+  </si>
+  <si>
+    <t>Slippers and Flip -Flop's</t>
+  </si>
+  <si>
+    <t>Foot wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-footwear/flats/pr?sid=osp,iko,9d5&amp;otracker=nmenu_sub_Women_0_Flats</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-footwear/heels/pr?sid=osp,iko,6q1&amp;otracker=nmenu_sub_Women_0_Heels</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-footwear/wedges/pr?sid=osp,iko,jpm&amp;otracker=nmenu_sub_Women_0_Wedges</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-footwear/sports-shoes/pr?sid=osp,iko,d20&amp;otracker=nmenu_sub_Women_0_Sports%20Shoes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-footwear/casual-shoes/pr?sid=osp,iko,sx7&amp;otracker=nmenu_sub_Women_0_Casual%20Shoes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-footwear/boots/pr?sid=osp%2Ciko%2Cxgp&amp;otracker=nmenu_sub_Women_0_Boots</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-footwear/ballerinas/pr?sid=osp,iko,974&amp;otracker=nmenu_sub_Women_0_Ballerinas</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-footwear/slippers-flip-flops/pr?sid=osp,iko,iz7&amp;otracker=nmenu_sub_Women_0_Slippers%20%26%20Flip-%20Flop%27s</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/womens-watches-store?otracker=nmenu_sub_Women_0_Watches</t>
+  </si>
+  <si>
     <r>
       <t>Coins and Bars</t>
     </r>
@@ -1419,590 +2184,98 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Accessories </t>
+      <t xml:space="preserve">  </t>
     </r>
   </si>
   <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>Food Essentials</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Auto Accessories</t>
-  </si>
-  <si>
-    <t>Medical Supplies</t>
-  </si>
-  <si>
-    <t>Gaming</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Category_1</t>
-  </si>
-  <si>
-    <t>Category_2</t>
-  </si>
-  <si>
-    <t>Category_3</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>Sports, Books and More</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/sports/cricket/pr?sid=abc,5lf&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Cricket</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/sports/badminton/pr?sid=abc,egs&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Badminton</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/sports/cycling/pr?sid=abc,ulv&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Cycling</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/sports/football/pr?sid=abc,gxg&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Football</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/sports/skating/pr?sid=abc,mgq&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Skating</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/sports/camping-hiking/pr?sid=abc,fvf&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Camping%20%26%20Hiking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camping  and Hiking </t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/sports/swimming/pr?sid=abc,byq&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Swimming</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/exercise-fitness/fitness-equipment/treadmills/pr?count=40&amp;sid=qoc%2Camf%2Coyq&amp;hpid=afw5r8bGYGyW4zsu4Z-536p7_Hsxr70nj65vMAAFKlc%3D&amp;ctx=eyJjYXJkQ29udGV4dCI6eyJhdHRyaWJ1dGVzIjp7InZhbHVlQ2FsbG91dCI6eyJtdWx0aVZhbHVlZEF0dHJpYnV0ZSI6eyJrZXkiOiJ2YWx1ZUNhbGxvdXQiLCJpbmZlcmVuY2VUeXBlIjoiVkFMVUVfQ0FMTE9VVCIsInZhbHVlcyI6WyJVcHRvIDUwJSBPZmYiXSwidmFsdWVUeXBlIjoiTVVMVElfVkFMVUVEIn19LCJoZXJvUGlkIjp7InNpbmdsZVZhbHVlQXR0cmlidXRlIjp7ImtleSI6Imhlcm9QaWQiLCJpbmZlcmVuY2VUeXBlIjoiUElEIiwidmFsdWUiOiJUUkRGWjRGMzZTRDRKUEhLIiwidmFsdWVUeXBlIjoiU0lOR0xFX1ZBTFVFRCJ9fSwidGl0bGUiOnsibXVsdGlWYWx1ZWRBdHRyaWJ1dGUiOnsia2V5IjoidGl0bGUiLCJpbmZlcmVuY2VUeXBlIjoiVElUTEUiLCJ2YWx1ZXMiOlsiVHJlYWRtaWxsIl0sInZhbHVlVHlwZSI6Ik1VTFRJX1ZBTFVFRCJ9fX19fQ%3D%3D&amp;fm=neo%2Fmerchandising&amp;iid=M_afacb886-e286-483b-89c9-eb3a018c6e4a_1.4LN5YKZKHEWF&amp;ppt=None&amp;ppn=None&amp;ssid=6focs1adhc0000001671290112117&amp;otracker=dynamic_omu_infinite_Strength%2B%2526%2BCardio%2BEquipment_2_1.dealCard.OMU_INFINITE_4LN5YKZKHEWF&amp;cid=4LN5YKZKHEWF</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/exercise-fitness/fitness-equipment/fitness-kits/pr?sid=qoc%2Camf%2Cvh3&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Home%20Gyms</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/exercise-fitness/fitness-accessories/supports/pr?sid=qoc,acb,aa3&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Support</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/exercise-fitness/fitness-accessories/dumbbells/pr?sid=qoc,acb,zuc&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Dumbbells</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/exercise-fitness/fitness-equipment/ab-exercisers/pr?sid=qoc%2Camf%2Csma&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Ab%20Exercisers</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/exercise-fitness/fitness-accessories/shakers-and-sippers/pr?sid=qoc,acb,qat&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Shakers%20%26%20Sippers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shakers and Sippers </t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/exercise-fitness/yoga/yoga-mats/pr?sid=qoc,s1h,fco&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Yoga%20Mat</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/exercise-fitness/fitness-accessories/gym-gloves/pr?sid=qoc,acb,afr&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gym%20Gloves</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/food-products/food-combo/~gourmet-foods-/pr?sid=eat%2Cymr&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Nuts%20%26%20Dry%20Fruits</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/food-products/~gourmet-foods-/pr?sid=eat&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Tea%2C%20Coffee%20and%20Beverages</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/food-products/chocolates/~gourmet-foods-/pr?sid=eat%2C0pt&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Chocolates</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/food-nutrition/food-nutrition-combo/~gourmet-foods-/pr?sid=7jv,jid&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gifting%20Combos</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/food-products/sweets-and-mixes/packaged-sweets/~gourmet-foods-/pr?sid=eat%2Cpta%2Cqoz&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Sweets%20Store</t>
-  </si>
-  <si>
-    <t>snacks and beverages</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/health-care/health-supplements/protein-supplement/pr?sid=hlc%2Cetg%2C1rx&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Protein%20Supplements&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Protein%20Supplements</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/health-care/health-supplements/vitamin-supplement/pr?sid=hlc%2Cetg%2Cqtw&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Vitamin%20Supplements&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Vitamin%20Supplements</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/health-care/health-supplements/energy-drinks/pr?sid=hlc%2Cetg%2C2yn&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Health%20%26%20Energy%20Drinks&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Health%20Drinks</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/health-care/health-supplements/vitamin-supplement/pr?sid=hlc%2Cetg%2Cqtw&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Vitamin%20Supplements&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Ayurvedic%20Supplements&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;p[]=facets.type%255B%255D%3DAyurvedic%2BSupplements</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/the-exam-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Entrance%20Exams</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/the-education-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Academics</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/theliterature-fiction-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Literature%20%26%20Fiction</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/the-non-fiction-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Non%20Fiction</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/the-childrenandteens-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Young%20Readers</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/books/selfhelp-books/pr?sid=bks,5uw&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Self-Help</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/pens-category-store?otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Pens&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Pens</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/pens-stationery/office-supplies/diaries/pr?sid=dgv,tkw,mwh&amp;otracker=product_breadCrumbs_Diaries&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Diaries</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/pens-stationery/office-supplies/card-holders/pr?sid=dgv,tkw,chd&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Card%20Holders</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/pens-stationery/office-supplies/desk-organizers/pr?sid=dgv,tkw,hlr&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Desk%20Organizers</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/pens-stationery/office-supplies/key-chains/pr?sid=dgv,tkw,amn&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Key%20Chains&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Key%20Chains</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/pens-stationery/calculators/pr?sid=dgv,qtq&amp;otracker=categorytree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helmets and Riding Gears </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literature and Fiction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuts and Dry Fruits </t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/automotive-accessories/pr?p[]=facets.availability%255B%255D%3DExclude%2BOut%2Bof%2BStock&amp;sid=1mt&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Helmets%20%26%20Riding%20Gear&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Helmets%20%26%20Riding%20Gears</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/automotive-accessories/pr?sid=1mt&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Car%20Audio%2FVideo</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/automotive-accessories/vehicle-utility-accessories/vehicle-mobile-accessories/pr?sid=1mt%2Cebm%2Ciwn&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Car%20Mobile%20Accessories</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/automotive-accessories/oils-and-lubricants/pr?sid=1mt%2C0mi&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Vehicle%20Lubricants</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/industrial-scientific-supplies/industrial-measurement-devices/pr?sid=gsx,oe8&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Industrial%20Measurement%20Devices</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/industrial-scientific-supplies/industrial-testing-devices/pr?sid=gsx,gkc&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Industrial%20Testing%20Devices</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/industrial-scientific-supplies/lab-scientific-products/pr?sid=gsx,l9d&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Lab%20%26%20Scientific%20Products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab and Scientific Products </t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/industrial-scientific-supplies/packaging-shipping-products/pr?sid=gsx,bad&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Packaging%20%26%20Shipping%20Products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Packaging and Shipping Products </t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/industrial-scientific-supplies/safety-products/pr?sid=gsx,bfk&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Safety%20Products</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/beauty-and-grooming/sexual-wellness/pr?sid=g9b%2Calu&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Pregnancy%20and%20Fertility%20Kits</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/health-care/home-medical-supplies/pr?sid=hlc%2C20m&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;p[]=facets.brand%255B%255D%3DCasa&amp;p[]=facets.brand%255B%255D%3DCASA&amp;p[]=facets.brand%255B%255D%3DTULIP&amp;p[]=facets.brand%255B%255D%3DTulip&amp;p[]=facets.brand%255B%255D%3Dcreto&amp;p[]=facets.brand%255B%255D%3DCRETO&amp;p[]=facets.brand%255B%255D%3DAlex%2527s&amp;p[]=facets.brand%255B%255D%3DRecombigen&amp;p[]=facets.brand%255B%255D%3Dxtraplus&amp;p[]=facets.brand%255B%255D%3DKetsaal&amp;p[]=facets.brand%255B%255D%3DThermocare&amp;p[]=facets.brand%255B%255D%3DRoyal&amp;p[]=facets.brand%255B%255D%3DARYSHAA&amp;p[]=facets.brand%255B%255D%3DAryshaa&amp;p[]=facets.brand%255B%255D%3DTuelip&amp;p[]=facets.brand%255B%255D%3DHealthIQ&amp;p[]=facets.brand%255B%255D%3DGentle%2BE%2BKart&amp;p[]=facets.brand%255B%255D%3DOneRetail&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Hot%20Water%20Bag</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/gaming/gaming-consoles/pr?sid=4rr,x1m&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gaming%20Consoles&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gaming%20Consoles</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/gaming-accesories/pr?sid=4rr%2Ckm5&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gaming%20Accessories&amp;otracker[]=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Gaming%20Accessories</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/wearable-smart-devices/smart-glasses/pr?sid=ajy,tcy&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Smart%20Glasses(VR)&amp;otracker=nmenu_sub_Sports%2C%20Books%20%26%20More_0_Smart%20Glasses%20(VR)</t>
-  </si>
-  <si>
-    <t>snacks and beverages(merging nuts and beverages, snack corner, morning breakfast)</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mobile-accessories/cases-and-covers/pr?sid=tyy,4mr,q2u&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Cases</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/headphones-store?otracker=nmenu_sub_Electronics_0_Headphones%20%26%20Headsets</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mobile-accessories/power-banks/pr?sid=tyy,4mr,fu6&amp;otracker=categorytree&amp;otracker=nmenu_sub_Electronics_0_Power%20Banks</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mobile-accessories/screen-guards/pr?sid=tyy,4mr,lrv&amp;otracker=nmenu_sub_Electronics_0_Screenguards</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/computers/storage/memory-cards/pr?sid=6bo%2Cjdy%2Ctby&amp;otracker=nmenu_sub_Electronics_0_Memory%20Cards</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/wearable-smart-devices/smart-headphones/pr?sid=ajy,vam&amp;otracker=nmenu_sub_Electronics_0_Smart%20Headphones</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mobile-accessories/mobile-cables/pr?sid=tyy%2C4mr%2C3nu&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Cables</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mobile-accessories/chargers/pr?sid=tyy,4mr,tp2&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Chargers</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mobile-accessories/mobile-holders/pr?sid=tyy,4mr,vnf&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Electronics_0_Mobile%20Holders</t>
-  </si>
-  <si>
-    <t>Smart Watches</t>
-  </si>
-  <si>
-    <t>Smart Glasses (VR)</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/wearable-smart-devices/pr?sid=ajy&amp;otracker=categorytree</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/wearable-smart-devices/smart-glasses/pr?sid=ajy%2Ctcy&amp;otracker=nmenu_sub_Electronics_0_Smart%20Glasses%20(VR)</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/wearable-smart-devices/smart-bands/pr?sid=ajy%2Cq7p&amp;otracker=nmenu_sub_Electronics_0_Smart%20Bands</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/health-personal-care-appliances/health-care/health-care-devices/blood-pressure-monitors/pr?sid=zlw,nyl,bvv,kbk&amp;otracker=nmenu_sub_Electronics_0_Bp%20Monitors</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/health-personal-care-appliances/health-care/health-care-devices/weighing-scales/pr?sid=zlw%2Cnyl%2Cbvv%2Co4o&amp;otracker=nmenu_sub_Electronics_0_Weighing%20Scale</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/gaming-laptops-store?otracker=nmenu_sub_Electronics_0_Gaming%20Laptops&amp;otracker=nmenu_sub_Electronics_0_Gaming%20Laptops</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/desktop-pc-store?otracker=nmenu_sub_Electronics_0_Desktop%20PCs</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/gaming-store?otracker=nmenu_sub_Electronics_0_Gaming%20%26%20Accessories</t>
-  </si>
-  <si>
-    <t>Gaming and Accessories</t>
-  </si>
-  <si>
-    <t>Laptop Bags</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/external-hard-disk-store?otracker=nmenu_sub_Electronics_0_External%20Hard%20Disks</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/computers/storage/pen-drives/pr?sid=6bo,jdy,uar&amp;otracker=nmenu_sub_Electronics_0_Pendrives</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/laptop-accessories/laptop-skins-decals/pr?sid=6bo,ai3,zvm&amp;otracker=nmenu_sub_Electronics_0_Laptop%20Skins%20%26%20Decals</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/bags-wallets-belts/bags-backpacks/laptop-bags/pr?sid=reh%2C4d7%2Cx9i&amp;otracker=nmenu_sub_Electronics_0_Laptop%20Bags</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/laptop-accessories/mouse/pr?sid=6bo,ai3,2ay&amp;otracker=nmenu_sub_Electronics_0_Mouse</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/printer-inks-store?otracker=nmenu_sub_Electronics_0_Printers%20%26%20Ink%20Cartridges</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/monitors-store?otracker=nmenu_sub_Electronics_0_Monitors</t>
-  </si>
-  <si>
-    <t>Apple Ipads</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/tablets/~apple-ipads/pr?sid=tyy,hry&amp;otracker=nmenu_sub_Electronics_0_Apple%20iPads</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/audio-video/speakers/pr?sid=0pm%2C0o7&amp;otracker=categorytree&amp;p%5B%5D=facets.features%255B%255D%3DBluetooth&amp;otracker=nmenu_sub_Electronics_0_Bluetooth%20Speakers</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/audio-video/speakers/pr?sid=0pm%2C0o7&amp;p%5B%5D=facets.type%255B%255D%3DSoundbar&amp;otracker=categorytree&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;p%5B%5D=facets.fulfilled_by%255B%255D%3DFlipkart%2BAssured&amp;otracker=nmenu_sub_Electronics_0_Soundbars</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/home-entertainment/dth/pr?count=40&amp;otracker=categorytree&amp;p%5B%5D=facets.availability%255B%255D%3DExclude%2BOut%2Bof%2BStock&amp;sid=ckf%2F9wn&amp;otracker=nmenu_sub_Electronics_0_DTH%20Set%20Top%20Box</t>
-  </si>
-  <si>
-    <t>Cameras</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/cameras/dslr~type/pr?sid=jek%2Cp31&amp;otracker=nmenu_sub_Electronics_0_DSLR%20%26%20Mirrorless</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/cameras/point-shoot~type/pr?sid=jek%2Cp31&amp;otracker=nmenu_sub_Electronics_0_Compact%20%26%20Bridge%20Cameras</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/cameras/sports-action/pr?count=40&amp;sid=jek%2Fp31%2Fs3q&amp;otracker=nmenu_sub_Electronics_0_Sports%20%26%20Action</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/camera-accessories/camera-lenses/pr?uniqueBstoreparam1=val1&amp;sid=jek%2C6l2%2Ce9y&amp;otracker=nmenu_sub_Electronics_0_Lens</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/camera-accessories/tripods/pr?count=40&amp;otracker=categorytree&amp;p%5B%5D=sort%3Dpopularity&amp;sid=jek%2F6l2%2Fce6&amp;otracker=nmenu_sub_Electronics_0_Tripods</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/computers/network-components/routers/pr?sid=6bo%2F70k%2F2a2&amp;otracker=nmenu_sub_Electronics_0_Routers</t>
-  </si>
-  <si>
-    <t>Men's wear</t>
-  </si>
-  <si>
-    <t>Foot Wear</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-footwear/sports-shoes/pr?sid=osp,cil,1cu&amp;otracker=nmenu_sub_Men_0_Sports%20Shoes</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-footwear/casual-shoes/pr?sid=osp,cil,e1f&amp;otracker=nmenu_sub_Men_0_Casual%20Shoes</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-footwear/formal-shoes/pr?sid=osp,cil,ssb&amp;otracker=nmenu_sub_Men_0_Formal%20Shoes</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-footwear/sandals-floaters/pr?sid=osp,cil,e83&amp;otracker=nmenu_sub_Men_0_Sandals%20%26%20Floaters</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-footwear/slippers-flip-flops/pr?sid=osp,cil,e1r&amp;otracker=nmenu_sub_Men_0_Flip-%20Flops</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-footwear/casual-shoes/loafers~type/pr?sid=osp%2Ccil%2Ce1f&amp;otracker=nmenu_sub_Men_0_Loafers</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-footwear/casual-shoes/boots~type/pr?sid=osp%2Ccil%2Ce1f&amp;otracker=nmenu_sub_Men_0_Boots</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-footwear/sports-shoes/running-shoes~type/pr?sid=osp,cil,1cu&amp;otracker=nmenu_sub_Men_0_Running%20Shoes</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-footwear/casual-shoes/sneakers~type/pr?sid=osp%2Ccil%2Ce1f&amp;otracker=nmenu_sub_Men_0_Sneakers</t>
-  </si>
-  <si>
-    <t>Men's Grooming</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/beauty-and-grooming/fragrances/deodorants/pr?sid=g9b%2C0yh%2Cvp1&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Men_0_Deodorants</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/beauty-and-grooming/fragrances/perfume/pr?sid=g9b,0yh,jhz&amp;p[]=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;p[]=facets.ideal_for%255B%255D%3DMen&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Perfumes</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/beauty-and-grooming/pr?sid=g9b&amp;p%5B%5D=facets.brand%255B%255D%3DBeardo&amp;p%5B%5D=facets.brand%255B%255D%3DUstraa&amp;p%5B%5D=facets.brand%255B%255D%3DThe%2BMan%2BCompany&amp;p%5B%5D=facets.brand%255B%255D%3DSpruce%2BShave%2BClub&amp;p%5B%5D=facets.brand%255B%255D%3DMan%2BArden&amp;p%5B%5D=facets.brand%255B%255D%3DMeralite&amp;p%5B%5D=facets.brand%255B%255D%3DBrylcreem&amp;p%5B%5D=facets.brand%255B%255D%3DUrbanMooch&amp;p%5B%5D=facets.brand%255B%255D%3DVihado&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Men_0_Beard%20Care%20%26%20Grooming</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/beauty-and-grooming/~shaving-aftershave/pr?sid=g9b&amp;otracker=nmenu_sub_Men_0_Shaving%20%26%20Aftershave</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/beauty-and-grooming/sexual-wellness/pr?sid=g9b,alu&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Sexual%20Wellness</t>
-  </si>
-  <si>
-    <t>Top Wear</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-tshirts/pr?sid=clo%2Cash%2Cank%2Cedy&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_T-Shirts</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-formal-shirts/pr?sid=clo%2Cash%2Caxc%2Cmmk%2Cbk1&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Formal%20Shirts</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-casual-shirts/pr?sid=clo%2Cash%2Caxc%2Cmmk%2Ckp7&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Casual%20Shirts</t>
-  </si>
-  <si>
-    <t>Bottom wear</t>
-  </si>
-  <si>
-    <t>Top wear</t>
-  </si>
-  <si>
-    <t>Bottom Wear</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-jeans/pr?sid=clo%2Cvua%2Ck58%2Ci51&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Jeans</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-trousers/pr?sid=clo%2Cvua%2Cmle%2Clhk&amp;otracker=nmenu_sub_Men_0_Casual%20Trousers</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-trousers/pr?sid=clo%2Cvua%2Cmle%2Clhk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Formal%20Trousers&amp;p[]=facets.occasion%255B%255D%3DFormal</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-track-pants/pr?sid=clo%2Cvua%2Cjlk%2C6ql&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Track%20pants</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-shorts/pr?sid=clo%2Cvua%2Ce8g%2Ckc7&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Shorts</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/cargos/mens-cargos/pr?sid=clo%2Cvua%2Crqy%2Cnli&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Cargos</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/threefourths/mens-threefourths/pr?sid=clo%2Cvua%2Ceum%2C4qq&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Three%20Fourths</t>
-  </si>
-  <si>
-    <t>Suits ,Blazers &amp;Waistcoats</t>
-  </si>
-  <si>
-    <t>Suits, Blazzers and waistcoats</t>
-  </si>
-  <si>
-    <t>Ties, socks, caps and more</t>
-  </si>
-  <si>
-    <t>Fabrics</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/blazers-waistcoats-and-suits/pr?sid=clo%2Cupk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Suits%2C%20Blazers%20%26%20Waistcoats&amp;p[]=facets.ideal_for%255B%255D%3DMen</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/clothing-accessories/pr?sid=clo,qd8&amp;p[]=facets.ideal_for%255B%255D%3DMen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Ties%2C%20Socks%2C%20Caps%20%26%20More</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/fabrics/pr?sid=clo%2Cqfi&amp;p[]=facets.ideal_for%255B%255D%3DMen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;p[]=facets.ideal_for%255B%255D%3Dmen&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Fabrics</t>
-  </si>
-  <si>
-    <t>Winter Wear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ties ,Socks ,Caps &amp;More </t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-sweatshirts/pr?sid=clo%2Cqvw%2C64a%2Cvui&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Sweatshirts</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/jackets/men-jackets/pr?sid=clo,qvw,z0g,jbm&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Jackets</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/sweater/men-sweater/pr?sid=clo,qvw,vkb,ieq&amp;otracker=categorytree&amp;otracker=nmenu_sub_Men_0_Sweater</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/tracksuits/mens-tracksuits/pr?sid=clo%2Cnyk%2Czp4&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Tracksuits</t>
-  </si>
-  <si>
-    <t>Ethnic Wear</t>
-  </si>
-  <si>
-    <t>Ethnic wear</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/kurtas/mens-kurtas/pr?sid=clo%2Ccfv%2Ccib%2Cjks&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Kurta</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-ethnic-sets/pr?sid=clo%2Ccfv%2Citg%2Cpme&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Ethnic%20Sets</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-sherwanis/pr?sid=clo%2Ccfv%2Cdra%2Cbrt&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Sherwanis</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/ethnic-pyjamas/mens-ethnic-pyjamas/pr?sid=clo%2Ccfv%2Ce1p%2C5l2&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Ethnic%20Pyjama</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/dhotis/pr?sid=clo%2Ccfv%2Cnnk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Dhoti&amp;p[]=facets.ideal_for%255B%255D%3DMen</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/lungis/mens-lungis/pr?sid=clo%2Cvua%2C5jo%2Ccqs&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Lungi</t>
-  </si>
-  <si>
-    <t>Innerwear and loungewear</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-briefs-and-trunks/pr?sid=clo%2Cqfl%2Cszr%2C3xl&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Briefs%20%26%20Trunks</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/innerwear-and-swimwear/vests/mens-vests/pr?sid=clo%2Cqfl%2Cwp7%2Czpk&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Vests</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-boxers/pr?sid=clo%2Cqfl%2C1pt%2Cjlb&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Boxers</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/sleepwear/pyjamas-and-lounge-pants/mens-pyjamas-and-lounge-pants/pr?sid=clo%2C1hc%2Ca7m%2Cb4p&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Pyjamas%20and%20Lounge%20Pants</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-thermals/pr?sid=clo%2Cqvw%2Cugg%2Coak&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Thermals</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/sleepwear/night-suits/mens-night-suits/pr?sid=clo%2C1hc%2C5d2%2Cdos&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Men_0_Night%20Suits</t>
-  </si>
-  <si>
-    <t>Raincoats &amp;Windcheaters</t>
-  </si>
-  <si>
-    <t>Raincoats and windcheaters</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/clothing-and-accessories/~cs-4ayq68p3ip/pr?sid=clo&amp;collection-tab-name=Raincoats%20And%20Windcheaters&amp;otracker=nmenu_sub_Men_0_Raincoats%20%26%20Windcheaters</t>
-  </si>
-  <si>
-    <t>Watches</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/watches/fastrack~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Fastrack</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/watches/casio~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Casio</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/watches/titan~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Titan</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/watches/fossil~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Fossil</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/watches/sonata~brand/pr?sid=r18&amp;otracker=nmenu_sub_Men_0_Sonata</t>
-  </si>
-  <si>
-    <t>Accessories</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/backpacks/pr?sid=reh%2C4d7%2Cak9&amp;otracker=nmenu_sub_Men_0_Backpacks</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/bags-wallets-belts/wallets-clutches/wallets/pr?sid=reh%2Ccca%2Ch76&amp;marketplace=FLIPKART&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Men_0_Wallets</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/bags-wallets-belts/belts/~men/pr?sid=reh%2Cro3&amp;otracker=nmenu_sub_Men_0_Belts</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/sunglasses/pr?p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;sid=26x&amp;otracker=nmenu_sub_Men_0_Sunglasses&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;otracker=nmenu_sub_Men_0_Sunglasses</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/bags-wallets-belts/luggage-travel/pr?count=40&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2527s&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;sid=reh%2Fplk&amp;otracker=nmenu_sub_Men_0_Luggage%20%26%20Travel</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/eyewear/frames/pr?count=40&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DUnisex&amp;sid=u73%2Fh4k&amp;otracker=nmenu_sub_Men_0_Frames</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/jewellery/pr?p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;sid=mcr&amp;otracker=nmenu_sub_Men_0_Jewellery</t>
-  </si>
-  <si>
-    <t>Personal Care Appliances</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/trimmers/pr?count=40&amp;otracker=nmenu_sub_Men_0_Trimmers&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;sid=zlw%2F79s%2Fby3&amp;otracker=nmenu_sub_Men_0_Trimmers</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/shavers/pr?sid=zlw,79s,u3j&amp;otracker=nmenu_sub_Men_0_Shavers</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/grooming-kit/pr?sid=zlw,79s,bi7&amp;otracker=nmenu_sub_Men_0_Grooming%20Kits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Care Appliances </t>
+    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/hair-straighteners/pr?sid=zlw,79s,dk5&amp;otracker=nmenu_sub_Women_0_Hair%20Straightners</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/hair-dryers/pr?sid=zlw,79s,mh8&amp;otracker=nmenu_sub_Women_0_Hair%20Dryers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/health-personal-care-appliances/personal-care-appliances/epilators/pr?sid=zlw,79s,k32&amp;otracker=nmenu_sub_Women_0_Epilators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salwars and Patiala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camisoles and Slips </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Dresses and Nighties </t>
+  </si>
+  <si>
+    <t>Beauty and Grooming</t>
+  </si>
+  <si>
+    <t>Bath and Spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deodorants and Perfumes </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/makeup/pr?sid=g9b,ffi&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Make%20Up</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/body-face-skin-care/body-and-face-care/pr?sid=g9b%2Cema%2C5la&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DWomen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DUnisex&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Women_0_Skin%20Care</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/hair-care-and-accessory/pr?sid=g9b,lcf&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Hair%20Care</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/bath-shower/pr?sid=g9b,5nz&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Bath%20%26%20Spa</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beauty-and-grooming/fragrances/pr?sid=g9b%2C0yh&amp;p%5B%5D=facets.ideal_for%255B%255D%3DWomen&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Women_0_Deodorants%20%26%20Perfumes</t>
+  </si>
+  <si>
+    <t>Jewellery</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/jewellery/artificial-jewellery/pr?sid=mcr,96v&amp;otracker=categorytree</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/jewellery/silver-jewellery/pr?sid=mcr,tfz&amp;otracker=nmenu_sub_Women_0_Silver%20Jewellery</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/jewellery/precious-jewellery/pr?sid=mcr,ykh&amp;otracker=nmenu_sub_Women_0_Precious%20Jewellery</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/gold-silver-coins/pr?sid=mcr%2C73x&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Coins%20and%20Bars</t>
+  </si>
+  <si>
+    <t>Frames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallets and Belts </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/handbags/pr?sid=reh%2Cihu%2Cm08&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Women_0_Handbags</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/handbags-clutches/totes/pr?sid=reh,ihu,v57&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Totes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/handbags-clutches/sling-bags/pr?sid=reh,ihu,mf2&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Sling%20bags</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/wallets-clutches/clutches/pr?sid=reh,cca,q6i&amp;otracker=categorytree&amp;otracker=nmenu_sub_Women_0_Clutches</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/~wallets-belts/pr?p[]=facets.ideal_for%255B%255D=Women&amp;p[]=sort=popularity&amp;sid=reh&amp;otracker=nmenu_sub_Women_0_Wallets%20%26%20Belts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/bags-wallets-belts/luggage-travel/pr?count=40&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DWomen&amp;p%5B%5D=facets.ideal_for%255B%255D%3DWomen%2527s&amp;p%5B%5D=facets.ideal_for%255B%255D%3DGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;sid=reh%2Fplk&amp;otracker=nmenu_sub_Women_0_Luggage%20%26%20Travel</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/sunglasses/pr?p%5B%5D=facets.ideal_for%255B%255D%3DMen%2B%2526%2BWomen&amp;sid=26x&amp;otracker=nmenu_sub_Women_0_Sunglasses&amp;p%5B%5D=facets.ideal_for%255B%255D%3DWomen&amp;otracker=nmenu_sub_Women_0_Sunglasses</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/eyewear/frames/pr?count=40&amp;p%5B%5D=facets.ideal_for%255B%255D%3DUnisex&amp;p%5B%5D=facets.ideal_for%255B%255D%3DWomen&amp;sid=u73%2Fh4k&amp;otracker=nmenu_sub_Women_0_Frames</t>
+  </si>
+  <si>
+    <t>Swim  and Beachwear</t>
   </si>
 </sst>
 </file>
@@ -2420,10 +2693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,721 +2709,721 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="D1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" t="s">
         <v>452</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C7" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D12" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" t="s">
         <v>463</v>
-      </c>
-      <c r="B13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D14" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C17" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D17" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B18" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C18" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B19" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B20" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B21" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D22" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D25" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D29" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B32" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D32" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B33" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D33" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B34" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B35" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D35" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B36" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D36" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B37" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D37" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B38" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C38" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="D38" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B39" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B40" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D42" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D43" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C44" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D44" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C45" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D45" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B47" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C47" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D47" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B48" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D48" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B49" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D49" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C50" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B51" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C51" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D51" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -3159,12 +3432,12 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -3173,12 +3446,12 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -3187,12 +3460,12 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -3201,12 +3474,12 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -3215,12 +3488,12 @@
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -3229,12 +3502,12 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -3243,12 +3516,12 @@
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -3257,12 +3530,12 @@
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
@@ -3271,40 +3544,40 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="D61" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B62" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D62" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -3313,12 +3586,12 @@
         <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -3327,12 +3600,12 @@
         <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -3341,12 +3614,12 @@
         <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -3355,12 +3628,12 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -3369,26 +3642,26 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B68" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="D68" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3397,12 +3670,12 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3411,68 +3684,68 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>23</v>
+        <v>692</v>
       </c>
       <c r="D71" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="D72" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D73" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B74" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>30</v>
+        <v>691</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B75" t="s">
         <v>28</v>
@@ -3481,26 +3754,26 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D76" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
@@ -3509,12 +3782,12 @@
         <v>12</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -3523,12 +3796,12 @@
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
@@ -3537,54 +3810,54 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B80" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>29</v>
+        <v>690</v>
       </c>
       <c r="D80" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>31</v>
+        <v>689</v>
       </c>
       <c r="D81" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B82" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>33</v>
+        <v>688</v>
       </c>
       <c r="D82" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B83" t="s">
         <v>36</v>
@@ -3593,12 +3866,12 @@
         <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B84" t="s">
         <v>36</v>
@@ -3607,12 +3880,12 @@
         <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B85" t="s">
         <v>43</v>
@@ -3621,833 +3894,1687 @@
         <v>44</v>
       </c>
       <c r="D85" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D86" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B87" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D87" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B88" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B89" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>687</v>
       </c>
       <c r="D89" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B90" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C90" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D90" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B91" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D91" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B92" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D92" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B93" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D93" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B94" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C94" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D94" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B95" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C95" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D95" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>552</v>
+      </c>
+      <c r="B96" t="s">
+        <v>563</v>
+      </c>
+      <c r="C96" t="s">
+        <v>233</v>
+      </c>
+      <c r="D96" t="s">
         <v>565</v>
-      </c>
-      <c r="B96" t="s">
-        <v>576</v>
-      </c>
-      <c r="C96" t="s">
-        <v>235</v>
-      </c>
-      <c r="D96" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B97" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C97" t="s">
-        <v>239</v>
+        <v>686</v>
       </c>
       <c r="D97" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B98" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C98" t="s">
-        <v>242</v>
+        <v>685</v>
       </c>
       <c r="D98" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B99" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D99" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B100" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C100" t="s">
         <v>112</v>
       </c>
       <c r="D100" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B101" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D101" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B102" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D102" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B103" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D103" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B104" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D104" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B105" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C105" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D105" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B106" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D106" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B107" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C107" t="s">
         <v>122</v>
       </c>
       <c r="D107" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B108" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C108" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D108" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B109" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D109" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B110" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C110" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="D110" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B111" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="C111" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="D111" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B112" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C112" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D112" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B113" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D113" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B114" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D114" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B115" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C115" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D115" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B116" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C116" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D116" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B117" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D117" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B118" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C118" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D118" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B119" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C119" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D119" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B120" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D120" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B121" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C121" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D121" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B122" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D122" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B123" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D123" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B124" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D124" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B125" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D125" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B126" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D126" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B127" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C127" t="s">
         <v>187</v>
       </c>
       <c r="D127" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B128" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D128" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B129" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="C129" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="D129" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B130" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="C130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D130" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B131" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="C131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D131" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B132" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="C132" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B133" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="C133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D133" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B134" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="C134" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D134" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B135" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C135" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D135" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B136" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C136" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D136" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B137" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C137" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D137" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B138" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C138" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D138" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B139" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C139" t="s">
-        <v>234</v>
+        <v>684</v>
       </c>
       <c r="D139" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B140" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C140" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B141" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C141" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D141" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B142" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="C142" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D142" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B143" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="C143" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D143" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B144" t="s">
+        <v>628</v>
+      </c>
+      <c r="C144" t="s">
+        <v>209</v>
+      </c>
+      <c r="D144" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>633</v>
+      </c>
+      <c r="B145" t="s">
+        <v>634</v>
+      </c>
+      <c r="C145" t="s">
+        <v>390</v>
+      </c>
+      <c r="D145" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>633</v>
+      </c>
+      <c r="B146" t="s">
+        <v>634</v>
+      </c>
+      <c r="C146" t="s">
+        <v>394</v>
+      </c>
+      <c r="D146" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>633</v>
+      </c>
+      <c r="B147" t="s">
+        <v>634</v>
+      </c>
+      <c r="C147" t="s">
+        <v>211</v>
+      </c>
+      <c r="D147" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>633</v>
+      </c>
+      <c r="B148" t="s">
+        <v>634</v>
+      </c>
+      <c r="C148" t="s">
+        <v>122</v>
+      </c>
+      <c r="D148" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>633</v>
+      </c>
+      <c r="B149" t="s">
+        <v>634</v>
+      </c>
+      <c r="C149" t="s">
+        <v>404</v>
+      </c>
+      <c r="D149" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>633</v>
+      </c>
+      <c r="B150" t="s">
+        <v>634</v>
+      </c>
+      <c r="C150" t="s">
+        <v>683</v>
+      </c>
+      <c r="D150" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>633</v>
+      </c>
+      <c r="B151" t="s">
+        <v>634</v>
+      </c>
+      <c r="C151" t="s">
+        <v>682</v>
+      </c>
+      <c r="D151" t="s">
         <v>641</v>
       </c>
-      <c r="C144" t="s">
-        <v>211</v>
-      </c>
-      <c r="D144" t="s">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>633</v>
+      </c>
+      <c r="B152" t="s">
+        <v>642</v>
+      </c>
+      <c r="C152" t="s">
+        <v>643</v>
+      </c>
+      <c r="D152" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>633</v>
+      </c>
+      <c r="B153" t="s">
+        <v>642</v>
+      </c>
+      <c r="C153" t="s">
         <v>644</v>
+      </c>
+      <c r="D153" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>633</v>
+      </c>
+      <c r="B154" t="s">
+        <v>642</v>
+      </c>
+      <c r="C154" t="s">
+        <v>416</v>
+      </c>
+      <c r="D154" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>633</v>
+      </c>
+      <c r="B155" t="s">
+        <v>642</v>
+      </c>
+      <c r="C155" t="s">
+        <v>712</v>
+      </c>
+      <c r="D155" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>633</v>
+      </c>
+      <c r="B156" t="s">
+        <v>642</v>
+      </c>
+      <c r="C156" t="s">
+        <v>422</v>
+      </c>
+      <c r="D156" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>633</v>
+      </c>
+      <c r="B157" t="s">
+        <v>642</v>
+      </c>
+      <c r="C157" t="s">
+        <v>711</v>
+      </c>
+      <c r="D157" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>633</v>
+      </c>
+      <c r="B158" t="s">
+        <v>736</v>
+      </c>
+      <c r="C158" t="s">
+        <v>681</v>
+      </c>
+      <c r="D158" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>633</v>
+      </c>
+      <c r="B159" t="s">
+        <v>653</v>
+      </c>
+      <c r="C159" t="s">
+        <v>653</v>
+      </c>
+      <c r="D159" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>633</v>
+      </c>
+      <c r="B160" t="s">
+        <v>652</v>
+      </c>
+      <c r="C160" t="s">
+        <v>652</v>
+      </c>
+      <c r="D160" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>633</v>
+      </c>
+      <c r="B161" t="s">
+        <v>590</v>
+      </c>
+      <c r="C161" t="s">
+        <v>590</v>
+      </c>
+      <c r="D161" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>633</v>
+      </c>
+      <c r="B162" t="s">
+        <v>596</v>
+      </c>
+      <c r="C162" t="s">
+        <v>388</v>
+      </c>
+      <c r="D162" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>633</v>
+      </c>
+      <c r="B163" t="s">
+        <v>596</v>
+      </c>
+      <c r="C163" t="s">
+        <v>680</v>
+      </c>
+      <c r="D163" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>633</v>
+      </c>
+      <c r="B164" t="s">
+        <v>596</v>
+      </c>
+      <c r="C164" t="s">
+        <v>395</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>633</v>
+      </c>
+      <c r="B165" t="s">
+        <v>596</v>
+      </c>
+      <c r="C165" t="s">
+        <v>398</v>
+      </c>
+      <c r="D165" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>633</v>
+      </c>
+      <c r="B166" t="s">
+        <v>596</v>
+      </c>
+      <c r="C166" t="s">
+        <v>401</v>
+      </c>
+      <c r="D166" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>633</v>
+      </c>
+      <c r="B167" t="s">
+        <v>596</v>
+      </c>
+      <c r="C167" t="s">
+        <v>679</v>
+      </c>
+      <c r="D167" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>633</v>
+      </c>
+      <c r="B168" t="s">
+        <v>596</v>
+      </c>
+      <c r="C168" t="s">
+        <v>407</v>
+      </c>
+      <c r="D168" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>633</v>
+      </c>
+      <c r="B169" t="s">
+        <v>596</v>
+      </c>
+      <c r="C169" t="s">
+        <v>410</v>
+      </c>
+      <c r="D169" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>633</v>
+      </c>
+      <c r="B170" t="s">
+        <v>669</v>
+      </c>
+      <c r="C170" t="s">
+        <v>678</v>
+      </c>
+      <c r="D170" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>633</v>
+      </c>
+      <c r="B171" t="s">
+        <v>669</v>
+      </c>
+      <c r="C171" t="s">
+        <v>668</v>
+      </c>
+      <c r="D171" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>633</v>
+      </c>
+      <c r="B172" t="s">
+        <v>669</v>
+      </c>
+      <c r="C172" t="s">
+        <v>417</v>
+      </c>
+      <c r="D172" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>633</v>
+      </c>
+      <c r="B173" t="s">
+        <v>669</v>
+      </c>
+      <c r="C173" t="s">
+        <v>710</v>
+      </c>
+      <c r="D173" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>633</v>
+      </c>
+      <c r="B174" t="s">
+        <v>669</v>
+      </c>
+      <c r="C174" t="s">
+        <v>423</v>
+      </c>
+      <c r="D174" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>633</v>
+      </c>
+      <c r="B175" t="s">
+        <v>669</v>
+      </c>
+      <c r="C175" t="s">
+        <v>426</v>
+      </c>
+      <c r="D175" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>633</v>
+      </c>
+      <c r="B176" t="s">
+        <v>669</v>
+      </c>
+      <c r="C176" t="s">
+        <v>677</v>
+      </c>
+      <c r="D176" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>633</v>
+      </c>
+      <c r="B177" t="s">
+        <v>696</v>
+      </c>
+      <c r="C177" t="s">
+        <v>392</v>
+      </c>
+      <c r="D177" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>633</v>
+      </c>
+      <c r="B178" t="s">
+        <v>696</v>
+      </c>
+      <c r="C178" t="s">
+        <v>396</v>
+      </c>
+      <c r="D178" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>633</v>
+      </c>
+      <c r="B179" t="s">
+        <v>696</v>
+      </c>
+      <c r="C179" t="s">
+        <v>399</v>
+      </c>
+      <c r="D179" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>633</v>
+      </c>
+      <c r="B180" t="s">
+        <v>696</v>
+      </c>
+      <c r="C180" t="s">
+        <v>191</v>
+      </c>
+      <c r="D180" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>633</v>
+      </c>
+      <c r="B181" t="s">
+        <v>696</v>
+      </c>
+      <c r="C181" t="s">
+        <v>194</v>
+      </c>
+      <c r="D181" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>633</v>
+      </c>
+      <c r="B182" t="s">
+        <v>696</v>
+      </c>
+      <c r="C182" t="s">
+        <v>214</v>
+      </c>
+      <c r="D182" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>633</v>
+      </c>
+      <c r="B183" t="s">
+        <v>696</v>
+      </c>
+      <c r="C183" t="s">
+        <v>414</v>
+      </c>
+      <c r="D183" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>633</v>
+      </c>
+      <c r="B184" t="s">
+        <v>696</v>
+      </c>
+      <c r="C184" t="s">
+        <v>695</v>
+      </c>
+      <c r="D184" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>633</v>
+      </c>
+      <c r="B185" t="s">
+        <v>614</v>
+      </c>
+      <c r="C185" t="s">
+        <v>614</v>
+      </c>
+      <c r="D185" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>633</v>
+      </c>
+      <c r="B186" t="s">
+        <v>628</v>
+      </c>
+      <c r="C186" t="s">
+        <v>427</v>
+      </c>
+      <c r="D186" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>633</v>
+      </c>
+      <c r="B187" t="s">
+        <v>628</v>
+      </c>
+      <c r="C187" t="s">
+        <v>430</v>
+      </c>
+      <c r="D187" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>633</v>
+      </c>
+      <c r="B188" t="s">
+        <v>628</v>
+      </c>
+      <c r="C188" t="s">
+        <v>432</v>
+      </c>
+      <c r="D188" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>633</v>
+      </c>
+      <c r="B189" t="s">
+        <v>713</v>
+      </c>
+      <c r="C189" t="s">
+        <v>389</v>
+      </c>
+      <c r="D189" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>633</v>
+      </c>
+      <c r="B190" t="s">
+        <v>713</v>
+      </c>
+      <c r="C190" t="s">
+        <v>393</v>
+      </c>
+      <c r="D190" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>633</v>
+      </c>
+      <c r="B191" t="s">
+        <v>713</v>
+      </c>
+      <c r="C191" t="s">
+        <v>397</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B192" t="s">
+        <v>713</v>
+      </c>
+      <c r="C192" t="s">
+        <v>714</v>
+      </c>
+      <c r="D192" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>633</v>
+      </c>
+      <c r="B193" t="s">
+        <v>713</v>
+      </c>
+      <c r="C193" t="s">
+        <v>715</v>
+      </c>
+      <c r="D193" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>633</v>
+      </c>
+      <c r="B194" t="s">
+        <v>721</v>
+      </c>
+      <c r="C194" t="s">
+        <v>408</v>
+      </c>
+      <c r="D194" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>633</v>
+      </c>
+      <c r="B195" t="s">
+        <v>721</v>
+      </c>
+      <c r="C195" t="s">
+        <v>411</v>
+      </c>
+      <c r="D195" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>633</v>
+      </c>
+      <c r="B196" t="s">
+        <v>721</v>
+      </c>
+      <c r="C196" t="s">
+        <v>415</v>
+      </c>
+      <c r="D196" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>633</v>
+      </c>
+      <c r="B197" t="s">
+        <v>721</v>
+      </c>
+      <c r="C197" t="s">
+        <v>706</v>
+      </c>
+      <c r="D197" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>633</v>
+      </c>
+      <c r="B198" t="s">
+        <v>620</v>
+      </c>
+      <c r="C198" t="s">
+        <v>418</v>
+      </c>
+      <c r="D198" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>633</v>
+      </c>
+      <c r="B199" t="s">
+        <v>620</v>
+      </c>
+      <c r="C199" t="s">
+        <v>424</v>
+      </c>
+      <c r="D199" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>633</v>
+      </c>
+      <c r="B200" t="s">
+        <v>620</v>
+      </c>
+      <c r="C200" t="s">
+        <v>428</v>
+      </c>
+      <c r="D200" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>633</v>
+      </c>
+      <c r="B201" t="s">
+        <v>620</v>
+      </c>
+      <c r="C201" t="s">
+        <v>431</v>
+      </c>
+      <c r="D201" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>633</v>
+      </c>
+      <c r="B202" t="s">
+        <v>620</v>
+      </c>
+      <c r="C202" t="s">
+        <v>727</v>
+      </c>
+      <c r="D202" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>633</v>
+      </c>
+      <c r="B203" t="s">
+        <v>620</v>
+      </c>
+      <c r="C203" t="s">
+        <v>684</v>
+      </c>
+      <c r="D203" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>633</v>
+      </c>
+      <c r="B204" t="s">
+        <v>620</v>
+      </c>
+      <c r="C204" t="s">
+        <v>228</v>
+      </c>
+      <c r="D204" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>633</v>
+      </c>
+      <c r="B205" t="s">
+        <v>620</v>
+      </c>
+      <c r="C205" t="s">
+        <v>726</v>
+      </c>
+      <c r="D205" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -4469,6 +5596,8 @@
     <hyperlink ref="D77" r:id="rId15" display="https://www.flipkart.com/audio-video/speakers/pr?sid=0pm%2C0o7&amp;p%5B%5D=facets.type%255B%255D%3DSoundbar&amp;otracker=categorytree&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;p%5B%5D=facets.fulfilled_by%255B%255D%3DFlipkart%2BAssured&amp;otracker=nmenu_sub_Electronics_0_Soundbars" xr:uid="{C8D0A45B-0A3F-47A2-875A-9D5593430E96}"/>
     <hyperlink ref="D132" r:id="rId16" xr:uid="{03DC2C35-4472-4472-86DC-BD09C4FA66C2}"/>
     <hyperlink ref="D140" r:id="rId17" xr:uid="{6F7D4B9F-7151-46F7-84AD-CC4950C56AE9}"/>
+    <hyperlink ref="D164" r:id="rId18" xr:uid="{02B2AE35-9BF7-43A3-A5C6-1BBEBDBA981C}"/>
+    <hyperlink ref="D191" r:id="rId19" xr:uid="{9417046D-5C95-431F-9EBC-CC9B8811C20A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4476,10 +5605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81912A-75C3-45A2-9717-B4E2E146308D}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4498,67 +5627,67 @@
       <c r="B1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>388</v>
+      <c r="C1" s="6" t="s">
+        <v>693</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" t="s">
         <v>393</v>
-      </c>
-      <c r="B3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D3" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" t="s">
         <v>397</v>
-      </c>
-      <c r="B4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4566,181 +5695,202 @@
         <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>409</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>645</v>
       </c>
       <c r="B11" t="s">
-        <v>421</v>
+        <v>667</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>422</v>
+        <v>694</v>
       </c>
       <c r="D11" t="s">
-        <v>451</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>644</v>
       </c>
       <c r="B12" t="s">
-        <v>424</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" t="s">
-        <v>425</v>
+        <v>668</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>428</v>
+        <v>614</v>
       </c>
       <c r="D13" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
-        <v>431</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" t="s">
-        <v>432</v>
+        <v>420</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B15" t="s">
-        <v>434</v>
-      </c>
-      <c r="C15" t="s">
-        <v>435</v>
+        <v>423</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="D15" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>437</v>
+      <c r="A16" t="s">
+        <v>425</v>
       </c>
       <c r="B16" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C16" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D16" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>441</v>
+      <c r="A17" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" t="s">
+        <v>429</v>
       </c>
       <c r="C17" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D17" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C18" t="s">
+        <v>432</v>
+      </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>727</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>444</v>
+      <c r="A19" s="3" t="s">
+        <v>652</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5103,262 +6253,262 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" t="s">
         <v>313</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>314</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>315</v>
-      </c>
-      <c r="D1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
         <v>318</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>319</v>
       </c>
-      <c r="C2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" t="s">
-        <v>321</v>
-      </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" t="s">
         <v>322</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>323</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>324</v>
-      </c>
-      <c r="D3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
         <v>327</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>328</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>329</v>
-      </c>
-      <c r="D4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" t="s">
         <v>332</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>333</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>334</v>
-      </c>
-      <c r="D5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" t="s">
         <v>337</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>338</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>339</v>
-      </c>
-      <c r="D6" t="s">
-        <v>340</v>
-      </c>
-      <c r="E6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" t="s">
         <v>342</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>343</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>344</v>
-      </c>
-      <c r="D7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" t="s">
         <v>347</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>348</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>349</v>
-      </c>
-      <c r="D8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" t="s">
         <v>352</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>353</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>354</v>
-      </c>
-      <c r="D9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E9" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" t="s">
         <v>357</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>358</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>359</v>
-      </c>
-      <c r="D10" t="s">
-        <v>360</v>
-      </c>
-      <c r="E10" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" t="s">
         <v>362</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>363</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>364</v>
-      </c>
-      <c r="D11" t="s">
-        <v>365</v>
-      </c>
-      <c r="E11" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" t="s">
         <v>367</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>368</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>369</v>
-      </c>
-      <c r="D12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E12" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" t="s">
         <v>372</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>373</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>374</v>
-      </c>
-      <c r="D13" t="s">
-        <v>375</v>
-      </c>
-      <c r="E13" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" t="s">
         <v>377</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>378</v>
-      </c>
-      <c r="C14" t="s">
-        <v>379</v>
-      </c>
-      <c r="D14" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" t="s">
         <v>381</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>382</v>
-      </c>
-      <c r="C15" t="s">
-        <v>383</v>
-      </c>
-      <c r="D15" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D16" t="s">
         <v>385</v>
-      </c>
-      <c r="B16" t="s">
-        <v>386</v>
-      </c>
-      <c r="D16" t="s">
-        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5518,7 +6668,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C9" t="s">
         <v>82</v>
@@ -5527,7 +6677,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5546,10 +6696,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -5559,10 +6709,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C13" t="s">
         <v>89</v>
@@ -5621,7 +6771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513D4507-76C5-4582-B796-61D1EB23A09F}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -5636,255 +6786,255 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" t="s">
         <v>250</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>251</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="D2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
         <v>255</v>
       </c>
-      <c r="B3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" t="s">
         <v>258</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>259</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="D4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" t="s">
         <v>267</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>268</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>269</v>
-      </c>
-      <c r="D6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E6" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" t="s">
         <v>272</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>274</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="D8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" t="s">
         <v>284</v>
-      </c>
-      <c r="D9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E9" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" t="s">
         <v>288</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" t="s">
         <v>291</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D11" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" t="s">
         <v>294</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>295</v>
-      </c>
-      <c r="C12" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" t="s">
         <v>298</v>
       </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13" t="s">
-        <v>300</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" t="s">
         <v>301</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>302</v>
-      </c>
-      <c r="C14" t="s">
-        <v>303</v>
-      </c>
-      <c r="D14" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" t="s">
         <v>305</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>306</v>
-      </c>
-      <c r="C15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D15" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -6018,7 +7168,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>26</v>
@@ -6028,7 +7178,7 @@
     <row r="11" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
@@ -6047,7 +7197,7 @@
     </row>
     <row r="13" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" s="1" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>30</v>
@@ -6059,7 +7209,7 @@
     </row>
     <row r="14" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="1" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>32</v>
@@ -6155,24 +7305,24 @@
         <v>190</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C2" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>193</v>
-      </c>
-      <c r="D2" t="s">
-        <v>194</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>34</v>
@@ -6180,213 +7330,213 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
       </c>
       <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
         <v>196</v>
       </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
         <v>199</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>200</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>201</v>
-      </c>
-      <c r="D4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
         <v>204</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>205</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>206</v>
-      </c>
-      <c r="D5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" t="s">
         <v>209</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
         <v>212</v>
       </c>
-      <c r="B7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" t="s">
-        <v>214</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
         <v>216</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>217</v>
-      </c>
-      <c r="C8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
         <v>220</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>221</v>
-      </c>
-      <c r="C9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
         <v>224</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>225</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s">
         <v>231</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>232</v>
-      </c>
-      <c r="C12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>236</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" t="s">
         <v>239</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="C14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -6396,12 +7546,12 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/flipkart_categories.xlsx
+++ b/flipkart_categories.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Desktop\setubhandhan\product price prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC5E41-33CE-4E04-9595-490200813187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578940E2-EC8E-4D90-AED1-AF3EFA5D3CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2676" yWindow="2676" windowWidth="10128" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="url" sheetId="1" r:id="rId1"/>
-    <sheet name="Women" sheetId="5" r:id="rId2"/>
-    <sheet name="Baby and Kids" sheetId="6" r:id="rId3"/>
-    <sheet name="Home and Furniture" sheetId="7" r:id="rId4"/>
-    <sheet name="TVs and Appliances" sheetId="3" r:id="rId5"/>
-    <sheet name="Sports, Books and More" sheetId="8" r:id="rId6"/>
-    <sheet name="electronics" sheetId="2" r:id="rId7"/>
-    <sheet name="Men" sheetId="4" r:id="rId8"/>
+    <sheet name="Home and Furniture" sheetId="7" r:id="rId2"/>
+    <sheet name="TVs and Appliances" sheetId="3" r:id="rId3"/>
+    <sheet name="Sports, Books and More" sheetId="8" r:id="rId4"/>
+    <sheet name="electronics" sheetId="2" r:id="rId5"/>
+    <sheet name="Men" sheetId="4" r:id="rId6"/>
+    <sheet name="Baby and Kids" sheetId="6" r:id="rId7"/>
+    <sheet name="Women" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="860">
   <si>
     <t>Mobile Accessories</t>
   </si>
@@ -340,36 +340,18 @@
     <t xml:space="preserve">60&amp;above </t>
   </si>
   <si>
-    <t>Kids Clothing â–¶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kids 'Footwear </t>
-  </si>
-  <si>
     <t xml:space="preserve">Toys </t>
   </si>
   <si>
     <t xml:space="preserve">Baby Care </t>
   </si>
   <si>
-    <t xml:space="preserve">Featured brands </t>
-  </si>
-  <si>
-    <t>Boys 'Clothing â–º</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boys 'Footwear </t>
-  </si>
-  <si>
     <t xml:space="preserve">Remote Control Toys </t>
   </si>
   <si>
     <t xml:space="preserve">Diapers </t>
   </si>
   <si>
-    <t xml:space="preserve">Miss &amp;Chief </t>
-  </si>
-  <si>
     <t xml:space="preserve">T -Shirts </t>
   </si>
   <si>
@@ -382,9 +364,6 @@
     <t xml:space="preserve">Wipes </t>
   </si>
   <si>
-    <t xml:space="preserve">Barbie </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ethnic Wear </t>
   </si>
   <si>
@@ -397,39 +376,24 @@
     <t xml:space="preserve">Diapering &amp;Potty Training </t>
   </si>
   <si>
-    <t xml:space="preserve">Disney </t>
-  </si>
-  <si>
     <t xml:space="preserve">Shorts </t>
   </si>
   <si>
-    <t xml:space="preserve">Girls 'Footwear </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cars &amp;Die -cast Vehicles </t>
   </si>
   <si>
     <t xml:space="preserve">Baby Bath ,Hair &amp;Skin Care </t>
   </si>
   <si>
-    <t xml:space="preserve">United Colors of Benetton </t>
-  </si>
-  <si>
     <t xml:space="preserve">Shirts </t>
   </si>
   <si>
-    <t xml:space="preserve">Flats &amp;Bellies </t>
-  </si>
-  <si>
     <t xml:space="preserve">Outdoor Toys </t>
   </si>
   <si>
     <t xml:space="preserve">Baby Grooming </t>
   </si>
   <si>
-    <t xml:space="preserve">The Children's Place </t>
-  </si>
-  <si>
     <t xml:space="preserve">Innerwear </t>
   </si>
   <si>
@@ -439,12 +403,6 @@
     <t xml:space="preserve">Baby Bathing Accessories </t>
   </si>
   <si>
-    <t xml:space="preserve">US Polo </t>
-  </si>
-  <si>
-    <t>Girls 'Clothing â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Infant Footwear </t>
   </si>
   <si>
@@ -454,21 +412,12 @@
     <t xml:space="preserve">Baby Gift Sets &amp;Combo </t>
   </si>
   <si>
-    <t xml:space="preserve">Flying Machine </t>
-  </si>
-  <si>
     <t xml:space="preserve">Musical Toys </t>
   </si>
   <si>
     <t xml:space="preserve">Baby Oral Care </t>
   </si>
   <si>
-    <t xml:space="preserve">Crocs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dresses &amp;Skirts </t>
-  </si>
-  <si>
     <t xml:space="preserve">Character Shoes </t>
   </si>
   <si>
@@ -478,12 +427,6 @@
     <t xml:space="preserve">Nursing &amp;Breast Feeding </t>
   </si>
   <si>
-    <t xml:space="preserve">Puma </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T -shirts &amp;Tops </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kids 'Watches </t>
   </si>
   <si>
@@ -493,9 +436,6 @@
     <t xml:space="preserve">Baby Food </t>
   </si>
   <si>
-    <t xml:space="preserve">Funskool </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kids 'Sunglasses </t>
   </si>
   <si>
@@ -505,51 +445,24 @@
     <t xml:space="preserve">Baby Feeding Bottle &amp;Accessories </t>
   </si>
   <si>
-    <t xml:space="preserve">Lego </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kids 'Winter Wear </t>
   </si>
   <si>
     <t xml:space="preserve">Helicopter &amp;Drones </t>
   </si>
   <si>
-    <t>Baby Feeding Utensils &amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luvlap </t>
-  </si>
-  <si>
-    <t>Baby Boys 'Clothing â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boys 'Winter Wear </t>
   </si>
   <si>
     <t xml:space="preserve">Toy Guns </t>
   </si>
   <si>
-    <t xml:space="preserve">Accessories </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mamy Poko </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combos Sets T -Shirts </t>
-  </si>
-  <si>
     <t xml:space="preserve">Boys 'Sweatshirts </t>
   </si>
   <si>
     <t xml:space="preserve">Party Supplies </t>
   </si>
   <si>
-    <t xml:space="preserve">Baby Bedding Baby Gear </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mee Mee </t>
-  </si>
-  <si>
     <t xml:space="preserve">Boys 'Jacket </t>
   </si>
   <si>
@@ -559,9 +472,6 @@
     <t xml:space="preserve">Baby Medical &amp;Health Care </t>
   </si>
   <si>
-    <t xml:space="preserve">Baby Girls 'Clothing </t>
-  </si>
-  <si>
     <t xml:space="preserve">Girls 'Winter Wear </t>
   </si>
   <si>
@@ -583,9 +493,6 @@
     <t xml:space="preserve">Baby Cleaners &amp;Detergents </t>
   </si>
   <si>
-    <t xml:space="preserve">Dresses &amp;Gowns </t>
-  </si>
-  <si>
     <t xml:space="preserve">Girls 'Jackets </t>
   </si>
   <si>
@@ -673,9 +580,6 @@
     <t xml:space="preserve">Kurta </t>
   </si>
   <si>
-    <t xml:space="preserve">Featured </t>
-  </si>
-  <si>
     <t xml:space="preserve">Boots </t>
   </si>
   <si>
@@ -967,27 +871,15 @@
     <t xml:space="preserve">Key Chains </t>
   </si>
   <si>
-    <t>Kitchen ,Cookware &amp;Serveware â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Furniture Top Offers </t>
   </si>
   <si>
     <t xml:space="preserve">Furnishing </t>
   </si>
   <si>
-    <t>Home Decor &gt;</t>
-  </si>
-  <si>
-    <t>Durability Certified Furniture â–¸</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pans </t>
   </si>
   <si>
-    <t>Bed Room Furniture &gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bedsheets </t>
   </si>
   <si>
@@ -1006,9 +898,6 @@
     <t xml:space="preserve">Clocks </t>
   </si>
   <si>
-    <t>Christmas Store â–¸</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pressure Cookers </t>
   </si>
   <si>
@@ -1021,9 +910,6 @@
     <t xml:space="preserve">Wall Shelves </t>
   </si>
   <si>
-    <t xml:space="preserve">Mugs Store </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kitchen tools </t>
   </si>
   <si>
@@ -1036,72 +922,30 @@
     <t xml:space="preserve">Stickers </t>
   </si>
   <si>
-    <t>Gardening Store â–¸</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gas Stoves </t>
   </si>
   <si>
-    <t>Living Room Furniture &gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bath Towels </t>
   </si>
   <si>
-    <t xml:space="preserve">Showpieces &amp;Figurines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stainless Steel Store </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tableware &amp;Dinnerware â–ºCoffee Mugs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofa Sofa Beds </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitchen &amp;Table Linen Floor Coverings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Lighting â–ºBulbs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milton Bombay Dyeing </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dinner Set </t>
   </si>
   <si>
     <t xml:space="preserve">TV Units </t>
   </si>
   <si>
-    <t>Smart Home Automation â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wall Lamp </t>
   </si>
   <si>
-    <t>@home</t>
-  </si>
-  <si>
     <t xml:space="preserve">Barware </t>
   </si>
   <si>
-    <t xml:space="preserve">Dining Tables &amp;Chairs </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smart Security System </t>
   </si>
   <si>
     <t xml:space="preserve">Table Lamp </t>
   </si>
   <si>
-    <t xml:space="preserve">Home Town </t>
-  </si>
-  <si>
-    <t>Kitchen Storage â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coffee Tables </t>
   </si>
   <si>
@@ -1111,9 +955,6 @@
     <t xml:space="preserve">Ceiling Lamp </t>
   </si>
   <si>
-    <t xml:space="preserve">Ajanta </t>
-  </si>
-  <si>
     <t xml:space="preserve">Water Bottles </t>
   </si>
   <si>
@@ -1126,48 +967,21 @@
     <t xml:space="preserve">Emergency Lights </t>
   </si>
   <si>
-    <t xml:space="preserve">Spaces by Welspun </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lunch Boxes </t>
   </si>
   <si>
-    <t>Office &amp;Study Furniture â–¸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools &amp;Measuring Equipments </t>
-  </si>
-  <si>
-    <t>Festive Decor &amp;Gifts â–º</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestige </t>
-  </si>
-  <si>
     <t xml:space="preserve">Flasks </t>
   </si>
   <si>
     <t xml:space="preserve">Kids Room Furniture </t>
   </si>
   <si>
-    <t xml:space="preserve">Home Utilities &amp;Organizers </t>
-  </si>
-  <si>
-    <t>Pet Supplies â–º</t>
-  </si>
-  <si>
-    <t>Perfect Home Store â–¸</t>
-  </si>
-  <si>
     <t xml:space="preserve">Casseroles </t>
   </si>
   <si>
     <t xml:space="preserve">DIY Furniture </t>
   </si>
   <si>
-    <t xml:space="preserve">Lawn &amp;Gardening </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dogs </t>
   </si>
   <si>
@@ -1177,21 +991,12 @@
     <t xml:space="preserve">Bean Bags </t>
   </si>
   <si>
-    <t xml:space="preserve">Bathroom &amp;Kitchen Fittings </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cats </t>
   </si>
   <si>
-    <t>Cleaning Supplies â–º</t>
-  </si>
-  <si>
     <t xml:space="preserve">Collapsible Wardrobes </t>
   </si>
   <si>
-    <t xml:space="preserve">Fish &amp;Aquatics </t>
-  </si>
-  <si>
     <t xml:space="preserve">Beauty &amp;Grooming </t>
   </si>
   <si>
@@ -1343,29 +1148,6 @@
   </si>
   <si>
     <t xml:space="preserve"> LG </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Refrigerators</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Single Door </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Water Geysers </t>
@@ -2277,12 +2059,599 @@
   <si>
     <t>Swim  and Beachwear</t>
   </si>
+  <si>
+    <t>Kids Clothing</t>
+  </si>
+  <si>
+    <t>Girl's Clothing</t>
+  </si>
+  <si>
+    <t>Boy's Clothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dresses and Skirts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T -shirts and Tops </t>
+  </si>
+  <si>
+    <t>Baby Boy's Clothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Girl's Clothing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dresses and Gowns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids Footwear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boys Footwear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girls Footwear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flats and Bellies </t>
+  </si>
+  <si>
+    <t>Bady and Kids</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/pr?sid=clo&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BBoys&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BGirls&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Kids%20Clothing</t>
+  </si>
+  <si>
+    <t>Boys Clothing</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/topwear/tshirt/pr?sid=clo,ash,ank&amp;p[]=facets.ideal_for%255B%255D%3DBoys&amp;p[]=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BBoys&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_T-Shirts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/pr?sid=clo%2Ccfv&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Ethnic%20Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/bottomwear/shorts/pr?sid=clo%2Cvua%2Ce8g&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Shorts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/topwear/shirts/kids-shirts/pr?sid=clo%2Cash%2Caxc%2Cznf&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Shirts&amp;p[]=facets.ideal_for%255B%255D%3DBoys</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/innerwear/pr?sid=clo%2Cqfl&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Innerwear</t>
+  </si>
+  <si>
+    <t>Girls Clothing</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/dresses-and-gown/dress/kids-dress/pr?sid=clo%2Codx%2Cmaj%2Czc1&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Dresses%20%26%20Skirts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/kurtas-ethnic-sets-and-bottoms/pr?sid=clo%2Ccfv&amp;p[]=facets.ideal_for%255B%255D%3DGirls&amp;p[]=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BGirls&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Ethnic%20Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/topwear/pr?sid=clo,ash&amp;p[]=facets.ideal_for%255B%255D%3DGirls&amp;p[]=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BGirls&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_T-shirts%20%26%20Tops</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/innerwear/pr?sid=clo%2Cqfl&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DGirls&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Innerwear</t>
+  </si>
+  <si>
+    <t>Baby Boy Clothing</t>
+  </si>
+  <si>
+    <t>Combo Sets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/topwear/pr?sid=clo%2Cash&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BBoys&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BGirls&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_T-Shirts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/innerwear-and-swimwear/pr?sid=clo%2Cqfl&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Innerwear&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BBoys&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/kids-combos-and-costumes/kids-apparel-combos/pr?sid=clo%2Ceof%2C1bp&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Combos%20Sets&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BBoys&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls</t>
+  </si>
+  <si>
+    <t>Baby Girl Clothing</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/kids-clothing-sets/kids-appareal-combo/pr?sid=clo%2Ceof%2C1bp&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BGirls&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Combos%20Sets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/dresses-and-gowns/dresses/kids-dresses/pr?sid=clo%2Codx%2Cmaj%2Czc1&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Dresses%20%26%20Gowns</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/innerwear-and-swimwear/pr?sid=clo%2Cqfl&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Innerwear&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BGirls</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/footwear/kids-infant-footwear/pr?sid=osp,mba&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Kids%20Footwear&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Kids%27%20Footwear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/footwear/kids-infant-footwear/boys-footwear/sandals/pr?sid=osp,mba,o3t,wqv&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Sandals</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/footwear/kids-infant-footwear/boys-footwear/sports-shoes/pr?sid=osp,mba,o3t,aua&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Sport%20Shoes</t>
+  </si>
+  <si>
+    <t>Girls Footwear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/footwear/kids-infant-footwear/girls-footwear/flats-bellies/pr?sid=osp,mba,erx,6yc&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Flats%20%26%20Bellies</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/footwear/kids-infant-footwear/girls-footwear/sports-shoes/pr?sid=osp%2Cmba%2Cerx%2C9oc&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Sport%20Shoe&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Sport%20Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids Watches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids Sunglasses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids Winter Wear </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/watches/pr?sid=r18&amp;p%5B%5D=facets.ideal_for%255B%255D%3DGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Kids%27%20Watches&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Kids%27%20Watches</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/sunglasses/pr?sid=26x&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p%5B%5D=facets.serviceability%5B%5D%3Dtrue&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Kids%27%20Sunglasses&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Kids%27%20Sunglasses</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/pr?sid=clo%2Cqvw&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBaby%2BBoys&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Kids%27%20Winter%20Wear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boys Sweatshirts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boys Jacket </t>
+  </si>
+  <si>
+    <t>Boys Winter Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/sweatshirts/kids-sweatshirts/pr?sid=clo%2Cqvw%2C64a%2Clwy&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Boys%27%20Sweatshirts&amp;p[]=facets.ideal_for%255B%255D%3DBoys&amp;p[]=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/jackets/kids-jackets/pr?sid=clo,qvw,z0g,0vw&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Boys%27%20Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girls Sweatshirts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girls Jackets </t>
+  </si>
+  <si>
+    <t>Girls Winter Wear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/sweatshirt/kids-sweatshirt/pr?sid=clo%2Cqvw%2C64a%2Clwy&amp;otracker=categorytree&amp;p%5B%5D=facets.ideal_for%255B%255D%3DBoys%2B%2526%2BGirls&amp;p%5B%5D=facets.ideal_for%255B%255D%3DGirls&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Girls%27%20Sweatshirts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/clothing-and-accessories/winter-wear/jackets/kids-jackets/pr?sid=clo,qvw,z0g,0vw&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Girls%27%20Jackets</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/toy-vehicles/remote-control-toys/pr?sid=tng%2C56a%2Cfq8&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Remote%20Control%20Toys</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/learning-and-educational-toys/pr?sid=tng%2Cll1&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Educational%20Toys</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/soft-toys/pr?sid=tng%2Cclb&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Soft%20Toys</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/outdoor-toys/pr?sid=tng%2Clhf&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Outdoor%20Toys</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/action-toys/action-figures/pr?sid=tng%2Csv3%2Czum&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Action%20Figures</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/indoor-games/board-games/pr?sid=tng%2Cgfv%2Cisv&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Board%20Games</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/musical-toys/pr?p[]=sort%3Dfeatured&amp;sid=tng%2Cdcr&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Musical%20Toys</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/dolls-doll-houses/pr?sid=tng%2Ckks&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Dolls%20%26%20Doll%20Houses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolls and Doll Houses </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/puzzles-and-cubes/pr?sid=tng%2Ckk6&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Puzzles</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/stem-store?otracker=nmenu_sub_Baby%20%26%20Kids_0_S.T.E.M%20Toys</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/toy-vehicles/remote-control-toys/pr?sid=tng%2C56a%2Cfq8&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Helicopter%20%26%20Drones&amp;p[]=facets.type%255B%255D%3DPlanes%2B%2526%2BHelicopters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helicopter and Drones </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/action-toys/battle-toys/pr?sid=tng%2Csv3%2Cp36&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Toy%20Guns</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/toys/party-supplies/pr?sid=mgl,ksc&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Party%20Supplies</t>
+  </si>
+  <si>
+    <t>School Supplies</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kids-accessories/school-supplies/school-bags/pr?sid=d69,thr,wsp&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_School%20Bags</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kids-accessories/school-supplies/school-sets/pr?sid=d69%2Cthr%2Cscm&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_School%20Combo%20Sets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kids-accessories/school-supplies/lunch-boxes/pr?sid=d69%2Cthr%2Cvzp&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Lunch%20Box</t>
+  </si>
+  <si>
+    <t>Baby Bedding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Gear </t>
+  </si>
+  <si>
+    <t>Baby Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Bath ,Hair and Skin Care </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Gift Sets and Combo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nursing and Breast Feeding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Feeding Bottle and Accessories </t>
+  </si>
+  <si>
+    <t>Baby Feeding Utensils and Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Feeding Utensils &amp;Accessories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Medical and Health Care </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Proofing and Safety </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Cleaners and Detergents </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/diaper-potty-training/baby-diapers/pr?sid=kyh,fdp,yvf&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Diapers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/diaper-potty-training/baby-wipes/pr?sid=kyh,fdp,kvq&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Wipes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-bath-hair-skin-care/pr?sid=kyh,pl5&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Bath%2C%20Hair%20%26%20Skin%20Care</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-grooming/pr?sid=kyh,tyn&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Grooming</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-bathing-accessories/pr?sid=kyh,rdc&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Bathing%20Accessories</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-gift-sets-combo/pr?sid=kyh,utp&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Gift%20Sets%20%26%20Combo</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-oral-care/pr?sid=kyh,ga0&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Oral%20Care</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/nursing-breast-feeding/pr?sid=kyh,ie7&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Nursing%20%26%20Breast%20Feeding</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-food/pr?sid=kyh,arw&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Food</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-feeding-bottle-accessories/pr?sid=kyh,9gj&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Feeding%20Bottle%20%26%20Accessories</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-feeding-utensils-accessories/pr?sid=kyh,dki&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Feeding%20Utensils%20%26%20Accessories</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-bedding/pr?sid=kyh,7j3&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Bedding</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-gear/pr?sid=kyh%2C5mt&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Gear</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-medical-health-care/pr?sid=kyh,g83&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Medical%20%26%20Health%20Care</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-proofing-safety/pr?sid=kyh,vxo&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Proofing%20%26%20Safety</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/baby-care/baby-cleaners-detergents/pr?sid=kyh,akv&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Baby%20%26%20Kids_0_Baby%20Cleaners%20%26%20Detergents</t>
+  </si>
+  <si>
+    <t>Tableware and Dinnerware</t>
+  </si>
+  <si>
+    <t>Coffee Mugs</t>
+  </si>
+  <si>
+    <t>Kitchen ,Cookware and Serveware</t>
+  </si>
+  <si>
+    <t>Kitchen Storage</t>
+  </si>
+  <si>
+    <t>Cleaning Supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofa </t>
+  </si>
+  <si>
+    <t>Sofa Beds</t>
+  </si>
+  <si>
+    <t>Bed Room Furniture</t>
+  </si>
+  <si>
+    <t>Living Room Furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dining Tables and Chairs </t>
+  </si>
+  <si>
+    <t>Office and Study Furniture</t>
+  </si>
+  <si>
+    <t>Floor Coverings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitchen and Table Linen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools and Measuring Equipments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Utilities and Organizers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawn and Gardening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bathroom and Kitchen Fittings </t>
+  </si>
+  <si>
+    <t>Home Décor</t>
+  </si>
+  <si>
+    <t>Home Decor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showpieces and Figurines </t>
+  </si>
+  <si>
+    <t>Bulbs</t>
+  </si>
+  <si>
+    <t>Home Lighting</t>
+  </si>
+  <si>
+    <t>Festive Decor and Gifts</t>
+  </si>
+  <si>
+    <t>Pet Supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish and Aquatics </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Refrigerators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Single Door </t>
+    </r>
+  </si>
+  <si>
+    <t>Did not included</t>
+  </si>
+  <si>
+    <t>Home and Furniture</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/cookware/pans/pr?sid=upp%2Ctnx%2C9fq&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Pans</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/cookware/tawas/pr?sid=upp%2Ctnx%2Cj12&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Tawas</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/cookware/pressure-cookers/pr?sid=upp%2Ctnx%2Cgsl&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Pressure%20Cookers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/kitchen-tools/pr?sid=upp%2Cldf&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Kitchen%20tools</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/gas-stove-accessories/gas-stoves/pr?sid=upp%2Cd7m%2Cuhm&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Gas%20Stoves</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/tableware-dinnerware/mugs/pr?sid=upp%2Ci7t%2Cmsi&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Coffee%20Mugs</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/tableware-dinnerware/dinner-sets/pr?sid=upp%2Ci7t%2Clha&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Dinner%20Set</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/barware/pr?sid=upp%2Cta2&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Barware</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/lunch-boxes-bottles-and-flasks/water-bottles/pr?sid=upp%2Cf2k%2C0zz&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Water%20Bottles</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/lunch-boxes-bottles-and-flasks/lunch-boxes/pr?sid=upp%2Cf2k%2Cu70&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Lunch%20Boxes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/lunch-boxes-bottles-and-flasks/flasks/pr?sid=upp%2Cf2k%2C7k9&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Flasks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/tableware-dinnerware/casseroles/pr?sid=upp%2Ci7t%2Cgka&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Casseroles</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/kitchen-cookware-serveware/kitchen-storage-containers/kitchen-containers/pr?sid=upp%2C5ix%2C01e&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Kitchen%20Containers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-cleaning-bathroom-accessories/cleaning-supplies/pr?sid=rja%2Cz2d&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Cleaning%20Supplies</t>
+  </si>
+  <si>
+    <t>DIY Furniture</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/beds/pr?sid=wwe,7p7&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Beds</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/furniture/mattresses/pr?sid=wwe,rg9&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Mattresses</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/furniture/wardrobes-more/pr?sid=wwe%2Cfc3&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Wardrobes</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/furniture/sofas/pr?sid=wwe,c3z&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Sofa</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/furniture/sofa-beds-more/pr?sid=wwe%2Cosg&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Sofa%20Beds</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/furniture/tv-units-cabinets/pr?sid=wwe,243&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_TV%20Units</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/furniture/dining-tables-sets/pr?sid=wwe,ur9&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Dining%20Tables%20%26%20Chairs</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/furniture/tables/coffee-tables/pr?sid=wwe,ki7,ot1&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Coffee%20Tables</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/furniture/shoe-racks-more/pr?sid=wwe%2C0ye&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Shoe%20Racks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/furniture/~kids-furniture/pr?sid=wwe&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Kids%20Room%20Furniture</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/furniture/bean-bags/pr?sid=wwe,4n6&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Bean%20Bags</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/furniture/wardrobes/collapsible-wardrobes/pr?sid=wwe,fc3,xlp&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Collapsible%20Wardrobes</t>
+  </si>
+  <si>
+    <t>Furnishing</t>
+  </si>
+  <si>
+    <t>Home Improvement</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-furnishing/bed-linen-blankets/bedsheets/pr?sid=jra,knw,qcw&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Bedsheets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-furnishing/curtains-accessories/curtains/pr?sid=jra,sl5,2va&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Curtains</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-furnishing/cushions-pillows/pr?sid=jra,kzv&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Cushions%20%26%20Pillows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cushions and Pillows </t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-furnishing/bed-linen-blankets/blankets/pr?sid=jra,knw,llw&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Blankets</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-furnishing/bath-linen/bath-towels/pr?sid=jra,jk3,wtg&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Bath%20Towels</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-furnishing/kitchen-table-linen/pr?sid=jra,iwp&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Kitchen%20%26%20Table%20Linen</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-furnishing/floor-coverings/pr?sid=jra,kwq&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Floor%20Coverings</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/automation-robotics/surveillance-devices/security-cameras/pr?otracker=categorytree&amp;p%5B%5D=facets.brand%255B%255D%3DCELESTECH&amp;p%5B%5D=facets.brand%255B%255D%3DCP%2BPlus&amp;p%5B%5D=facets.brand%255B%255D%3DCP-PLUS&amp;p%5B%5D=facets.brand%255B%255D%3DCP-Plus&amp;p%5B%5D=facets.brand%255B%255D%3DCp%2BPlus&amp;p%5B%5D=facets.brand%255B%255D%3DCpplus&amp;p%5B%5D=facets.brand%255B%255D%3DCrocon&amp;p%5B%5D=facets.brand%255B%255D%3DFocus&amp;p%5B%5D=facets.brand%255B%255D%3DGodrej&amp;p%5B%5D=facets.brand%255B%255D%3DHIK%2BVISION&amp;p%5B%5D=facets.brand%255B%255D%3DHIKVISION&amp;p%5B%5D=facets.brand%255B%255D%3DHik%2BVision&amp;p%5B%5D=facets.brand%255B%255D%3DHik%2Bvision&amp;p%5B%5D=facets.brand%255B%255D%3DHikvision&amp;p%5B%5D=facets.brand%255B%255D%3DHoneywell&amp;p%5B%5D=facets.brand%255B%255D%3DSAMSUNG&amp;p%5B%5D=facets.brand%255B%255D%3Dcp%2Bplus&amp;p%5B%5D=facets.brand%255B%255D%3Dhoneywell&amp;sid=igc%2Fj69%2Fagd&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Smart%20Security%20System</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/automation-robotics/smart-door-locks/pr?sid=igc,u0f&amp;p%5B%5D=facets.filter_standard%255B%255D%3D1&amp;facets.availability[]=Exclude+Out+of+Stock&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Smart%20Door%20Locks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-improvement/tools-and-measuring-equipment/pr?sid=h1m%2Chww&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Tools%20%26%20Measuring%20Equipments</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-improvement/home-utilities-and-organizers/pr?sid=h1m,iee&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Home%20Utilities%20%26%20Organizers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/building-materials-and-supplies/bathroom-and-kitchen-fittings/pr?sid=b8s%2Cecr&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Bathroom%20%26%20Kitchen%20Fittings</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-improvement/lawn-and-gardening/pr?sid=h1m,um7&amp;otracker=categorytree</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-decor/paintings-posters/paintings/pr?sid=arb,bga,mmf&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Paintings</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-decor/clocks/pr?sid=arb,kjw&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Clocks</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-decor/wall-decor-items/wall-shelves/pr?sid=arb,a77,vk7&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Wall%20Shelves</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-decor/stickers-wallpapers/stickers/pr?sid=arb,yod,si0&amp;p[]=facets.serviceability%5B%5D%3Dtrue&amp;otracker=categorytree&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Stickers</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-decor/showpieces-decor-accents/showpieces-figurines/pr?sid=arb,uj2,z1t&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Showpieces%20%26%20Figurines</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-lighting/utility-lighting/bulbs/pr?sid=jhg%2Cyqn%2Cfeb&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Bulbs</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-lighting/decor-lighting-accessories/wall-lamps/pr?sid=jhg,6w8,mbd&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Wall%20Lamp</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-lighting/decor-lighting-accessories/table-lamps/pr?sid=jhg,6w8,gde&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Table%20Lamp</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-lighting/decor-lighting-accessories/ceiling-lamps/pr?sid=jhg,6w8,rws&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Ceiling%20Lamp</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/home-lighting/utility-lighting/emergency-lights/pr?sid=jhg%2Cyqn%2Cm6m&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Emergency%20Lights</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/festive-decor-gifting/pr?sid=bro&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Festive%20Decor%20%26%20Gifts</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/pet-supplies/dogs/pr?sid=p3t,ea3&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Dogs</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/pet-supplies/cats/pr?sid=p3t,0mo&amp;otracker=categorytree</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/pet-supplies/fish-aquatic/pr?sid=p3t,ljf&amp;marketplace=FLIPKART&amp;otracker=nmenu_sub_Home%20%26%20Furniture_0_Fish%20%26%20Aquatics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2340,6 +2709,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2394,7 +2769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2412,6 +2787,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2693,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="C299" workbookViewId="0">
+      <selection activeCell="D319" sqref="D319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2709,721 +3086,721 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s">
-        <v>449</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>453</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
-        <v>457</v>
+        <v>391</v>
       </c>
       <c r="D7" t="s">
-        <v>456</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>458</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D12" t="s">
-        <v>462</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
-        <v>463</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C14" t="s">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="D14" t="s">
-        <v>464</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="D16" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B17" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="C17" t="s">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="D17" t="s">
-        <v>468</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B18" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="C18" t="s">
-        <v>473</v>
+        <v>407</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B19" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>470</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B20" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="C20" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>471</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B21" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>472</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B22" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D22" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B23" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="C23" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>475</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B24" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B25" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="D25" t="s">
-        <v>477</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D27" t="s">
-        <v>479</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C28" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>480</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>481</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>482</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C31" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="D31" t="s">
-        <v>483</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B32" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C32" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>484</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B33" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D33" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B34" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D34" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B35" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C35" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="D35" t="s">
-        <v>487</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B36" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C36" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D36" t="s">
-        <v>489</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B37" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C37" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="D37" t="s">
-        <v>488</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="C38" t="s">
-        <v>490</v>
+        <v>424</v>
       </c>
       <c r="D38" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B39" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="D39" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C42" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="D42" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="D43" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="D44" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="D45" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C46" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D46" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D47" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B50" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="C50" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>507</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="C51" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="D51" t="s">
-        <v>508</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -3432,12 +3809,12 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -3446,12 +3823,12 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -3460,12 +3837,12 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -3474,12 +3851,12 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -3488,12 +3865,12 @@
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -3502,12 +3879,12 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -3516,12 +3893,12 @@
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -3530,12 +3907,12 @@
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
@@ -3544,40 +3921,40 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="D61" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B62" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="D62" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -3586,12 +3963,12 @@
         <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -3600,12 +3977,12 @@
         <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -3614,12 +3991,12 @@
         <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -3628,12 +4005,12 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -3642,26 +4019,26 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B68" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="D68" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3670,12 +4047,12 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>533</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3684,68 +4061,68 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>692</v>
+        <v>626</v>
       </c>
       <c r="D71" t="s">
-        <v>535</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="D72" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="D73" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B74" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B75" t="s">
         <v>28</v>
@@ -3754,26 +4131,26 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>539</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="D76" t="s">
-        <v>541</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
@@ -3782,12 +4159,12 @@
         <v>12</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -3796,12 +4173,12 @@
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
@@ -3810,54 +4187,54 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B80" t="s">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>690</v>
+        <v>624</v>
       </c>
       <c r="D80" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B81" t="s">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>689</v>
+        <v>623</v>
       </c>
       <c r="D81" t="s">
-        <v>547</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B82" t="s">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>688</v>
+        <v>622</v>
       </c>
       <c r="D82" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B83" t="s">
         <v>36</v>
@@ -3866,12 +4243,12 @@
         <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>549</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B84" t="s">
         <v>36</v>
@@ -3880,12 +4257,12 @@
         <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>550</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="B85" t="s">
         <v>43</v>
@@ -3894,1687 +4271,2999 @@
         <v>44</v>
       </c>
       <c r="D85" t="s">
-        <v>551</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B86" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D86" t="s">
-        <v>554</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B87" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="C87" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="D87" t="s">
-        <v>555</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B88" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="D88" t="s">
-        <v>556</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B89" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="C89" t="s">
-        <v>687</v>
+        <v>621</v>
       </c>
       <c r="D89" t="s">
-        <v>557</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B90" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s">
-        <v>558</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B91" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D91" t="s">
-        <v>559</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B92" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="D92" t="s">
-        <v>560</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B93" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="D93" t="s">
-        <v>561</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B94" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="C94" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>562</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B95" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="D95" t="s">
-        <v>564</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B96" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="C96" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="D96" t="s">
-        <v>565</v>
+        <v>499</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B97" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="C97" t="s">
-        <v>686</v>
+        <v>620</v>
       </c>
       <c r="D97" t="s">
-        <v>566</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B98" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="C98" t="s">
-        <v>685</v>
+        <v>619</v>
       </c>
       <c r="D98" t="s">
-        <v>567</v>
+        <v>501</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B99" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="C99" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D99" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B100" t="s">
-        <v>569</v>
+        <v>503</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>570</v>
+        <v>504</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B101" t="s">
-        <v>569</v>
+        <v>503</v>
       </c>
       <c r="C101" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="D101" t="s">
-        <v>571</v>
+        <v>505</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B102" t="s">
-        <v>569</v>
+        <v>503</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D102" t="s">
-        <v>572</v>
+        <v>506</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B103" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
       <c r="C103" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="D103" t="s">
-        <v>576</v>
+        <v>510</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B104" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
       <c r="C104" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="D104" t="s">
-        <v>577</v>
+        <v>511</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B105" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="D105" t="s">
-        <v>578</v>
+        <v>512</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B106" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
       <c r="C106" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="D106" t="s">
-        <v>579</v>
+        <v>513</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B107" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
       <c r="C107" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D107" t="s">
-        <v>580</v>
+        <v>514</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B108" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="D108" t="s">
-        <v>581</v>
+        <v>515</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B109" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
       <c r="C109" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="D109" t="s">
-        <v>582</v>
+        <v>516</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B110" t="s">
-        <v>584</v>
+        <v>518</v>
       </c>
       <c r="C110" t="s">
-        <v>584</v>
+        <v>518</v>
       </c>
       <c r="D110" t="s">
-        <v>587</v>
+        <v>521</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B111" t="s">
-        <v>585</v>
+        <v>519</v>
       </c>
       <c r="C111" t="s">
-        <v>585</v>
+        <v>519</v>
       </c>
       <c r="D111" t="s">
-        <v>588</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B112" t="s">
-        <v>586</v>
+        <v>520</v>
       </c>
       <c r="C112" t="s">
-        <v>586</v>
+        <v>520</v>
       </c>
       <c r="D112" t="s">
-        <v>589</v>
+        <v>523</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B113" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="C113" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D113" t="s">
-        <v>592</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B114" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="C114" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="D114" t="s">
-        <v>593</v>
+        <v>527</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B115" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="C115" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="D115" t="s">
-        <v>594</v>
+        <v>528</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B116" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="C116" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="D116" t="s">
-        <v>595</v>
+        <v>529</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B117" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="D117" t="s">
-        <v>598</v>
+        <v>532</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B118" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C118" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D118" t="s">
-        <v>599</v>
+        <v>533</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B119" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="D119" t="s">
-        <v>600</v>
+        <v>534</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B120" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C120" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="D120" t="s">
-        <v>601</v>
+        <v>535</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B121" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C121" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="D121" t="s">
-        <v>602</v>
+        <v>536</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B122" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C122" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="D122" t="s">
-        <v>603</v>
+        <v>537</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B123" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="C123" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="D123" t="s">
-        <v>605</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B124" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="C124" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="D124" t="s">
-        <v>606</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B125" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="C125" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="D125" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B126" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="C126" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="D126" t="s">
-        <v>608</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B127" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="D127" t="s">
-        <v>609</v>
+        <v>543</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B128" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="C128" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="D128" t="s">
-        <v>610</v>
+        <v>544</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B129" t="s">
-        <v>612</v>
+        <v>546</v>
       </c>
       <c r="C129" t="s">
-        <v>612</v>
+        <v>546</v>
       </c>
       <c r="D129" t="s">
-        <v>613</v>
+        <v>547</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B130" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="C130" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D130" t="s">
-        <v>615</v>
+        <v>549</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B131" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="C131" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="D131" t="s">
-        <v>616</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B132" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="C132" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>617</v>
+        <v>551</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>486</v>
+      </c>
+      <c r="B133" t="s">
+        <v>548</v>
+      </c>
+      <c r="C133" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" t="s">
         <v>552</v>
-      </c>
-      <c r="B133" t="s">
-        <v>614</v>
-      </c>
-      <c r="C133" t="s">
-        <v>205</v>
-      </c>
-      <c r="D133" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B134" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="C134" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="D134" t="s">
-        <v>619</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B135" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C135" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="D135" t="s">
-        <v>621</v>
+        <v>555</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B136" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="D136" t="s">
-        <v>622</v>
+        <v>556</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B137" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C137" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="D137" t="s">
-        <v>623</v>
+        <v>557</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B138" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C138" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D138" t="s">
-        <v>624</v>
+        <v>558</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B139" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C139" t="s">
-        <v>684</v>
+        <v>618</v>
       </c>
       <c r="D139" t="s">
-        <v>625</v>
+        <v>559</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B140" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C140" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>626</v>
+        <v>560</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B141" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C141" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D141" t="s">
-        <v>627</v>
+        <v>561</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B142" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="C142" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D142" t="s">
-        <v>629</v>
+        <v>563</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B143" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="C143" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="D143" t="s">
-        <v>630</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="B144" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="C144" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D144" t="s">
-        <v>631</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B145" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
       <c r="C145" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="D145" t="s">
-        <v>635</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B146" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
       <c r="C146" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="D146" t="s">
-        <v>636</v>
+        <v>570</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B147" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
       <c r="C147" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="D147" t="s">
-        <v>637</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B148" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
       <c r="C148" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D148" t="s">
-        <v>638</v>
+        <v>572</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B149" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
       <c r="C149" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="D149" t="s">
-        <v>639</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B150" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
       <c r="C150" t="s">
-        <v>683</v>
+        <v>617</v>
       </c>
       <c r="D150" t="s">
-        <v>640</v>
+        <v>574</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B151" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
       <c r="C151" t="s">
-        <v>682</v>
+        <v>616</v>
       </c>
       <c r="D151" t="s">
-        <v>641</v>
+        <v>575</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B152" t="s">
-        <v>642</v>
+        <v>576</v>
       </c>
       <c r="C152" t="s">
-        <v>643</v>
+        <v>577</v>
       </c>
       <c r="D152" t="s">
-        <v>646</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B153" t="s">
-        <v>642</v>
+        <v>576</v>
       </c>
       <c r="C153" t="s">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="D153" t="s">
-        <v>647</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B154" t="s">
-        <v>642</v>
+        <v>576</v>
       </c>
       <c r="C154" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="D154" t="s">
-        <v>648</v>
+        <v>582</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B155" t="s">
-        <v>642</v>
+        <v>576</v>
       </c>
       <c r="C155" t="s">
-        <v>712</v>
+        <v>646</v>
       </c>
       <c r="D155" t="s">
-        <v>649</v>
+        <v>583</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B156" t="s">
-        <v>642</v>
+        <v>576</v>
       </c>
       <c r="C156" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="D156" t="s">
-        <v>650</v>
+        <v>584</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B157" t="s">
-        <v>642</v>
+        <v>576</v>
       </c>
       <c r="C157" t="s">
-        <v>711</v>
+        <v>645</v>
       </c>
       <c r="D157" t="s">
-        <v>651</v>
+        <v>585</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B158" t="s">
-        <v>736</v>
+        <v>670</v>
       </c>
       <c r="C158" t="s">
-        <v>681</v>
+        <v>615</v>
       </c>
       <c r="D158" t="s">
-        <v>655</v>
+        <v>589</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B159" t="s">
-        <v>653</v>
+        <v>587</v>
       </c>
       <c r="C159" t="s">
-        <v>653</v>
+        <v>587</v>
       </c>
       <c r="D159" t="s">
-        <v>656</v>
+        <v>590</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B160" t="s">
-        <v>652</v>
+        <v>586</v>
       </c>
       <c r="C160" t="s">
-        <v>652</v>
+        <v>586</v>
       </c>
       <c r="D160" t="s">
-        <v>657</v>
+        <v>591</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B161" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="C161" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="D161" t="s">
-        <v>658</v>
+        <v>592</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B162" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C162" t="s">
-        <v>388</v>
+        <v>323</v>
       </c>
       <c r="D162" t="s">
-        <v>660</v>
+        <v>594</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B163" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C163" t="s">
-        <v>680</v>
+        <v>614</v>
       </c>
       <c r="D163" t="s">
-        <v>661</v>
+        <v>595</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B164" t="s">
+        <v>530</v>
+      </c>
+      <c r="C164" t="s">
+        <v>330</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="C164" t="s">
-        <v>395</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B165" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C165" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="D165" t="s">
-        <v>663</v>
+        <v>597</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B166" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C166" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="D166" t="s">
-        <v>664</v>
+        <v>598</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B167" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C167" t="s">
-        <v>679</v>
+        <v>613</v>
       </c>
       <c r="D167" t="s">
-        <v>665</v>
+        <v>599</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B168" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C168" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="D168" t="s">
-        <v>666</v>
+        <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B169" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C169" t="s">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="D169" t="s">
-        <v>659</v>
+        <v>593</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B170" t="s">
-        <v>669</v>
+        <v>603</v>
       </c>
       <c r="C170" t="s">
-        <v>678</v>
+        <v>612</v>
       </c>
       <c r="D170" t="s">
-        <v>670</v>
+        <v>604</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B171" t="s">
-        <v>669</v>
+        <v>603</v>
       </c>
       <c r="C171" t="s">
-        <v>668</v>
+        <v>602</v>
       </c>
       <c r="D171" t="s">
-        <v>671</v>
+        <v>605</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B172" t="s">
-        <v>669</v>
+        <v>603</v>
       </c>
       <c r="C172" t="s">
-        <v>417</v>
+        <v>352</v>
       </c>
       <c r="D172" t="s">
-        <v>672</v>
+        <v>606</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B173" t="s">
-        <v>669</v>
+        <v>603</v>
       </c>
       <c r="C173" t="s">
-        <v>710</v>
+        <v>644</v>
       </c>
       <c r="D173" t="s">
-        <v>673</v>
+        <v>607</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B174" t="s">
-        <v>669</v>
+        <v>603</v>
       </c>
       <c r="C174" t="s">
-        <v>423</v>
+        <v>358</v>
       </c>
       <c r="D174" t="s">
-        <v>674</v>
+        <v>608</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B175" t="s">
-        <v>669</v>
+        <v>603</v>
       </c>
       <c r="C175" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="D175" t="s">
-        <v>675</v>
+        <v>609</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B176" t="s">
-        <v>669</v>
+        <v>603</v>
       </c>
       <c r="C176" t="s">
-        <v>677</v>
+        <v>611</v>
       </c>
       <c r="D176" t="s">
-        <v>676</v>
+        <v>610</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B177" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
       <c r="C177" t="s">
-        <v>392</v>
+        <v>327</v>
       </c>
       <c r="D177" t="s">
-        <v>697</v>
+        <v>631</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B178" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
       <c r="C178" t="s">
-        <v>396</v>
+        <v>331</v>
       </c>
       <c r="D178" t="s">
-        <v>698</v>
+        <v>632</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>567</v>
+      </c>
+      <c r="B179" t="s">
+        <v>630</v>
+      </c>
+      <c r="C179" t="s">
+        <v>334</v>
+      </c>
+      <c r="D179" t="s">
         <v>633</v>
-      </c>
-      <c r="B179" t="s">
-        <v>696</v>
-      </c>
-      <c r="C179" t="s">
-        <v>399</v>
-      </c>
-      <c r="D179" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B180" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
       <c r="C180" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D180" t="s">
-        <v>700</v>
+        <v>634</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B181" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="D181" t="s">
-        <v>701</v>
+        <v>635</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B182" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
       <c r="C182" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="D182" t="s">
-        <v>702</v>
+        <v>636</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B183" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
       <c r="C183" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="D183" t="s">
-        <v>703</v>
+        <v>637</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B184" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
       <c r="C184" t="s">
-        <v>695</v>
+        <v>629</v>
       </c>
       <c r="D184" t="s">
-        <v>704</v>
+        <v>638</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B185" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="C185" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="D185" t="s">
-        <v>705</v>
+        <v>639</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B186" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="C186" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="D186" t="s">
-        <v>707</v>
+        <v>641</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B187" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="C187" t="s">
-        <v>430</v>
+        <v>365</v>
       </c>
       <c r="D187" t="s">
-        <v>708</v>
+        <v>642</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B188" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="C188" t="s">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="D188" t="s">
-        <v>709</v>
+        <v>643</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B189" t="s">
-        <v>713</v>
+        <v>647</v>
       </c>
       <c r="C189" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="D189" t="s">
-        <v>716</v>
+        <v>650</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B190" t="s">
-        <v>713</v>
+        <v>647</v>
       </c>
       <c r="C190" t="s">
-        <v>393</v>
+        <v>328</v>
       </c>
       <c r="D190" t="s">
-        <v>717</v>
+        <v>651</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B191" t="s">
-        <v>713</v>
+        <v>647</v>
       </c>
       <c r="C191" t="s">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>718</v>
+        <v>652</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B192" t="s">
-        <v>713</v>
+        <v>647</v>
       </c>
       <c r="C192" t="s">
-        <v>714</v>
+        <v>648</v>
       </c>
       <c r="D192" t="s">
-        <v>719</v>
+        <v>653</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B193" t="s">
-        <v>713</v>
+        <v>647</v>
       </c>
       <c r="C193" t="s">
-        <v>715</v>
+        <v>649</v>
       </c>
       <c r="D193" t="s">
-        <v>720</v>
+        <v>654</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B194" t="s">
-        <v>721</v>
+        <v>655</v>
       </c>
       <c r="C194" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="D194" t="s">
-        <v>722</v>
+        <v>656</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B195" t="s">
-        <v>721</v>
+        <v>655</v>
       </c>
       <c r="C195" t="s">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="D195" t="s">
-        <v>723</v>
+        <v>657</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B196" t="s">
-        <v>721</v>
+        <v>655</v>
       </c>
       <c r="C196" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="D196" t="s">
-        <v>724</v>
+        <v>658</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B197" t="s">
-        <v>721</v>
+        <v>655</v>
       </c>
       <c r="C197" t="s">
-        <v>706</v>
+        <v>640</v>
       </c>
       <c r="D197" t="s">
-        <v>725</v>
+        <v>659</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B198" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C198" t="s">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="D198" t="s">
-        <v>728</v>
+        <v>662</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B199" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C199" t="s">
-        <v>424</v>
+        <v>359</v>
       </c>
       <c r="D199" t="s">
-        <v>729</v>
+        <v>663</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B200" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C200" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="D200" t="s">
-        <v>730</v>
+        <v>664</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B201" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C201" t="s">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="D201" t="s">
-        <v>731</v>
+        <v>665</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B202" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C202" t="s">
-        <v>727</v>
+        <v>661</v>
       </c>
       <c r="D202" t="s">
-        <v>732</v>
+        <v>666</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B203" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C203" t="s">
-        <v>684</v>
+        <v>618</v>
       </c>
       <c r="D203" t="s">
-        <v>733</v>
+        <v>667</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B204" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C204" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D204" t="s">
-        <v>734</v>
+        <v>668</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="B205" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C205" t="s">
+        <v>660</v>
+      </c>
+      <c r="D205" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>683</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D206" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>683</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C207" t="s">
+        <v>106</v>
+      </c>
+      <c r="D207" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>683</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C208" t="s">
+        <v>110</v>
+      </c>
+      <c r="D208" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>683</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C209" t="s">
+        <v>114</v>
+      </c>
+      <c r="D209" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>683</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C210" t="s">
+        <v>117</v>
+      </c>
+      <c r="D210" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>683</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C211" t="s">
+        <v>120</v>
+      </c>
+      <c r="D211" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>683</v>
+      </c>
+      <c r="B212" t="s">
+        <v>691</v>
+      </c>
+      <c r="C212" t="s">
+        <v>674</v>
+      </c>
+      <c r="D212" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>683</v>
+      </c>
+      <c r="B213" t="s">
+        <v>691</v>
+      </c>
+      <c r="C213" t="s">
+        <v>110</v>
+      </c>
+      <c r="D213" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>683</v>
+      </c>
+      <c r="B214" t="s">
+        <v>691</v>
+      </c>
+      <c r="C214" t="s">
+        <v>675</v>
+      </c>
+      <c r="D214" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>683</v>
+      </c>
+      <c r="B215" t="s">
+        <v>691</v>
+      </c>
+      <c r="C215" t="s">
+        <v>120</v>
+      </c>
+      <c r="D215" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>683</v>
+      </c>
+      <c r="B216" t="s">
+        <v>696</v>
+      </c>
+      <c r="C216" t="s">
+        <v>697</v>
+      </c>
+      <c r="D216" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>683</v>
+      </c>
+      <c r="B217" t="s">
+        <v>696</v>
+      </c>
+      <c r="C217" t="s">
+        <v>106</v>
+      </c>
+      <c r="D217" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>683</v>
+      </c>
+      <c r="B218" t="s">
+        <v>696</v>
+      </c>
+      <c r="C218" t="s">
+        <v>120</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>683</v>
+      </c>
+      <c r="B219" t="s">
+        <v>701</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D219" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>683</v>
+      </c>
+      <c r="B220" t="s">
+        <v>701</v>
+      </c>
+      <c r="C220" t="s">
+        <v>678</v>
+      </c>
+      <c r="D220" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>683</v>
+      </c>
+      <c r="B221" t="s">
+        <v>701</v>
+      </c>
+      <c r="C221" t="s">
+        <v>120</v>
+      </c>
+      <c r="D221" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>683</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="D222" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>683</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C223" t="s">
+        <v>107</v>
+      </c>
+      <c r="D223" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>683</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C224" t="s">
+        <v>111</v>
+      </c>
+      <c r="D224" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>683</v>
+      </c>
+      <c r="B225" t="s">
+        <v>708</v>
+      </c>
+      <c r="C225" t="s">
+        <v>682</v>
+      </c>
+      <c r="D225" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>683</v>
+      </c>
+      <c r="B226" t="s">
+        <v>708</v>
+      </c>
+      <c r="C226" t="s">
+        <v>111</v>
+      </c>
+      <c r="D226" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>683</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D227" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>683</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="D228" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>683</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D229" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>683</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C230" t="s">
+        <v>717</v>
+      </c>
+      <c r="D230" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>683</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C231" t="s">
+        <v>718</v>
+      </c>
+      <c r="D231" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>683</v>
+      </c>
+      <c r="B232" t="s">
+        <v>724</v>
+      </c>
+      <c r="C232" t="s">
+        <v>722</v>
+      </c>
+      <c r="D232" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>683</v>
+      </c>
+      <c r="B233" t="s">
+        <v>724</v>
+      </c>
+      <c r="C233" t="s">
+        <v>723</v>
+      </c>
+      <c r="D233" t="s">
         <v>726</v>
       </c>
-      <c r="D205" t="s">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>683</v>
+      </c>
+      <c r="B234" t="s">
+        <v>727</v>
+      </c>
+      <c r="C234" t="s">
+        <v>104</v>
+      </c>
+      <c r="D234" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>683</v>
+      </c>
+      <c r="B235" t="s">
+        <v>727</v>
+      </c>
+      <c r="C235" t="s">
+        <v>108</v>
+      </c>
+      <c r="D235" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>683</v>
+      </c>
+      <c r="B236" t="s">
+        <v>727</v>
+      </c>
+      <c r="C236" t="s">
+        <v>112</v>
+      </c>
+      <c r="D236" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>683</v>
+      </c>
+      <c r="B237" t="s">
+        <v>727</v>
+      </c>
+      <c r="C237" t="s">
+        <v>118</v>
+      </c>
+      <c r="D237" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>683</v>
+      </c>
+      <c r="B238" t="s">
+        <v>727</v>
+      </c>
+      <c r="C238" t="s">
+        <v>121</v>
+      </c>
+      <c r="D238" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>683</v>
+      </c>
+      <c r="B239" t="s">
+        <v>727</v>
+      </c>
+      <c r="C239" t="s">
+        <v>124</v>
+      </c>
+      <c r="D239" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>683</v>
+      </c>
+      <c r="B240" t="s">
+        <v>727</v>
+      </c>
+      <c r="C240" t="s">
+        <v>126</v>
+      </c>
+      <c r="D240" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>683</v>
+      </c>
+      <c r="B241" t="s">
+        <v>727</v>
+      </c>
+      <c r="C241" t="s">
+        <v>736</v>
+      </c>
+      <c r="D241" t="s">
         <v>735</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>683</v>
+      </c>
+      <c r="B242" t="s">
+        <v>727</v>
+      </c>
+      <c r="C242" t="s">
+        <v>132</v>
+      </c>
+      <c r="D242" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>683</v>
+      </c>
+      <c r="B243" t="s">
+        <v>727</v>
+      </c>
+      <c r="C243" t="s">
+        <v>135</v>
+      </c>
+      <c r="D243" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>683</v>
+      </c>
+      <c r="B244" t="s">
+        <v>727</v>
+      </c>
+      <c r="C244" t="s">
+        <v>740</v>
+      </c>
+      <c r="D244" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>683</v>
+      </c>
+      <c r="B245" t="s">
+        <v>727</v>
+      </c>
+      <c r="C245" t="s">
+        <v>140</v>
+      </c>
+      <c r="D245" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>683</v>
+      </c>
+      <c r="B246" t="s">
+        <v>727</v>
+      </c>
+      <c r="C246" t="s">
+        <v>142</v>
+      </c>
+      <c r="D246" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>683</v>
+      </c>
+      <c r="B247" t="s">
+        <v>743</v>
+      </c>
+      <c r="C247" t="s">
+        <v>147</v>
+      </c>
+      <c r="D247" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>683</v>
+      </c>
+      <c r="B248" t="s">
+        <v>743</v>
+      </c>
+      <c r="C248" t="s">
+        <v>151</v>
+      </c>
+      <c r="D248" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>683</v>
+      </c>
+      <c r="B249" t="s">
+        <v>743</v>
+      </c>
+      <c r="C249" t="s">
+        <v>154</v>
+      </c>
+      <c r="D249" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>683</v>
+      </c>
+      <c r="B250" t="s">
+        <v>749</v>
+      </c>
+      <c r="C250" t="s">
+        <v>105</v>
+      </c>
+      <c r="D250" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>683</v>
+      </c>
+      <c r="B251" t="s">
+        <v>749</v>
+      </c>
+      <c r="C251" t="s">
+        <v>109</v>
+      </c>
+      <c r="D251" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>683</v>
+      </c>
+      <c r="B252" t="s">
+        <v>749</v>
+      </c>
+      <c r="C252" t="s">
+        <v>750</v>
+      </c>
+      <c r="D252" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>683</v>
+      </c>
+      <c r="B253" t="s">
+        <v>749</v>
+      </c>
+      <c r="C253" t="s">
+        <v>119</v>
+      </c>
+      <c r="D253" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>683</v>
+      </c>
+      <c r="B254" t="s">
+        <v>749</v>
+      </c>
+      <c r="C254" t="s">
+        <v>122</v>
+      </c>
+      <c r="D254" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>683</v>
+      </c>
+      <c r="B255" t="s">
+        <v>749</v>
+      </c>
+      <c r="C255" t="s">
+        <v>751</v>
+      </c>
+      <c r="D255" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>683</v>
+      </c>
+      <c r="B256" t="s">
+        <v>749</v>
+      </c>
+      <c r="C256" t="s">
+        <v>127</v>
+      </c>
+      <c r="D256" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>683</v>
+      </c>
+      <c r="B257" t="s">
+        <v>749</v>
+      </c>
+      <c r="C257" t="s">
+        <v>752</v>
+      </c>
+      <c r="D257" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>683</v>
+      </c>
+      <c r="B258" t="s">
+        <v>749</v>
+      </c>
+      <c r="C258" t="s">
+        <v>133</v>
+      </c>
+      <c r="D258" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>683</v>
+      </c>
+      <c r="B259" t="s">
+        <v>749</v>
+      </c>
+      <c r="C259" t="s">
+        <v>753</v>
+      </c>
+      <c r="D259" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>683</v>
+      </c>
+      <c r="B260" t="s">
+        <v>749</v>
+      </c>
+      <c r="C260" t="s">
+        <v>754</v>
+      </c>
+      <c r="D260" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>683</v>
+      </c>
+      <c r="B261" t="s">
+        <v>749</v>
+      </c>
+      <c r="C261" t="s">
+        <v>747</v>
+      </c>
+      <c r="D261" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>683</v>
+      </c>
+      <c r="B262" t="s">
+        <v>749</v>
+      </c>
+      <c r="C262" t="s">
+        <v>748</v>
+      </c>
+      <c r="D262" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>683</v>
+      </c>
+      <c r="B263" t="s">
+        <v>749</v>
+      </c>
+      <c r="C263" t="s">
+        <v>756</v>
+      </c>
+      <c r="D263" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>683</v>
+      </c>
+      <c r="B264" t="s">
+        <v>749</v>
+      </c>
+      <c r="C264" t="s">
+        <v>757</v>
+      </c>
+      <c r="D264" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>683</v>
+      </c>
+      <c r="B265" t="s">
+        <v>749</v>
+      </c>
+      <c r="C265" t="s">
+        <v>758</v>
+      </c>
+      <c r="D265" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>802</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="C266" t="s">
+        <v>281</v>
+      </c>
+      <c r="D266" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C267" t="s">
+        <v>284</v>
+      </c>
+      <c r="D267" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C268" t="s">
+        <v>288</v>
+      </c>
+      <c r="D268" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C269" t="s">
+        <v>292</v>
+      </c>
+      <c r="D269" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C270" t="s">
+        <v>296</v>
+      </c>
+      <c r="D270" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B271" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C271" t="s">
+        <v>776</v>
+      </c>
+      <c r="D271" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
+        <v>298</v>
+      </c>
+      <c r="D272" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C273" t="s">
+        <v>301</v>
+      </c>
+      <c r="D273" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B274" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C274" t="s">
+        <v>307</v>
+      </c>
+      <c r="D274" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
+        <v>311</v>
+      </c>
+      <c r="D275" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C276" t="s">
+        <v>312</v>
+      </c>
+      <c r="D276" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C277" t="s">
+        <v>314</v>
+      </c>
+      <c r="D277" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C278" t="s">
+        <v>317</v>
+      </c>
+      <c r="D278" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>779</v>
+      </c>
+      <c r="C279" t="s">
+        <v>779</v>
+      </c>
+      <c r="D279" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>782</v>
+      </c>
+      <c r="C280" t="s">
+        <v>285</v>
+      </c>
+      <c r="D280" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C281" t="s">
+        <v>289</v>
+      </c>
+      <c r="D281" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C282" t="s">
+        <v>293</v>
+      </c>
+      <c r="D282" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
+        <v>783</v>
+      </c>
+      <c r="C283" t="s">
+        <v>780</v>
+      </c>
+      <c r="D283" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C284" t="s">
+        <v>781</v>
+      </c>
+      <c r="D284" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C285" t="s">
+        <v>299</v>
+      </c>
+      <c r="D285" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C286" t="s">
+        <v>784</v>
+      </c>
+      <c r="D286" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C287" t="s">
+        <v>304</v>
+      </c>
+      <c r="D287" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C288" t="s">
+        <v>308</v>
+      </c>
+      <c r="D288" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>785</v>
+      </c>
+      <c r="C289" t="s">
+        <v>313</v>
+      </c>
+      <c r="D289" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
+        <v>817</v>
+      </c>
+      <c r="C290" t="s">
+        <v>318</v>
+      </c>
+      <c r="D290" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C291" t="s">
+        <v>320</v>
+      </c>
+      <c r="D291" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>830</v>
+      </c>
+      <c r="C292" t="s">
+        <v>282</v>
+      </c>
+      <c r="D292" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C293" t="s">
+        <v>286</v>
+      </c>
+      <c r="D293" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C294" t="s">
+        <v>835</v>
+      </c>
+      <c r="D294" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
+        <v>294</v>
+      </c>
+      <c r="D295" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C296" t="s">
+        <v>297</v>
+      </c>
+      <c r="D296" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C297" t="s">
+        <v>787</v>
+      </c>
+      <c r="D297" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
+        <v>786</v>
+      </c>
+      <c r="D298" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
+        <v>21</v>
+      </c>
+      <c r="C299" t="s">
+        <v>302</v>
+      </c>
+      <c r="D299" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
+        <v>305</v>
+      </c>
+      <c r="D300" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B301" t="s">
+        <v>831</v>
+      </c>
+      <c r="C301" t="s">
+        <v>788</v>
+      </c>
+      <c r="D301" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
+        <v>789</v>
+      </c>
+      <c r="D302" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C303" t="s">
+        <v>790</v>
+      </c>
+      <c r="D303" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C304" t="s">
+        <v>791</v>
+      </c>
+      <c r="D304" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B305" t="s">
+        <v>792</v>
+      </c>
+      <c r="C305" t="s">
+        <v>283</v>
+      </c>
+      <c r="D305" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C306" t="s">
+        <v>287</v>
+      </c>
+      <c r="D306" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C307" t="s">
+        <v>291</v>
+      </c>
+      <c r="D307" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C308" t="s">
+        <v>295</v>
+      </c>
+      <c r="D308" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C309" t="s">
+        <v>794</v>
+      </c>
+      <c r="D309" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
+        <v>796</v>
+      </c>
+      <c r="C310" t="s">
+        <v>795</v>
+      </c>
+      <c r="D310" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C311" t="s">
+        <v>300</v>
+      </c>
+      <c r="D311" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C312" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D312" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C313" t="s">
+        <v>306</v>
+      </c>
+      <c r="D313" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C314" t="s">
+        <v>310</v>
+      </c>
+      <c r="D314" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B315" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D315" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B316" t="s">
+        <v>798</v>
+      </c>
+      <c r="C316" t="s">
+        <v>316</v>
+      </c>
+      <c r="D316" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C317" t="s">
+        <v>319</v>
+      </c>
+      <c r="D317" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C318" t="s">
+        <v>799</v>
+      </c>
+      <c r="D318" t="s">
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -5598,648 +7287,18 @@
     <hyperlink ref="D140" r:id="rId17" xr:uid="{6F7D4B9F-7151-46F7-84AD-CC4950C56AE9}"/>
     <hyperlink ref="D164" r:id="rId18" xr:uid="{02B2AE35-9BF7-43A3-A5C6-1BBEBDBA981C}"/>
     <hyperlink ref="D191" r:id="rId19" xr:uid="{9417046D-5C95-431F-9EBC-CC9B8811C20A}"/>
+    <hyperlink ref="D218" r:id="rId20" display="https://www.flipkart.com/clothing-and-accessories/innerwear-and-swimwear/pr?sid=clo%2Cqfl&amp;otracker[]=categorytree&amp;otracker[]=nmenu_sub_Baby%20%26%20Kids_0_Innerwear&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BBoys&amp;p[]=facets.ideal_for%255B%255D%3DBaby%2BBoys%2B%2526%2BBaby%2BGirls" xr:uid="{DC1556E9-CE3C-4486-A738-262A8CA82B74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81912A-75C3-45A2-9717-B4E2E146308D}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE8A79-8CF2-43BA-8AEE-C7287EF838E1}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>390</v>
-      </c>
-      <c r="B3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C5" t="s">
-        <v>399</v>
-      </c>
-      <c r="D5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>404</v>
-      </c>
-      <c r="B7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>409</v>
-      </c>
-      <c r="B9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>645</v>
-      </c>
-      <c r="B11" t="s">
-        <v>667</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="D11" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>644</v>
-      </c>
-      <c r="B12" t="s">
-        <v>668</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>416</v>
-      </c>
-      <c r="B13" t="s">
-        <v>417</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="D13" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" t="s">
-        <v>420</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>422</v>
-      </c>
-      <c r="B15" t="s">
-        <v>423</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="D15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>425</v>
-      </c>
-      <c r="B16" t="s">
-        <v>426</v>
-      </c>
-      <c r="C16" t="s">
-        <v>427</v>
-      </c>
-      <c r="D16" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="B17" t="s">
-        <v>429</v>
-      </c>
-      <c r="C17" t="s">
-        <v>430</v>
-      </c>
-      <c r="D17" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="C18" t="s">
-        <v>432</v>
-      </c>
-      <c r="D18" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="D19" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="D20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>726</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C68DF8-FF9C-43C8-8B0C-EDAB02B25389}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE8A79-8CF2-43BA-8AEE-C7287EF838E1}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D15" sqref="D15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6251,264 +7310,239 @@
     <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7" t="s">
+        <v>780</v>
+      </c>
+      <c r="C7" t="s">
+        <v>787</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" t="s">
+        <v>786</v>
+      </c>
+      <c r="D8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>784</v>
+      </c>
+      <c r="C10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>311</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C13" t="s">
+        <v>788</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>312</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B14" t="s">
         <v>313</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C14" t="s">
+        <v>789</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>314</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B15" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C15" t="s">
+        <v>790</v>
+      </c>
+      <c r="D15" t="s">
         <v>316</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>317</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B16" t="s">
         <v>318</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C16" t="s">
+        <v>791</v>
+      </c>
+      <c r="D16" t="s">
         <v>319</v>
       </c>
-      <c r="E2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B17" t="s">
         <v>320</v>
       </c>
-      <c r="B3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B11" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" t="s">
-        <v>362</v>
-      </c>
-      <c r="D11" t="s">
-        <v>363</v>
-      </c>
-      <c r="E11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" t="s">
-        <v>367</v>
-      </c>
-      <c r="D12" t="s">
-        <v>368</v>
-      </c>
-      <c r="E12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B14" t="s">
-        <v>376</v>
-      </c>
-      <c r="C14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B15" t="s">
-        <v>380</v>
-      </c>
-      <c r="C15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>383</v>
-      </c>
-      <c r="B16" t="s">
-        <v>384</v>
-      </c>
-      <c r="D16" t="s">
-        <v>385</v>
+      <c r="D17" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -6516,12 +7550,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED48E8A-5223-4F5B-8039-3DE59CDADB05}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6531,235 +7565,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E9" t="s">
-        <v>438</v>
+      <c r="E9" s="5" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B11" t="s">
-        <v>436</v>
-      </c>
+      <c r="A11" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B13" t="s">
-        <v>437</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>101</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -6767,7 +7853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513D4507-76C5-4582-B796-61D1EB23A09F}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -6786,255 +7872,255 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>445</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D14" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="D15" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="C16" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7043,7 +8129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC27D73-5C53-4CAB-8480-4CD171B65D86}">
   <dimension ref="G1:J19"/>
   <sheetViews>
@@ -7168,7 +8254,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>26</v>
@@ -7178,7 +8264,7 @@
     <row r="11" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
@@ -7197,7 +8283,7 @@
     </row>
     <row r="13" spans="7:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" s="1" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>30</v>
@@ -7209,7 +8295,7 @@
     </row>
     <row r="14" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="1" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>32</v>
@@ -7277,7 +8363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F0E94-D426-4C24-92E2-7431A8945EC4}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -7296,33 +8382,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>574</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>34</v>
@@ -7330,228 +8416,818 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>632</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>573</v>
+        <v>507</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>597</v>
+        <v>531</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>591</v>
+        <v>525</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>586</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
-        <v>611</v>
+        <v>545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C68DF8-FF9C-43C8-8B0C-EDAB02B25389}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>675</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>678</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81912A-75C3-45A2-9717-B4E2E146308D}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D11" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" t="s">
+        <v>602</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D19" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/flipkart_categories.xlsx
+++ b/flipkart_categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Desktop\setubhandhan\product price prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578940E2-EC8E-4D90-AED1-AF3EFA5D3CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A606C7B-3920-44FB-AC84-8AAE9C2CB422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="2676" windowWidth="10128" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="url" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="860">
   <si>
     <t>Mobile Accessories</t>
   </si>
@@ -2769,7 +2769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2787,7 +2787,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3072,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C299" workbookViewId="0">
-      <selection activeCell="D319" sqref="D319"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5958,10 +5957,10 @@
       <c r="A206" t="s">
         <v>683</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" t="s">
         <v>671</v>
       </c>
-      <c r="C206" s="9" t="s">
+      <c r="C206" t="s">
         <v>671</v>
       </c>
       <c r="D206" t="s">
@@ -5972,7 +5971,7 @@
       <c r="A207" t="s">
         <v>683</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" t="s">
         <v>685</v>
       </c>
       <c r="C207" t="s">
@@ -5986,7 +5985,7 @@
       <c r="A208" t="s">
         <v>683</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" t="s">
         <v>685</v>
       </c>
       <c r="C208" t="s">
@@ -6000,7 +5999,7 @@
       <c r="A209" t="s">
         <v>683</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" t="s">
         <v>685</v>
       </c>
       <c r="C209" t="s">
@@ -6014,7 +6013,7 @@
       <c r="A210" t="s">
         <v>683</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" t="s">
         <v>685</v>
       </c>
       <c r="C210" t="s">
@@ -6028,7 +6027,7 @@
       <c r="A211" t="s">
         <v>683</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" t="s">
         <v>685</v>
       </c>
       <c r="C211" t="s">
@@ -6143,7 +6142,7 @@
       <c r="B219" t="s">
         <v>701</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C219" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D219" t="s">
@@ -6182,10 +6181,10 @@
       <c r="A222" t="s">
         <v>683</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" t="s">
         <v>679</v>
       </c>
-      <c r="C222" s="9" t="s">
+      <c r="C222" t="s">
         <v>679</v>
       </c>
       <c r="D222" t="s">
@@ -6196,7 +6195,7 @@
       <c r="A223" t="s">
         <v>683</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" t="s">
         <v>680</v>
       </c>
       <c r="C223" t="s">
@@ -6210,7 +6209,7 @@
       <c r="A224" t="s">
         <v>683</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" t="s">
         <v>680</v>
       </c>
       <c r="C224" t="s">
@@ -6252,10 +6251,10 @@
       <c r="A227" t="s">
         <v>683</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" t="s">
         <v>711</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="C227" t="s">
         <v>711</v>
       </c>
       <c r="D227" t="s">
@@ -6266,10 +6265,10 @@
       <c r="A228" t="s">
         <v>683</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" t="s">
         <v>712</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C228" t="s">
         <v>712</v>
       </c>
       <c r="D228" t="s">
@@ -6280,10 +6279,10 @@
       <c r="A229" t="s">
         <v>683</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" t="s">
         <v>713</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="C229" t="s">
         <v>713</v>
       </c>
       <c r="D229" t="s">
@@ -6294,7 +6293,7 @@
       <c r="A230" t="s">
         <v>683</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" t="s">
         <v>719</v>
       </c>
       <c r="C230" t="s">
@@ -6308,7 +6307,7 @@
       <c r="A231" t="s">
         <v>683</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" t="s">
         <v>719</v>
       </c>
       <c r="C231" t="s">
@@ -6798,7 +6797,7 @@
       <c r="A266" t="s">
         <v>802</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" t="s">
         <v>777</v>
       </c>
       <c r="C266" t="s">
@@ -6809,6 +6808,12 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>802</v>
+      </c>
+      <c r="B267" t="s">
+        <v>777</v>
+      </c>
       <c r="C267" t="s">
         <v>284</v>
       </c>
@@ -6817,6 +6822,12 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>802</v>
+      </c>
+      <c r="B268" t="s">
+        <v>777</v>
+      </c>
       <c r="C268" t="s">
         <v>288</v>
       </c>
@@ -6825,6 +6836,12 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>802</v>
+      </c>
+      <c r="B269" t="s">
+        <v>777</v>
+      </c>
       <c r="C269" t="s">
         <v>292</v>
       </c>
@@ -6833,6 +6850,12 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>802</v>
+      </c>
+      <c r="B270" t="s">
+        <v>777</v>
+      </c>
       <c r="C270" t="s">
         <v>296</v>
       </c>
@@ -6841,7 +6864,10 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B271" s="9" t="s">
+      <c r="A271" t="s">
+        <v>802</v>
+      </c>
+      <c r="B271" t="s">
         <v>775</v>
       </c>
       <c r="C271" t="s">
@@ -6852,6 +6878,12 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>802</v>
+      </c>
+      <c r="B272" t="s">
+        <v>775</v>
+      </c>
       <c r="C272" t="s">
         <v>298</v>
       </c>
@@ -6859,7 +6891,13 @@
         <v>809</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>802</v>
+      </c>
+      <c r="B273" t="s">
+        <v>775</v>
+      </c>
       <c r="C273" t="s">
         <v>301</v>
       </c>
@@ -6867,8 +6905,11 @@
         <v>810</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B274" s="9" t="s">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>802</v>
+      </c>
+      <c r="B274" t="s">
         <v>778</v>
       </c>
       <c r="C274" t="s">
@@ -6878,7 +6919,13 @@
         <v>811</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>802</v>
+      </c>
+      <c r="B275" t="s">
+        <v>778</v>
+      </c>
       <c r="C275" t="s">
         <v>311</v>
       </c>
@@ -6886,7 +6933,13 @@
         <v>812</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>802</v>
+      </c>
+      <c r="B276" t="s">
+        <v>778</v>
+      </c>
       <c r="C276" t="s">
         <v>312</v>
       </c>
@@ -6894,7 +6947,13 @@
         <v>813</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>802</v>
+      </c>
+      <c r="B277" t="s">
+        <v>778</v>
+      </c>
       <c r="C277" t="s">
         <v>314</v>
       </c>
@@ -6902,7 +6961,13 @@
         <v>814</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>802</v>
+      </c>
+      <c r="B278" t="s">
+        <v>778</v>
+      </c>
       <c r="C278" t="s">
         <v>317</v>
       </c>
@@ -6910,7 +6975,10 @@
         <v>815</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>802</v>
+      </c>
       <c r="B279" t="s">
         <v>779</v>
       </c>
@@ -6921,7 +6989,10 @@
         <v>816</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>802</v>
+      </c>
       <c r="B280" t="s">
         <v>782</v>
       </c>
@@ -6932,7 +7003,13 @@
         <v>818</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>802</v>
+      </c>
+      <c r="B281" t="s">
+        <v>782</v>
+      </c>
       <c r="C281" t="s">
         <v>289</v>
       </c>
@@ -6940,7 +7017,13 @@
         <v>819</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>802</v>
+      </c>
+      <c r="B282" t="s">
+        <v>782</v>
+      </c>
       <c r="C282" t="s">
         <v>293</v>
       </c>
@@ -6948,7 +7031,10 @@
         <v>820</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>802</v>
+      </c>
       <c r="B283" t="s">
         <v>783</v>
       </c>
@@ -6959,7 +7045,13 @@
         <v>821</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>802</v>
+      </c>
+      <c r="B284" t="s">
+        <v>783</v>
+      </c>
       <c r="C284" t="s">
         <v>781</v>
       </c>
@@ -6967,7 +7059,13 @@
         <v>822</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>802</v>
+      </c>
+      <c r="B285" t="s">
+        <v>783</v>
+      </c>
       <c r="C285" t="s">
         <v>299</v>
       </c>
@@ -6975,7 +7073,13 @@
         <v>823</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>802</v>
+      </c>
+      <c r="B286" t="s">
+        <v>783</v>
+      </c>
       <c r="C286" t="s">
         <v>784</v>
       </c>
@@ -6983,7 +7087,13 @@
         <v>824</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>802</v>
+      </c>
+      <c r="B287" t="s">
+        <v>783</v>
+      </c>
       <c r="C287" t="s">
         <v>304</v>
       </c>
@@ -6991,7 +7101,13 @@
         <v>825</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>802</v>
+      </c>
+      <c r="B288" t="s">
+        <v>783</v>
+      </c>
       <c r="C288" t="s">
         <v>308</v>
       </c>
@@ -6999,7 +7115,10 @@
         <v>826</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>802</v>
+      </c>
       <c r="B289" t="s">
         <v>785</v>
       </c>
@@ -7010,7 +7129,10 @@
         <v>827</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>802</v>
+      </c>
       <c r="B290" t="s">
         <v>817</v>
       </c>
@@ -7021,7 +7143,13 @@
         <v>828</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>802</v>
+      </c>
+      <c r="B291" t="s">
+        <v>817</v>
+      </c>
       <c r="C291" t="s">
         <v>320</v>
       </c>
@@ -7029,7 +7157,10 @@
         <v>829</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>802</v>
+      </c>
       <c r="B292" t="s">
         <v>830</v>
       </c>
@@ -7040,7 +7171,13 @@
         <v>832</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>802</v>
+      </c>
+      <c r="B293" t="s">
+        <v>830</v>
+      </c>
       <c r="C293" t="s">
         <v>286</v>
       </c>
@@ -7048,7 +7185,13 @@
         <v>833</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>802</v>
+      </c>
+      <c r="B294" t="s">
+        <v>830</v>
+      </c>
       <c r="C294" t="s">
         <v>835</v>
       </c>
@@ -7056,7 +7199,13 @@
         <v>834</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>802</v>
+      </c>
+      <c r="B295" t="s">
+        <v>830</v>
+      </c>
       <c r="C295" t="s">
         <v>294</v>
       </c>
@@ -7064,7 +7213,13 @@
         <v>836</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>802</v>
+      </c>
+      <c r="B296" t="s">
+        <v>830</v>
+      </c>
       <c r="C296" t="s">
         <v>297</v>
       </c>
@@ -7072,7 +7227,13 @@
         <v>837</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>802</v>
+      </c>
+      <c r="B297" t="s">
+        <v>830</v>
+      </c>
       <c r="C297" t="s">
         <v>787</v>
       </c>
@@ -7080,7 +7241,13 @@
         <v>838</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>802</v>
+      </c>
+      <c r="B298" t="s">
+        <v>830</v>
+      </c>
       <c r="C298" t="s">
         <v>786</v>
       </c>
@@ -7088,7 +7255,10 @@
         <v>839</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>802</v>
+      </c>
       <c r="B299" t="s">
         <v>21</v>
       </c>
@@ -7099,7 +7269,13 @@
         <v>840</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>802</v>
+      </c>
+      <c r="B300" t="s">
+        <v>21</v>
+      </c>
       <c r="C300" t="s">
         <v>305</v>
       </c>
@@ -7107,7 +7283,10 @@
         <v>841</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>802</v>
+      </c>
       <c r="B301" t="s">
         <v>831</v>
       </c>
@@ -7118,7 +7297,13 @@
         <v>842</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>802</v>
+      </c>
+      <c r="B302" t="s">
+        <v>831</v>
+      </c>
       <c r="C302" t="s">
         <v>789</v>
       </c>
@@ -7126,7 +7311,13 @@
         <v>843</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>802</v>
+      </c>
+      <c r="B303" t="s">
+        <v>831</v>
+      </c>
       <c r="C303" t="s">
         <v>790</v>
       </c>
@@ -7134,7 +7325,13 @@
         <v>845</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>802</v>
+      </c>
+      <c r="B304" t="s">
+        <v>831</v>
+      </c>
       <c r="C304" t="s">
         <v>791</v>
       </c>
@@ -7142,7 +7339,10 @@
         <v>844</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>802</v>
+      </c>
       <c r="B305" t="s">
         <v>792</v>
       </c>
@@ -7153,7 +7353,13 @@
         <v>846</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>802</v>
+      </c>
+      <c r="B306" t="s">
+        <v>792</v>
+      </c>
       <c r="C306" t="s">
         <v>287</v>
       </c>
@@ -7161,7 +7367,13 @@
         <v>847</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>802</v>
+      </c>
+      <c r="B307" t="s">
+        <v>792</v>
+      </c>
       <c r="C307" t="s">
         <v>291</v>
       </c>
@@ -7169,7 +7381,13 @@
         <v>848</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>802</v>
+      </c>
+      <c r="B308" t="s">
+        <v>792</v>
+      </c>
       <c r="C308" t="s">
         <v>295</v>
       </c>
@@ -7177,7 +7395,13 @@
         <v>849</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>802</v>
+      </c>
+      <c r="B309" t="s">
+        <v>792</v>
+      </c>
       <c r="C309" t="s">
         <v>794</v>
       </c>
@@ -7185,7 +7409,10 @@
         <v>850</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>802</v>
+      </c>
       <c r="B310" t="s">
         <v>796</v>
       </c>
@@ -7196,7 +7423,13 @@
         <v>851</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>802</v>
+      </c>
+      <c r="B311" t="s">
+        <v>796</v>
+      </c>
       <c r="C311" t="s">
         <v>300</v>
       </c>
@@ -7204,15 +7437,27 @@
         <v>852</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C312" s="9" t="s">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>802</v>
+      </c>
+      <c r="B312" t="s">
+        <v>796</v>
+      </c>
+      <c r="C312" t="s">
         <v>303</v>
       </c>
       <c r="D312" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>802</v>
+      </c>
+      <c r="B313" t="s">
+        <v>796</v>
+      </c>
       <c r="C313" t="s">
         <v>306</v>
       </c>
@@ -7220,7 +7465,13 @@
         <v>854</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>802</v>
+      </c>
+      <c r="B314" t="s">
+        <v>796</v>
+      </c>
       <c r="C314" t="s">
         <v>310</v>
       </c>
@@ -7228,18 +7479,24 @@
         <v>855</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B315" s="9" t="s">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>802</v>
+      </c>
+      <c r="B315" t="s">
         <v>797</v>
       </c>
-      <c r="C315" s="9" t="s">
+      <c r="C315" t="s">
         <v>797</v>
       </c>
       <c r="D315" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>802</v>
+      </c>
       <c r="B316" t="s">
         <v>798</v>
       </c>
@@ -7250,7 +7507,13 @@
         <v>857</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>802</v>
+      </c>
+      <c r="B317" t="s">
+        <v>798</v>
+      </c>
       <c r="C317" t="s">
         <v>319</v>
       </c>
@@ -7258,7 +7521,13 @@
         <v>858</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>802</v>
+      </c>
+      <c r="B318" t="s">
+        <v>798</v>
+      </c>
       <c r="C318" t="s">
         <v>799</v>
       </c>
@@ -7446,7 +7715,7 @@
       <c r="C10" t="s">
         <v>302</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>303</v>
       </c>
     </row>
@@ -8908,7 +9177,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B20" t="s">
